--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
   <si>
     <t>Case ID</t>
   </si>
@@ -61,7 +61,7 @@
     <t>TC003</t>
   </si>
   <si>
-    <t>TC00API Call</t>
+    <t>pacs008 in cny 100</t>
   </si>
   <si>
     <t>Step ID</t>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>$[2].balance</t>
-  </si>
-  <si>
-    <t>pacs008 in cny 100</t>
   </si>
   <si>
     <t>[TestSetup]PRE_01</t>
@@ -277,10 +274,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -331,6 +328,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -343,9 +348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +357,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,7 +379,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,110 +477,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -502,25 +499,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,25 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,91 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,24 +680,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,25 +709,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,6 +738,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -765,17 +762,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,8 +774,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,150 +805,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,13 +1371,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.28571428571429" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.5047619047619" style="14" customWidth="1"/>
+    <col min="2" max="2" width="33" style="14" customWidth="1"/>
     <col min="3" max="3" width="33.7238095238095" style="14" customWidth="1"/>
     <col min="4" max="4" width="9" style="14"/>
     <col min="5" max="5" width="5.57142857142857" style="14" customWidth="1"/>
@@ -1880,7 +1877,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -2036,28 +2033,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
@@ -2069,10 +2066,10 @@
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="6"/>
@@ -2085,28 +2082,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>7</v>
@@ -2118,10 +2115,10 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
@@ -2134,26 +2131,26 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -2165,10 +2162,10 @@
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="4"/>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>Case ID</t>
   </si>
@@ -55,157 +55,160 @@
     <t>Search for frontend development</t>
   </si>
   <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>pacs008 in cny 100</t>
+  </si>
+  <si>
+    <t>Step ID</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Parameter Name</t>
+  </si>
+  <si>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>url,search_term</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Element Name</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>open_url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>SearchBox</t>
+  </si>
+  <si>
+    <t>highlight_element</t>
+  </si>
+  <si>
+    <t>send_keys</t>
+  </si>
+  <si>
+    <t>search_term</t>
+  </si>
+  <si>
+    <t>SearchButton</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>capture_screenshot</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>Locator Value</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>wd</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>TC001功能测试</t>
+  </si>
+  <si>
+    <t>TC001性能测试</t>
+  </si>
+  <si>
+    <t>TC002自动化测试</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Defaults</t>
+  </si>
+  <si>
+    <t>Body Modifications</t>
+  </si>
+  <si>
+    <t>Exp Status</t>
+  </si>
+  <si>
+    <t>Exp Result</t>
+  </si>
+  <si>
+    <t>Save Fields</t>
+  </si>
+  <si>
+    <t>Act Status</t>
+  </si>
+  <si>
+    <t>Act Result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Saved Fields</t>
+  </si>
+  <si>
+    <t>API Timing</t>
+  </si>
+  <si>
+    <t>Position_01</t>
+  </si>
+  <si>
+    <t>positions</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>pacs008 in cny 100</t>
-  </si>
-  <si>
-    <t>Step ID</t>
-  </si>
-  <si>
-    <t>Page Name</t>
-  </si>
-  <si>
-    <t>Module Name</t>
-  </si>
-  <si>
-    <t>Parameter Name</t>
-  </si>
-  <si>
-    <t>Baidu</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>url,search_term</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Element Name</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>open_url</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>SearchBox</t>
-  </si>
-  <si>
-    <t>highlight_element</t>
-  </si>
-  <si>
-    <t>send_keys</t>
-  </si>
-  <si>
-    <t>search_term</t>
-  </si>
-  <si>
-    <t>SearchButton</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>Locator Type</t>
-  </si>
-  <si>
-    <t>Locator Value</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>wd</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>Data Set</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-  </si>
-  <si>
-    <t>TC001功能测试</t>
-  </si>
-  <si>
-    <t>TC001性能测试</t>
-  </si>
-  <si>
-    <t>TC002自动化测试</t>
-  </si>
-  <si>
-    <t>TCID</t>
-  </si>
-  <si>
-    <t>Conditions</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
-  </si>
-  <si>
-    <t>Headers</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Defaults</t>
-  </si>
-  <si>
-    <t>Body Modifications</t>
-  </si>
-  <si>
-    <t>Exp Status</t>
-  </si>
-  <si>
-    <t>Exp Result</t>
-  </si>
-  <si>
-    <t>Save Fields</t>
-  </si>
-  <si>
-    <t>Act Status</t>
-  </si>
-  <si>
-    <t>Act Result</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Saved Fields</t>
-  </si>
-  <si>
-    <t>API Timing</t>
-  </si>
-  <si>
-    <t>Position_01</t>
-  </si>
-  <si>
-    <t>positions</t>
-  </si>
-  <si>
-    <t>default</t>
   </si>
   <si>
     <t>PRE_01</t>
@@ -274,10 +277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -328,6 +331,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -336,27 +358,114 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,112 +479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,187 +502,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,21 +707,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,11 +759,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,6 +791,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -808,138 +811,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1371,16 +1374,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.28703703703704" style="14" customWidth="1"/>
     <col min="2" max="2" width="33" style="14" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="14" customWidth="1"/>
+    <col min="3" max="3" width="33.7222222222222" style="14" customWidth="1"/>
     <col min="4" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="5.57142857142857" style="14" customWidth="1"/>
+    <col min="5" max="5" width="5.57407407407407" style="14" customWidth="1"/>
     <col min="6" max="1024" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -1429,21 +1432,21 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:5">
+    <row r="4" ht="16.8" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -1468,12 +1471,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" style="14" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="14" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.86111111111111" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.7222222222222" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.4259259259259" style="14" customWidth="1"/>
     <col min="5" max="5" width="34" style="14" customWidth="1"/>
     <col min="6" max="1024" width="9" style="14"/>
   </cols>
@@ -1483,16 +1486,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
@@ -1503,13 +1506,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -1520,27 +1523,27 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -1559,118 +1562,124 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.7238095238095" style="14" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.2761904761905" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11.7222222222222" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.1388888888889" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.2777777777778" style="14" customWidth="1"/>
     <col min="4" max="4" width="32" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.4259259259259" style="14" customWidth="1"/>
     <col min="6" max="1024" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
   </sheetData>
@@ -1689,20 +1698,20 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7333333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="11.7314814814815" customWidth="1"/>
+    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>32</v>
@@ -1713,10 +1722,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>34</v>
@@ -1727,10 +1736,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>36</v>
@@ -1755,11 +1764,11 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
+    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
@@ -1770,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>39</v>
@@ -1784,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>40</v>
@@ -1798,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>41</v>
@@ -1812,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>40</v>
@@ -1826,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>42</v>
@@ -1840,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>40</v>
@@ -1854,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>43</v>
@@ -1880,27 +1889,27 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.2761904761905" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1388888888889" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.2777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7314814814815" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2190476190476" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.2666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.2666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.71296296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.2685185185185" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.2685185185185" style="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.57142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5809523809524" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.57407407407407" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5833333333333" style="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.8761904761905" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.9714285714286" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85714285714286" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.8666666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="20" max="1024" width="9.42857142857143" style="1"/>
+    <col min="14" max="14" width="26.8796296296296" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.4259259259259" style="1" customWidth="1"/>
+    <col min="16" max="16" width="34.9722222222222" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.86111111111111" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.8703703703704" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1388888888889" style="1" customWidth="1"/>
+    <col min="20" max="1024" width="9.42592592592593" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:19">
@@ -1979,7 +1988,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
@@ -1995,7 +2004,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2010,17 +2019,17 @@
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="6"/>
@@ -2033,28 +2042,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
@@ -2066,10 +2075,10 @@
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="6"/>
@@ -2082,28 +2091,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>7</v>
@@ -2115,10 +2124,10 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
@@ -2128,29 +2137,29 @@
     </row>
     <row r="6" ht="31.5" customHeight="1" spans="1:19">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -2162,10 +2171,10 @@
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="4"/>
@@ -2173,7 +2182,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="9" customHeight="1" spans="17:17">
+    <row r="9" ht="15" customHeight="1" spans="17:17">
       <c r="Q9" s="11"/>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="500"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
   <si>
     <t>Case ID</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Actions</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
   </si>
   <si>
     <t>open_url</t>
@@ -277,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -337,13 +340,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -358,8 +354,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,14 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -411,6 +415,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -435,27 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -465,15 +455,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,25 +505,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,49 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,25 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,73 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,6 +710,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,23 +771,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,15 +803,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -811,7 +814,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -819,134 +822,134 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,6 +987,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,17 +1382,17 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28703703703704" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.28571428571429" style="14" customWidth="1"/>
     <col min="2" max="2" width="33" style="14" customWidth="1"/>
-    <col min="3" max="3" width="33.7222222222222" style="14" customWidth="1"/>
+    <col min="3" max="3" width="33.7238095238095" style="14" customWidth="1"/>
     <col min="4" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="5.57407407407407" style="14" customWidth="1"/>
+    <col min="5" max="5" width="5.57142857142857" style="14" customWidth="1"/>
     <col min="6" max="1024" width="9" style="14"/>
   </cols>
   <sheetData>
@@ -1438,7 +1447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="16.8" spans="1:5">
+    <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1471,12 +1480,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7.86111111111111" style="14" customWidth="1"/>
-    <col min="3" max="3" width="11.7222222222222" style="14" customWidth="1"/>
-    <col min="4" max="4" width="19.4259259259259" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.7238095238095" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" style="14" customWidth="1"/>
     <col min="5" max="5" width="34" style="14" customWidth="1"/>
     <col min="6" max="1024" width="9" style="14"/>
   </cols>
@@ -1559,23 +1568,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.7222222222222" style="14" customWidth="1"/>
-    <col min="2" max="2" width="24.1388888888889" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.2777777777778" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11.7238095238095" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.2761904761905" style="14" customWidth="1"/>
     <col min="4" max="4" width="32" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17.4259259259259" style="14" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="14"/>
+    <col min="5" max="5" width="17" style="15" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" style="15" customWidth="1"/>
+    <col min="7" max="1024" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1" ht="15.75" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1591,8 +1601,11 @@
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1601,13 +1614,14 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+      <c r="E2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1615,14 +1629,15 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1630,16 +1645,17 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:5">
+      <c r="E4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1647,14 +1663,15 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1662,14 +1679,17 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1678,9 +1698,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1698,11 +1719,11 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7314814814815" customWidth="1"/>
-    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
-    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="11.7333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1714,10 +1735,10 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1725,13 +1746,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1739,13 +1760,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1764,11 +1785,11 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
+    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="23.7333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
@@ -1776,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1793,10 +1814,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1807,10 +1828,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -1821,10 +1842,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -1835,10 +1856,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
@@ -1849,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
@@ -1863,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1889,32 +1910,32 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1388888888889" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.2777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7314814814815" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.2761904761905" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.71296296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.2685185185185" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.2685185185185" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.2190476190476" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.2666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.2666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.57407407407407" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.57142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5809523809524" style="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.8796296296296" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.4259259259259" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.9722222222222" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.86111111111111" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.8703703703704" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1388888888889" style="1" customWidth="1"/>
-    <col min="20" max="1024" width="9.42592592592593" style="1"/>
+    <col min="14" max="14" width="26.8761904761905" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="34.9714285714286" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85714285714286" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.8666666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="20" max="1024" width="9.42857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1923,22 +1944,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -1947,48 +1968,48 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
@@ -2004,32 +2025,32 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="6"/>
@@ -2048,22 +2069,22 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
@@ -2075,10 +2096,10 @@
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="6"/>
@@ -2091,28 +2112,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>7</v>
@@ -2124,10 +2145,10 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
@@ -2147,19 +2168,19 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -2171,10 +2192,10 @@
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="4"/>
@@ -2182,7 +2203,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="17:17">
+    <row r="9" customHeight="1" spans="17:17">
       <c r="Q9" s="11"/>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
   <si>
     <t>Case ID</t>
   </si>
@@ -118,9 +118,6 @@
     <t>click</t>
   </si>
   <si>
-    <t>capture_screenshot</t>
-  </si>
-  <si>
     <t>Locator Type</t>
   </si>
   <si>
@@ -185,21 +182,6 @@
   </si>
   <si>
     <t>Save Fields</t>
-  </si>
-  <si>
-    <t>Act Status</t>
-  </si>
-  <si>
-    <t>Act Result</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Saved Fields</t>
-  </si>
-  <si>
-    <t>API Timing</t>
   </si>
   <si>
     <t>Position_01</t>
@@ -285,7 +267,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -301,24 +283,6 @@
     <font>
       <sz val="10.5"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006400"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006400"/>
-      <name val="Cambria"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -814,142 +778,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,29 +925,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1388,12 +1333,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" style="14" customWidth="1"/>
-    <col min="2" max="2" width="33" style="14" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="5.57142857142857" style="14" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="14"/>
+    <col min="1" max="1" width="8.28571428571429" style="7" customWidth="1"/>
+    <col min="2" max="2" width="33" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.7238095238095" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="5.57142857142857" style="7" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1482,12 +1427,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" style="14" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="14" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="14" customWidth="1"/>
-    <col min="5" max="5" width="34" style="14" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="14"/>
+    <col min="1" max="1" width="8" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.7238095238095" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" style="7" customWidth="1"/>
+    <col min="5" max="5" width="34" style="7" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1568,21 +1513,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.7238095238095" style="14" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.2761904761905" style="14" customWidth="1"/>
-    <col min="4" max="4" width="32" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17" style="15" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="15" customWidth="1"/>
-    <col min="7" max="1024" width="9" style="14"/>
+    <col min="1" max="1" width="11.7238095238095" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.2761904761905" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" style="8" customWidth="1"/>
+    <col min="7" max="1024" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
@@ -1616,10 +1561,10 @@
       <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
@@ -1634,8 +1579,8 @@
       <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
@@ -1650,10 +1595,10 @@
       <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -1668,8 +1613,8 @@
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -1684,24 +1629,10 @@
       <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1735,10 +1666,10 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1749,10 +1680,10 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1763,10 +1694,10 @@
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1797,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1816,8 +1747,8 @@
       <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>41</v>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1830,8 +1761,8 @@
       <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>42</v>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -1844,8 +1775,8 @@
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>41</v>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -1858,8 +1789,8 @@
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>43</v>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
@@ -1872,8 +1803,8 @@
       <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>41</v>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
@@ -1886,8 +1817,8 @@
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>44</v>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1904,10 +1835,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1925,17 +1856,13 @@
     <col min="12" max="12" width="10.5809523809524" style="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="1" customWidth="1"/>
     <col min="14" max="14" width="26.8761904761905" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16" width="34.9714285714286" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85714285714286" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.8666666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="20" max="1024" width="9.42857142857143" style="1"/>
+    <col min="15" max="1019" width="9.42857142857143" style="1"/>
+    <col min="1020" max="1020" width="9.42857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:19">
+    <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1944,22 +1871,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -1968,48 +1895,33 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="2" t="s">
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
@@ -2017,48 +1929,38 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:19">
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" customHeight="1" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2069,22 +1971,22 @@
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
@@ -2096,44 +1998,39 @@
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" ht="32.25" customHeight="1" spans="1:19">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" ht="32.25" customHeight="1" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>7</v>
@@ -2145,18 +2042,13 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" ht="31.5" customHeight="1" spans="1:19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="31.5" customHeight="1" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -2168,19 +2060,19 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -2192,20 +2084,13 @@
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="10"/>
-    </row>
-    <row r="9" customHeight="1" spans="17:17">
-      <c r="Q9" s="11"/>
-    </row>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
   <si>
     <t>Case ID</t>
   </si>
@@ -43,18 +43,21 @@
     <t>Search for software testing</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Search for frontend development</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>tag1</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>Search for frontend development</t>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
@@ -184,7 +187,7 @@
     <t>Save Fields</t>
   </si>
   <si>
-    <t>Position_01</t>
+    <t>Position</t>
   </si>
   <si>
     <t>positions</t>
@@ -193,19 +196,16 @@
     <t>default</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PRE_01</t>
-  </si>
-  <si>
     <t>$[2].balance=50000.0</t>
   </si>
   <si>
+    <t>PRE</t>
+  </si>
+  <si>
     <t>$[2].balance</t>
   </si>
   <si>
-    <t>[TestSetup]PRE_01</t>
+    <t>[TestSetup]PRE</t>
   </si>
   <si>
     <t>pacs.008_inbound</t>
@@ -230,7 +230,7 @@
     <t>pacs008 out cny 100</t>
   </si>
   <si>
-    <t>[TestSetup]Position_01</t>
+    <t>[Checkwith]Position</t>
   </si>
   <si>
     <t>pacs.008_outbound</t>
@@ -245,13 +245,14 @@
     <t>x_pacs.008_out_cny</t>
   </si>
   <si>
-    <t xml:space="preserve">{"amount": ${TC001.$.amount}} </t>
-  </si>
-  <si>
-    <t>$.result.amount=${TC001.$.amount}</t>
+    <t>Position.$[3].balance=-100</t>
   </si>
   <si>
     <t>$.result.amount</t>
+  </si>
+  <si>
+    <t>$.amount=100.0
+Position.$[3].balance=+100</t>
   </si>
   <si>
     <t>$.amount</t>
@@ -262,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -304,7 +305,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +364,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -327,37 +380,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -379,13 +401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -410,6 +425,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -418,34 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,187 +470,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +679,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -689,6 +699,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,15 +727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -728,15 +738,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,7 +779,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -786,130 +787,130 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,7 +1329,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1386,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -1394,16 +1395,16 @@
     </row>
     <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -1422,7 +1423,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1440,16 +1441,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
@@ -1460,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -1477,30 +1478,30 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1532,106 +1533,106 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1660,44 +1661,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1728,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1745,10 +1746,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1759,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -1773,10 +1774,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -1787,10 +1788,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
@@ -1801,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
@@ -1815,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1837,8 +1838,8 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -1862,7 +1863,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1871,22 +1872,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -1895,80 +1896,82 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
         <v>200</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="N2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:14">
+    <row r="4" ht="31.5" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>61</v>
@@ -1977,7 +1980,7 @@
         <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>63</v>
@@ -1989,7 +1992,7 @@
         <v>65</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>8</v>
@@ -2004,7 +2007,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" ht="32.25" customHeight="1" spans="1:14">
+    <row r="5" ht="15.75" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2030,10 +2033,10 @@
         <v>73</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>8</v>
@@ -2042,28 +2045,30 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" ht="31.5" customHeight="1" spans="1:14">
+    </row>
+    <row r="6" ht="31.5" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>63</v>
@@ -2075,7 +2080,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>8</v>
@@ -2084,7 +2089,7 @@
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>77</v>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -43,157 +43,157 @@
     <t>Search for software testing</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Search for frontend development</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>pacs008 in cny 100</t>
+  </si>
+  <si>
+    <t>Step ID</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Parameter Name</t>
+  </si>
+  <si>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>url,search_term</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Element Name</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>open_url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>SearchBox</t>
+  </si>
+  <si>
+    <t>highlight_element</t>
+  </si>
+  <si>
+    <t>send_keys</t>
+  </si>
+  <si>
+    <t>search_term</t>
+  </si>
+  <si>
+    <t>SearchButton</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>Locator Value</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>wd</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>TC001功能测试</t>
+  </si>
+  <si>
+    <t>TC001性能测试</t>
+  </si>
+  <si>
+    <t>TC002自动化测试</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Defaults</t>
+  </si>
+  <si>
+    <t>Body Modifications</t>
+  </si>
+  <si>
+    <t>Exp Status</t>
+  </si>
+  <si>
+    <t>Exp Result</t>
+  </si>
+  <si>
+    <t>Save Fields</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>positions</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>tag1</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>Search for frontend development</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>pacs008 in cny 100</t>
-  </si>
-  <si>
-    <t>Step ID</t>
-  </si>
-  <si>
-    <t>Page Name</t>
-  </si>
-  <si>
-    <t>Module Name</t>
-  </si>
-  <si>
-    <t>Parameter Name</t>
-  </si>
-  <si>
-    <t>Baidu</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>url,search_term</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Element Name</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>open_url</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>SearchBox</t>
-  </si>
-  <si>
-    <t>highlight_element</t>
-  </si>
-  <si>
-    <t>send_keys</t>
-  </si>
-  <si>
-    <t>search_term</t>
-  </si>
-  <si>
-    <t>SearchButton</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>Locator Type</t>
-  </si>
-  <si>
-    <t>Locator Value</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>wd</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>Data Set</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-  </si>
-  <si>
-    <t>TC001功能测试</t>
-  </si>
-  <si>
-    <t>TC001性能测试</t>
-  </si>
-  <si>
-    <t>TC002自动化测试</t>
-  </si>
-  <si>
-    <t>TCID</t>
-  </si>
-  <si>
-    <t>Conditions</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
-  </si>
-  <si>
-    <t>Headers</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Defaults</t>
-  </si>
-  <si>
-    <t>Body Modifications</t>
-  </si>
-  <si>
-    <t>Exp Status</t>
-  </si>
-  <si>
-    <t>Exp Result</t>
-  </si>
-  <si>
-    <t>Save Fields</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>positions</t>
-  </si>
-  <si>
-    <t>default</t>
   </si>
   <si>
     <t>$[2].balance=50000.0</t>
@@ -263,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -299,13 +299,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,8 +313,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,112 +440,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -447,9 +448,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,19 +470,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,163 +644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,15 +679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -707,7 +698,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,6 +714,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,9 +744,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,149 +770,147 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,8 +1328,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1387,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -1395,16 +1395,16 @@
     </row>
     <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -1423,7 +1423,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1441,16 +1441,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
@@ -1461,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -1478,27 +1478,27 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -1533,106 +1533,106 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1661,44 +1661,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1729,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1746,10 +1746,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1760,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -1774,10 +1774,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -1788,10 +1788,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
@@ -1802,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
@@ -1816,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1838,7 +1838,7 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1863,7 +1863,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1872,22 +1872,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -1896,33 +1896,33 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
@@ -1941,16 +1941,16 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
@@ -1968,10 +1968,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>61</v>
@@ -1980,7 +1980,7 @@
         <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>63</v>
@@ -1992,7 +1992,7 @@
         <v>65</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>8</v>
@@ -2036,7 +2036,7 @@
         <v>65</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>8</v>
@@ -2053,13 +2053,13 @@
     </row>
     <row r="6" ht="31.5" spans="1:14">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>69</v>
@@ -2068,7 +2068,7 @@
         <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>63</v>
@@ -2080,7 +2080,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>8</v>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
   <si>
     <t>Case ID</t>
   </si>
@@ -37,16 +37,25 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>pacs008 in cny 100</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>TC001</t>
   </si>
   <si>
     <t>Search for software testing</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>tag1</t>
+    <t>n</t>
   </si>
   <si>
     <t>TC002</t>
@@ -55,12 +64,6 @@
     <t>Search for frontend development</t>
   </si>
   <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>pacs008 in cny 100</t>
-  </si>
-  <si>
     <t>Step ID</t>
   </si>
   <si>
@@ -151,7 +154,7 @@
     <t>TC001性能测试</t>
   </si>
   <si>
-    <t>TC002自动化测试</t>
+    <t>TC002自动化测试 ${TC002.$.result.amount}</t>
   </si>
   <si>
     <t>TCID</t>
@@ -264,9 +267,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -300,16 +303,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,29 +406,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,71 +427,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,28 +451,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -470,31 +473,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +611,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,139 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,26 +682,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,11 +732,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,16 +771,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -787,130 +790,130 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,16 +1332,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.28703703703704" style="7" customWidth="1"/>
     <col min="2" max="2" width="33" style="7" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.7222222222222" style="7" customWidth="1"/>
     <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="5.57142857142857" style="7" customWidth="1"/>
+    <col min="5" max="5" width="5.57407407407407" style="7" customWidth="1"/>
     <col min="6" max="1024" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -1359,7 +1362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+    <row r="2" ht="16.8" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1387,21 +1390,21 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:5">
+    <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -1426,12 +1429,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.86111111111111" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.7222222222222" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.4259259259259" style="7" customWidth="1"/>
     <col min="5" max="5" width="34" style="7" customWidth="1"/>
     <col min="6" max="1024" width="9" style="7"/>
   </cols>
@@ -1441,67 +1444,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1520,115 +1523,115 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.7238095238095" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.2761904761905" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.7222222222222" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.1388888888889" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.2777777777778" style="7" customWidth="1"/>
     <col min="4" max="4" width="32" style="7" customWidth="1"/>
     <col min="5" max="5" width="17" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.287037037037" style="8" customWidth="1"/>
     <col min="7" max="1024" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="9"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -1651,54 +1654,54 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7333333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="11.7314814814815" customWidth="1"/>
+    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1714,14 +1717,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
+    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
@@ -1729,97 +1732,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1838,32 +1841,32 @@
   <sheetPr/>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.2761904761905" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1388888888889" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.2777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7314814814815" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2190476190476" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.2666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.2666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.71296296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.2685185185185" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.2685185185185" style="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.57142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5809523809524" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.57407407407407" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5833333333333" style="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.8761904761905" style="1" customWidth="1"/>
-    <col min="15" max="1019" width="9.42857142857143" style="1"/>
-    <col min="1020" max="1020" width="9.42857142857143"/>
+    <col min="14" max="14" width="26.8796296296296" style="1" customWidth="1"/>
+    <col min="15" max="1019" width="9.42592592592593" style="1"/>
+    <col min="1020" max="1020" width="9.42592592592593"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1872,22 +1875,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -1896,100 +1899,100 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
         <v>200</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" ht="31.5" spans="1:14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" ht="33.6" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
@@ -2001,39 +2004,39 @@
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" spans="1:14">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>7</v>
@@ -2045,39 +2048,39 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" ht="31.5" spans="1:14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="33.6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -2089,13 +2092,13 @@
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,15 @@
     <sheet name="TestData" sheetId="5" r:id="rId5"/>
     <sheet name="API" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
   <si>
     <t>Case ID</t>
   </si>
@@ -82,7 +85,7 @@
     <t>Search</t>
   </si>
   <si>
-    <t>url,search_term</t>
+    <t>url,search_term,expected_title</t>
   </si>
   <si>
     <t>API</t>
@@ -121,6 +124,12 @@
     <t>click</t>
   </si>
   <si>
+    <t>title_should_contains</t>
+  </si>
+  <si>
+    <t>expected_title</t>
+  </si>
+  <si>
     <t>Locator Type</t>
   </si>
   <si>
@@ -151,10 +160,13 @@
     <t>TC001功能测试</t>
   </si>
   <si>
+    <t>百度搜索</t>
+  </si>
+  <si>
     <t>TC001性能测试</t>
   </si>
   <si>
-    <t>TC002自动化测试 ${TC002.$.result.amount}</t>
+    <t>TC002自动化测试</t>
   </si>
   <si>
     <t>TCID</t>
@@ -266,12 +278,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -294,12 +306,20 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -309,10 +329,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,72 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -398,11 +434,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,13 +450,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,31 +462,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,187 +478,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF212121"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +698,41 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,30 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -768,156 +790,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,17 +940,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,6 +1086,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TestCases"/>
+      <sheetName val="TestSteps"/>
+      <sheetName val="PageModules"/>
+      <sheetName val="Locators"/>
+      <sheetName val="TestData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1331,18 +1369,18 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28703703703704" style="7" customWidth="1"/>
-    <col min="2" max="2" width="33" style="7" customWidth="1"/>
-    <col min="3" max="3" width="33.7222222222222" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="5.57407407407407" style="7" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="7"/>
+    <col min="1" max="1" width="8.28703703703704" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33" style="9" customWidth="1"/>
+    <col min="3" max="3" width="33.7222222222222" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9" style="9"/>
+    <col min="5" max="5" width="5.57407407407407" style="9" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1426,17 +1464,17 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.86111111111111" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.7222222222222" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.4259259259259" style="7" customWidth="1"/>
-    <col min="5" max="5" width="34" style="7" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="7"/>
+    <col min="1" max="1" width="8" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.86111111111111" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.7222222222222" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.4259259259259" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34" style="9" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1517,37 +1555,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.7222222222222" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.1388888888889" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.2777777777778" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.287037037037" style="8" customWidth="1"/>
-    <col min="7" max="1024" width="9" style="7"/>
+    <col min="1" max="1" width="11.7222222222222" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.1388888888889" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.2777777777778" style="9" customWidth="1"/>
+    <col min="4" max="4" width="32" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.287037037037" style="10" customWidth="1"/>
+    <col min="7" max="1024" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1555,90 +1593,111 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="7" ht="16.8" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C2:C6">
+      <formula1>[1]Locators!#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -1670,10 +1729,10 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -1684,10 +1743,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -1698,10 +1757,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1714,13 +1773,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1728,107 +1787,149 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>40</v>
+      <c r="D1" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>41</v>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>42</v>
+      <c r="D3" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="9" ht="16.8" spans="1:4">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" spans="1:4">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.baidu.com"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://www.baidu.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1866,7 +1967,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1875,22 +1976,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -1899,71 +2000,71 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3">
         <v>200</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="33.6" spans="1:14">
@@ -1977,22 +2078,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>7</v>
@@ -2004,10 +2105,10 @@
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="16.8" spans="1:14">
@@ -2015,28 +2116,28 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>7</v>
@@ -2048,10 +2149,10 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" ht="33.6" spans="1:14">
@@ -2065,22 +2166,22 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -2092,10 +2193,10 @@
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1"/>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="500" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,21 @@
     <sheet name="Locators" sheetId="4" r:id="rId4"/>
     <sheet name="TestData" sheetId="5" r:id="rId5"/>
     <sheet name="API" sheetId="6" r:id="rId6"/>
+    <sheet name="Endpoints" sheetId="8" r:id="rId7"/>
+    <sheet name="Headers" sheetId="9" r:id="rId8"/>
+    <sheet name="BodyTemplates" sheetId="10" r:id="rId9"/>
+    <sheet name="BodyDefaults" sheetId="11" r:id="rId10"/>
+    <sheet name="WebEnvironments" sheetId="7" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
   <si>
     <t>Case ID</t>
   </si>
@@ -181,13 +186,13 @@
     <t>Headers</t>
   </si>
   <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Defaults</t>
-  </si>
-  <si>
-    <t>Body Modifications</t>
+    <t>Body Template</t>
+  </si>
+  <si>
+    <t>Body Default</t>
+  </si>
+  <si>
+    <t>Body User-defined Fields</t>
   </si>
   <si>
     <t>Exp Status</t>
@@ -227,9 +232,6 @@
   </si>
   <si>
     <t>j_pacs.008_in</t>
-  </si>
-  <si>
-    <t>j_pacs.008_in_cny</t>
   </si>
   <si>
     <t xml:space="preserve">{"amount": 100} </t>
@@ -257,13 +259,15 @@
     <t>x_pacs.008_out</t>
   </si>
   <si>
-    <t>x_pacs.008_out_cny</t>
-  </si>
-  <si>
     <t>Position.$[3].balance=-100</t>
   </si>
   <si>
     <t>$.result.amount</t>
+  </si>
+  <si>
+    <t>[Checkwith]Position
+[TestSetup]PRE
+[TestTeardown]PRE</t>
   </si>
   <si>
     <t>$.amount=100.0
@@ -271,6 +275,267 @@
   </si>
   <si>
     <t>$.amount</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/inbound_payment.json</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/outbound_payment.xml</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/api/positions2</t>
+  </si>
+  <si>
+    <t>SIT</t>
+  </si>
+  <si>
+    <t>https://vhuang2.free.beeceptor.com/api/outbound_payment.json</t>
+  </si>
+  <si>
+    <t>https://vhuang2.free.beeceptor.com/api/outbound_payment.xml</t>
+  </si>
+  <si>
+    <t>https://vhuang2.free.beeceptor.com/api/positions</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>https://vhuang1.free.beeceptor.com/api/outbound_payment.json</t>
+  </si>
+  <si>
+    <t>https://vhuang1.free.beeceptor.com/api/outbound_payment.xml</t>
+  </si>
+  <si>
+    <t>https://vhuang1.free.beeceptor.com/api/positions</t>
+  </si>
+  <si>
+    <t>WebEnvironments</t>
+  </si>
+  <si>
+    <t>HeaderName</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Content-Type: application/json
+accept: application/json
+Authorization: token="{{uuid4}}"
+timestamp: "{{timestamp}}"
+timestamp2: "{{formated_timestamp}}"
+bic: "{{bic}}"
+user_agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
+  </si>
+  <si>
+    <t>Content-Type: application/json
+accept: application/json
+Authorization: "{{uuid4}}"
+user_agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
+  </si>
+  <si>
+    <t>TemplateName</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>{
+  "transaction_id": "{{transaction_id}}",
+  "amount": {{amount}},
+  "currency": "{{currency}}",
+  "debtor": {
+    "name": "{{debtor.name}}",
+    "phones": [
+      {% for phone in debtor.phones %}
+      "{{ phone }}"
+    {% if not loop.last %},{% endif %}
+    {% endfor %}
+    ],
+    "email": "{{debtor.email}}",
+    "address": "{{debtor.address}}"
+  },
+  "creditor": {
+    "name": "Hal Jordan",
+    "phones": [
+      {% for phone in creditor.phones %}
+      "{{ phone }}"
+    {% if not loop.last %},{% endif %}
+    {% endfor %}
+    ],
+    "email": "{{debtor.email}}",
+    "address": "{{debtor.address}}"
+  }
+}</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>&lt;Document xmlns="urn:iso:std:iso:20022:tech:xsd:pacs.008.001.02"&gt;
+    &lt;CdtTrfTxInf&gt;
+        &lt;PmtId&gt;
+            &lt;InstrId&gt;{{ InstrId }}&lt;/InstrId&gt;
+            &lt;EndToEndId&gt;{{ EndToEndId }}&lt;/EndToEndId&gt;
+        &lt;/PmtId&gt;
+        &lt;IntrBkSttlmAmt Ccy="{{ currency }}"&gt;{{ amount }}&lt;/IntrBkSttlmAmt&gt;
+        &lt;Dbtr&gt;
+            &lt;Nm&gt;{{ debtor.name }}&lt;/Nm&gt;
+            &lt;PstlAdr&gt;
+                &lt;StrtNm&gt;{{ debtor.address }}&lt;/StrtNm&gt;
+                {%- for phone in debtor.phones %}
+                &lt;Phne&gt;{{ phone }}&lt;/Phne&gt;
+                {%- endfor %}
+            &lt;/PstlAdr&gt;
+            &lt;CtctDtls&gt;
+                &lt;EmailAdr&gt;{{ debtor.email }}&lt;/EmailAdr&gt;
+            &lt;/CtctDtls&gt;
+        &lt;/Dbtr&gt;
+        &lt;Cdtr&gt;
+            &lt;Nm&gt;{{ creditor.name }}&lt;/Nm&gt;
+            &lt;PstlAdr&gt;
+                &lt;StrtNm&gt;{{ creditor.address }}&lt;/StrtNm&gt;
+                {%- for phone in creditor.phones %}
+                &lt;Phne&gt;{{ phone }}&lt;/Phne&gt;
+                {%- endfor %}
+            &lt;/PstlAdr&gt;
+            &lt;CtctDtls&gt;
+                &lt;EmailAdr&gt;{{ creditor.email }}&lt;/EmailAdr&gt;
+            &lt;/CtctDtls&gt;
+        &lt;/Cdtr&gt;
+    &lt;/CdtTrfTxInf&gt;
+&lt;/Document&gt;</t>
+  </si>
+  <si>
+    <t>{
+  "transaction_id": "IN123457",
+  "amount": 1500.00,
+  "currency": "CNY",
+  "debtor": {
+    "name": "Oliver Queen",
+    "phones": [
+      "555-987-1234",
+      "555-987-1235"
+    ],
+    "email": "oliver.queen@example.com",
+    "address": "500 Green Arrow Street"
+  },
+  "creditor": {
+    "name": "Hal Jordan",
+    "phones": [
+      "555-789-1234",
+      "555-789-1235"
+    ],
+    "email": "hal.jordan@example.com",
+    "address": "3000 Coast City"
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "InstrId": "OUT123456",
+  "EndToEndId": "E2EOUT123456",
+  "amount": 1500.00,
+  "currency": "CNY",
+  "debtor": {
+    "name": "Vick Huang",
+    "phones": [
+      "555-555-5555",
+      "555-555-5556"
+    ],
+    "email": "vick.huang@example.com",
+    "address": "600 Green Arrow Street"
+  },
+  "creditor": {
+    "name": "Jay Huang",
+    "phones": [
+      "555-666-1234",
+      "555-666-1235"
+    ],
+    "email": "jay.huang@example.com",
+    "address": "3333 Coast City"
+  }
+}</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>IsRemote</t>
+  </si>
+  <si>
+    <t>RemoteURL</t>
+  </si>
+  <si>
+    <t>ChromePath</t>
+  </si>
+  <si>
+    <t>ChromeDriverPath</t>
+  </si>
+  <si>
+    <t>EdgePath</t>
+  </si>
+  <si>
+    <t>EdgeDriverPath</t>
+  </si>
+  <si>
+    <t>BrowserOptions</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>http://www.sg2.findhere.org:8044/wd/hub</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe</t>
+  </si>
+  <si>
+    <t>C:\WebDrivers\msedgedriver.exe</t>
+  </si>
+  <si>
+    <t>{
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222,
+  "headless": true
+}</t>
+  </si>
+  <si>
+    <t>{
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222
+}</t>
   </si>
 </sst>
 </file>
@@ -278,10 +543,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -315,20 +580,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -350,21 +601,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -375,6 +617,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +642,21 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,6 +690,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -434,22 +705,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,7 +715,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,43 +749,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +797,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,19 +845,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,37 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,49 +911,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,15 +961,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -728,11 +984,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,6 +1016,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -776,56 +1045,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,110 +1099,131 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,6 +1236,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1097,6 +1386,7 @@
       <sheetName val="PageModules"/>
       <sheetName val="Locators"/>
       <sheetName val="TestData"/>
+      <sheetName val="WebEnvironments"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1104,6 +1394,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1373,14 +1664,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28703703703704" style="9" customWidth="1"/>
-    <col min="2" max="2" width="33" style="9" customWidth="1"/>
-    <col min="3" max="3" width="33.7222222222222" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="5.57407407407407" style="9" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="9"/>
+    <col min="1" max="1" width="8.28571428571429" style="17" customWidth="1"/>
+    <col min="2" max="2" width="33" style="17" customWidth="1"/>
+    <col min="3" max="3" width="33.7238095238095" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9" style="17"/>
+    <col min="5" max="5" width="5.57142857142857" style="17" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1400,60 +1691,231 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.552380952381" style="5" customWidth="1"/>
+    <col min="2" max="2" width="118.780952380952" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.14285714285714" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="345" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="360" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="1" spans="4:4">
+      <c r="D34" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.447619047619" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.552380952381" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.552380952381" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.552380952381" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="105" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1467,14 +1929,14 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.86111111111111" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.7222222222222" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.4259259259259" style="9" customWidth="1"/>
-    <col min="5" max="5" width="34" style="9" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="9"/>
+    <col min="1" max="1" width="8" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.7238095238095" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" style="17" customWidth="1"/>
+    <col min="5" max="5" width="34" style="17" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1495,53 +1957,53 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1561,31 +2023,31 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.7222222222222" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.1388888888889" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.2777777777778" style="9" customWidth="1"/>
-    <col min="4" max="4" width="32" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.287037037037" style="10" customWidth="1"/>
-    <col min="7" max="1024" width="9" style="9"/>
+    <col min="1" max="1" width="11.7238095238095" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.2761904761905" style="17" customWidth="1"/>
+    <col min="4" max="4" width="32" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" style="18" customWidth="1"/>
+    <col min="7" max="1024" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1593,104 +2055,104 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:6">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="15.75" spans="1:6">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1713,11 +2175,11 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7314814814815" customWidth="1"/>
-    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
-    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="11.7333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1736,30 +2198,30 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1775,154 +2237,154 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
+    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="23.7333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" ht="16.8" spans="1:4">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="15.75" spans="1:4">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" ht="16.8" spans="1:4">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="15.75" spans="1:4">
+      <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="1:4">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="15.75" spans="1:4">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="13">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1940,29 +2402,30 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:AME9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1388888888889" style="1" customWidth="1"/>
-    <col min="2" max="3" width="21.2777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7314814814815" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.71296296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.2685185185185" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.2685185185185" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.57407407407407" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5833333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.8796296296296" style="1" customWidth="1"/>
-    <col min="15" max="1019" width="9.42592592592593" style="1"/>
-    <col min="1020" max="1020" width="9.42592592592593"/>
+    <col min="1" max="1" width="13.1428571428571" style="9" customWidth="1"/>
+    <col min="2" max="3" width="21.2857142857143" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.7333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.2190476190476" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.2761904761905" style="9" customWidth="1"/>
+    <col min="9" max="9" width="38.2666666666667" style="9" customWidth="1"/>
+    <col min="10" max="10" width="5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="5.57142857142857" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10.5809523809524" style="9" customWidth="1"/>
+    <col min="13" max="13" width="28" style="9" customWidth="1"/>
+    <col min="14" max="14" width="26.8761904761905" style="9" customWidth="1"/>
+    <col min="15" max="1019" width="9.42857142857143" style="9"/>
+    <col min="1020" max="1020" width="9.42857142857143" style="8"/>
+    <col min="1021" max="16384" width="9.41904761904762" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
@@ -2010,199 +2473,3552 @@
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10">
         <v>200</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10">
         <v>200</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" ht="33.6" spans="1:14">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="31.5" customHeight="1" spans="1:14">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="10">
+        <v>200</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="N4" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:14">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L5" s="10">
         <v>200</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" ht="16.8" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="M5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="N5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
+    </row>
+    <row r="6" ht="47.25" spans="1:14">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L6" s="10">
         <v>200</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="M6" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" ht="33.6" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="3">
-        <v>200</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1"/>
+    </row>
+    <row r="7" s="8" customFormat="1" spans="1:1019">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="9"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="9"/>
+      <c r="BT7" s="9"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9"/>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="9"/>
+      <c r="BZ7" s="9"/>
+      <c r="CA7" s="9"/>
+      <c r="CB7" s="9"/>
+      <c r="CC7" s="9"/>
+      <c r="CD7" s="9"/>
+      <c r="CE7" s="9"/>
+      <c r="CF7" s="9"/>
+      <c r="CG7" s="9"/>
+      <c r="CH7" s="9"/>
+      <c r="CI7" s="9"/>
+      <c r="CJ7" s="9"/>
+      <c r="CK7" s="9"/>
+      <c r="CL7" s="9"/>
+      <c r="CM7" s="9"/>
+      <c r="CN7" s="9"/>
+      <c r="CO7" s="9"/>
+      <c r="CP7" s="9"/>
+      <c r="CQ7" s="9"/>
+      <c r="CR7" s="9"/>
+      <c r="CS7" s="9"/>
+      <c r="CT7" s="9"/>
+      <c r="CU7" s="9"/>
+      <c r="CV7" s="9"/>
+      <c r="CW7" s="9"/>
+      <c r="CX7" s="9"/>
+      <c r="CY7" s="9"/>
+      <c r="CZ7" s="9"/>
+      <c r="DA7" s="9"/>
+      <c r="DB7" s="9"/>
+      <c r="DC7" s="9"/>
+      <c r="DD7" s="9"/>
+      <c r="DE7" s="9"/>
+      <c r="DF7" s="9"/>
+      <c r="DG7" s="9"/>
+      <c r="DH7" s="9"/>
+      <c r="DI7" s="9"/>
+      <c r="DJ7" s="9"/>
+      <c r="DK7" s="9"/>
+      <c r="DL7" s="9"/>
+      <c r="DM7" s="9"/>
+      <c r="DN7" s="9"/>
+      <c r="DO7" s="9"/>
+      <c r="DP7" s="9"/>
+      <c r="DQ7" s="9"/>
+      <c r="DR7" s="9"/>
+      <c r="DS7" s="9"/>
+      <c r="DT7" s="9"/>
+      <c r="DU7" s="9"/>
+      <c r="DV7" s="9"/>
+      <c r="DW7" s="9"/>
+      <c r="DX7" s="9"/>
+      <c r="DY7" s="9"/>
+      <c r="DZ7" s="9"/>
+      <c r="EA7" s="9"/>
+      <c r="EB7" s="9"/>
+      <c r="EC7" s="9"/>
+      <c r="ED7" s="9"/>
+      <c r="EE7" s="9"/>
+      <c r="EF7" s="9"/>
+      <c r="EG7" s="9"/>
+      <c r="EH7" s="9"/>
+      <c r="EI7" s="9"/>
+      <c r="EJ7" s="9"/>
+      <c r="EK7" s="9"/>
+      <c r="EL7" s="9"/>
+      <c r="EM7" s="9"/>
+      <c r="EN7" s="9"/>
+      <c r="EO7" s="9"/>
+      <c r="EP7" s="9"/>
+      <c r="EQ7" s="9"/>
+      <c r="ER7" s="9"/>
+      <c r="ES7" s="9"/>
+      <c r="ET7" s="9"/>
+      <c r="EU7" s="9"/>
+      <c r="EV7" s="9"/>
+      <c r="EW7" s="9"/>
+      <c r="EX7" s="9"/>
+      <c r="EY7" s="9"/>
+      <c r="EZ7" s="9"/>
+      <c r="FA7" s="9"/>
+      <c r="FB7" s="9"/>
+      <c r="FC7" s="9"/>
+      <c r="FD7" s="9"/>
+      <c r="FE7" s="9"/>
+      <c r="FF7" s="9"/>
+      <c r="FG7" s="9"/>
+      <c r="FH7" s="9"/>
+      <c r="FI7" s="9"/>
+      <c r="FJ7" s="9"/>
+      <c r="FK7" s="9"/>
+      <c r="FL7" s="9"/>
+      <c r="FM7" s="9"/>
+      <c r="FN7" s="9"/>
+      <c r="FO7" s="9"/>
+      <c r="FP7" s="9"/>
+      <c r="FQ7" s="9"/>
+      <c r="FR7" s="9"/>
+      <c r="FS7" s="9"/>
+      <c r="FT7" s="9"/>
+      <c r="FU7" s="9"/>
+      <c r="FV7" s="9"/>
+      <c r="FW7" s="9"/>
+      <c r="FX7" s="9"/>
+      <c r="FY7" s="9"/>
+      <c r="FZ7" s="9"/>
+      <c r="GA7" s="9"/>
+      <c r="GB7" s="9"/>
+      <c r="GC7" s="9"/>
+      <c r="GD7" s="9"/>
+      <c r="GE7" s="9"/>
+      <c r="GF7" s="9"/>
+      <c r="GG7" s="9"/>
+      <c r="GH7" s="9"/>
+      <c r="GI7" s="9"/>
+      <c r="GJ7" s="9"/>
+      <c r="GK7" s="9"/>
+      <c r="GL7" s="9"/>
+      <c r="GM7" s="9"/>
+      <c r="GN7" s="9"/>
+      <c r="GO7" s="9"/>
+      <c r="GP7" s="9"/>
+      <c r="GQ7" s="9"/>
+      <c r="GR7" s="9"/>
+      <c r="GS7" s="9"/>
+      <c r="GT7" s="9"/>
+      <c r="GU7" s="9"/>
+      <c r="GV7" s="9"/>
+      <c r="GW7" s="9"/>
+      <c r="GX7" s="9"/>
+      <c r="GY7" s="9"/>
+      <c r="GZ7" s="9"/>
+      <c r="HA7" s="9"/>
+      <c r="HB7" s="9"/>
+      <c r="HC7" s="9"/>
+      <c r="HD7" s="9"/>
+      <c r="HE7" s="9"/>
+      <c r="HF7" s="9"/>
+      <c r="HG7" s="9"/>
+      <c r="HH7" s="9"/>
+      <c r="HI7" s="9"/>
+      <c r="HJ7" s="9"/>
+      <c r="HK7" s="9"/>
+      <c r="HL7" s="9"/>
+      <c r="HM7" s="9"/>
+      <c r="HN7" s="9"/>
+      <c r="HO7" s="9"/>
+      <c r="HP7" s="9"/>
+      <c r="HQ7" s="9"/>
+      <c r="HR7" s="9"/>
+      <c r="HS7" s="9"/>
+      <c r="HT7" s="9"/>
+      <c r="HU7" s="9"/>
+      <c r="HV7" s="9"/>
+      <c r="HW7" s="9"/>
+      <c r="HX7" s="9"/>
+      <c r="HY7" s="9"/>
+      <c r="HZ7" s="9"/>
+      <c r="IA7" s="9"/>
+      <c r="IB7" s="9"/>
+      <c r="IC7" s="9"/>
+      <c r="ID7" s="9"/>
+      <c r="IE7" s="9"/>
+      <c r="IF7" s="9"/>
+      <c r="IG7" s="9"/>
+      <c r="IH7" s="9"/>
+      <c r="II7" s="9"/>
+      <c r="IJ7" s="9"/>
+      <c r="IK7" s="9"/>
+      <c r="IL7" s="9"/>
+      <c r="IM7" s="9"/>
+      <c r="IN7" s="9"/>
+      <c r="IO7" s="9"/>
+      <c r="IP7" s="9"/>
+      <c r="IQ7" s="9"/>
+      <c r="IR7" s="9"/>
+      <c r="IS7" s="9"/>
+      <c r="IT7" s="9"/>
+      <c r="IU7" s="9"/>
+      <c r="IV7" s="9"/>
+      <c r="IW7" s="9"/>
+      <c r="IX7" s="9"/>
+      <c r="IY7" s="9"/>
+      <c r="IZ7" s="9"/>
+      <c r="JA7" s="9"/>
+      <c r="JB7" s="9"/>
+      <c r="JC7" s="9"/>
+      <c r="JD7" s="9"/>
+      <c r="JE7" s="9"/>
+      <c r="JF7" s="9"/>
+      <c r="JG7" s="9"/>
+      <c r="JH7" s="9"/>
+      <c r="JI7" s="9"/>
+      <c r="JJ7" s="9"/>
+      <c r="JK7" s="9"/>
+      <c r="JL7" s="9"/>
+      <c r="JM7" s="9"/>
+      <c r="JN7" s="9"/>
+      <c r="JO7" s="9"/>
+      <c r="JP7" s="9"/>
+      <c r="JQ7" s="9"/>
+      <c r="JR7" s="9"/>
+      <c r="JS7" s="9"/>
+      <c r="JT7" s="9"/>
+      <c r="JU7" s="9"/>
+      <c r="JV7" s="9"/>
+      <c r="JW7" s="9"/>
+      <c r="JX7" s="9"/>
+      <c r="JY7" s="9"/>
+      <c r="JZ7" s="9"/>
+      <c r="KA7" s="9"/>
+      <c r="KB7" s="9"/>
+      <c r="KC7" s="9"/>
+      <c r="KD7" s="9"/>
+      <c r="KE7" s="9"/>
+      <c r="KF7" s="9"/>
+      <c r="KG7" s="9"/>
+      <c r="KH7" s="9"/>
+      <c r="KI7" s="9"/>
+      <c r="KJ7" s="9"/>
+      <c r="KK7" s="9"/>
+      <c r="KL7" s="9"/>
+      <c r="KM7" s="9"/>
+      <c r="KN7" s="9"/>
+      <c r="KO7" s="9"/>
+      <c r="KP7" s="9"/>
+      <c r="KQ7" s="9"/>
+      <c r="KR7" s="9"/>
+      <c r="KS7" s="9"/>
+      <c r="KT7" s="9"/>
+      <c r="KU7" s="9"/>
+      <c r="KV7" s="9"/>
+      <c r="KW7" s="9"/>
+      <c r="KX7" s="9"/>
+      <c r="KY7" s="9"/>
+      <c r="KZ7" s="9"/>
+      <c r="LA7" s="9"/>
+      <c r="LB7" s="9"/>
+      <c r="LC7" s="9"/>
+      <c r="LD7" s="9"/>
+      <c r="LE7" s="9"/>
+      <c r="LF7" s="9"/>
+      <c r="LG7" s="9"/>
+      <c r="LH7" s="9"/>
+      <c r="LI7" s="9"/>
+      <c r="LJ7" s="9"/>
+      <c r="LK7" s="9"/>
+      <c r="LL7" s="9"/>
+      <c r="LM7" s="9"/>
+      <c r="LN7" s="9"/>
+      <c r="LO7" s="9"/>
+      <c r="LP7" s="9"/>
+      <c r="LQ7" s="9"/>
+      <c r="LR7" s="9"/>
+      <c r="LS7" s="9"/>
+      <c r="LT7" s="9"/>
+      <c r="LU7" s="9"/>
+      <c r="LV7" s="9"/>
+      <c r="LW7" s="9"/>
+      <c r="LX7" s="9"/>
+      <c r="LY7" s="9"/>
+      <c r="LZ7" s="9"/>
+      <c r="MA7" s="9"/>
+      <c r="MB7" s="9"/>
+      <c r="MC7" s="9"/>
+      <c r="MD7" s="9"/>
+      <c r="ME7" s="9"/>
+      <c r="MF7" s="9"/>
+      <c r="MG7" s="9"/>
+      <c r="MH7" s="9"/>
+      <c r="MI7" s="9"/>
+      <c r="MJ7" s="9"/>
+      <c r="MK7" s="9"/>
+      <c r="ML7" s="9"/>
+      <c r="MM7" s="9"/>
+      <c r="MN7" s="9"/>
+      <c r="MO7" s="9"/>
+      <c r="MP7" s="9"/>
+      <c r="MQ7" s="9"/>
+      <c r="MR7" s="9"/>
+      <c r="MS7" s="9"/>
+      <c r="MT7" s="9"/>
+      <c r="MU7" s="9"/>
+      <c r="MV7" s="9"/>
+      <c r="MW7" s="9"/>
+      <c r="MX7" s="9"/>
+      <c r="MY7" s="9"/>
+      <c r="MZ7" s="9"/>
+      <c r="NA7" s="9"/>
+      <c r="NB7" s="9"/>
+      <c r="NC7" s="9"/>
+      <c r="ND7" s="9"/>
+      <c r="NE7" s="9"/>
+      <c r="NF7" s="9"/>
+      <c r="NG7" s="9"/>
+      <c r="NH7" s="9"/>
+      <c r="NI7" s="9"/>
+      <c r="NJ7" s="9"/>
+      <c r="NK7" s="9"/>
+      <c r="NL7" s="9"/>
+      <c r="NM7" s="9"/>
+      <c r="NN7" s="9"/>
+      <c r="NO7" s="9"/>
+      <c r="NP7" s="9"/>
+      <c r="NQ7" s="9"/>
+      <c r="NR7" s="9"/>
+      <c r="NS7" s="9"/>
+      <c r="NT7" s="9"/>
+      <c r="NU7" s="9"/>
+      <c r="NV7" s="9"/>
+      <c r="NW7" s="9"/>
+      <c r="NX7" s="9"/>
+      <c r="NY7" s="9"/>
+      <c r="NZ7" s="9"/>
+      <c r="OA7" s="9"/>
+      <c r="OB7" s="9"/>
+      <c r="OC7" s="9"/>
+      <c r="OD7" s="9"/>
+      <c r="OE7" s="9"/>
+      <c r="OF7" s="9"/>
+      <c r="OG7" s="9"/>
+      <c r="OH7" s="9"/>
+      <c r="OI7" s="9"/>
+      <c r="OJ7" s="9"/>
+      <c r="OK7" s="9"/>
+      <c r="OL7" s="9"/>
+      <c r="OM7" s="9"/>
+      <c r="ON7" s="9"/>
+      <c r="OO7" s="9"/>
+      <c r="OP7" s="9"/>
+      <c r="OQ7" s="9"/>
+      <c r="OR7" s="9"/>
+      <c r="OS7" s="9"/>
+      <c r="OT7" s="9"/>
+      <c r="OU7" s="9"/>
+      <c r="OV7" s="9"/>
+      <c r="OW7" s="9"/>
+      <c r="OX7" s="9"/>
+      <c r="OY7" s="9"/>
+      <c r="OZ7" s="9"/>
+      <c r="PA7" s="9"/>
+      <c r="PB7" s="9"/>
+      <c r="PC7" s="9"/>
+      <c r="PD7" s="9"/>
+      <c r="PE7" s="9"/>
+      <c r="PF7" s="9"/>
+      <c r="PG7" s="9"/>
+      <c r="PH7" s="9"/>
+      <c r="PI7" s="9"/>
+      <c r="PJ7" s="9"/>
+      <c r="PK7" s="9"/>
+      <c r="PL7" s="9"/>
+      <c r="PM7" s="9"/>
+      <c r="PN7" s="9"/>
+      <c r="PO7" s="9"/>
+      <c r="PP7" s="9"/>
+      <c r="PQ7" s="9"/>
+      <c r="PR7" s="9"/>
+      <c r="PS7" s="9"/>
+      <c r="PT7" s="9"/>
+      <c r="PU7" s="9"/>
+      <c r="PV7" s="9"/>
+      <c r="PW7" s="9"/>
+      <c r="PX7" s="9"/>
+      <c r="PY7" s="9"/>
+      <c r="PZ7" s="9"/>
+      <c r="QA7" s="9"/>
+      <c r="QB7" s="9"/>
+      <c r="QC7" s="9"/>
+      <c r="QD7" s="9"/>
+      <c r="QE7" s="9"/>
+      <c r="QF7" s="9"/>
+      <c r="QG7" s="9"/>
+      <c r="QH7" s="9"/>
+      <c r="QI7" s="9"/>
+      <c r="QJ7" s="9"/>
+      <c r="QK7" s="9"/>
+      <c r="QL7" s="9"/>
+      <c r="QM7" s="9"/>
+      <c r="QN7" s="9"/>
+      <c r="QO7" s="9"/>
+      <c r="QP7" s="9"/>
+      <c r="QQ7" s="9"/>
+      <c r="QR7" s="9"/>
+      <c r="QS7" s="9"/>
+      <c r="QT7" s="9"/>
+      <c r="QU7" s="9"/>
+      <c r="QV7" s="9"/>
+      <c r="QW7" s="9"/>
+      <c r="QX7" s="9"/>
+      <c r="QY7" s="9"/>
+      <c r="QZ7" s="9"/>
+      <c r="RA7" s="9"/>
+      <c r="RB7" s="9"/>
+      <c r="RC7" s="9"/>
+      <c r="RD7" s="9"/>
+      <c r="RE7" s="9"/>
+      <c r="RF7" s="9"/>
+      <c r="RG7" s="9"/>
+      <c r="RH7" s="9"/>
+      <c r="RI7" s="9"/>
+      <c r="RJ7" s="9"/>
+      <c r="RK7" s="9"/>
+      <c r="RL7" s="9"/>
+      <c r="RM7" s="9"/>
+      <c r="RN7" s="9"/>
+      <c r="RO7" s="9"/>
+      <c r="RP7" s="9"/>
+      <c r="RQ7" s="9"/>
+      <c r="RR7" s="9"/>
+      <c r="RS7" s="9"/>
+      <c r="RT7" s="9"/>
+      <c r="RU7" s="9"/>
+      <c r="RV7" s="9"/>
+      <c r="RW7" s="9"/>
+      <c r="RX7" s="9"/>
+      <c r="RY7" s="9"/>
+      <c r="RZ7" s="9"/>
+      <c r="SA7" s="9"/>
+      <c r="SB7" s="9"/>
+      <c r="SC7" s="9"/>
+      <c r="SD7" s="9"/>
+      <c r="SE7" s="9"/>
+      <c r="SF7" s="9"/>
+      <c r="SG7" s="9"/>
+      <c r="SH7" s="9"/>
+      <c r="SI7" s="9"/>
+      <c r="SJ7" s="9"/>
+      <c r="SK7" s="9"/>
+      <c r="SL7" s="9"/>
+      <c r="SM7" s="9"/>
+      <c r="SN7" s="9"/>
+      <c r="SO7" s="9"/>
+      <c r="SP7" s="9"/>
+      <c r="SQ7" s="9"/>
+      <c r="SR7" s="9"/>
+      <c r="SS7" s="9"/>
+      <c r="ST7" s="9"/>
+      <c r="SU7" s="9"/>
+      <c r="SV7" s="9"/>
+      <c r="SW7" s="9"/>
+      <c r="SX7" s="9"/>
+      <c r="SY7" s="9"/>
+      <c r="SZ7" s="9"/>
+      <c r="TA7" s="9"/>
+      <c r="TB7" s="9"/>
+      <c r="TC7" s="9"/>
+      <c r="TD7" s="9"/>
+      <c r="TE7" s="9"/>
+      <c r="TF7" s="9"/>
+      <c r="TG7" s="9"/>
+      <c r="TH7" s="9"/>
+      <c r="TI7" s="9"/>
+      <c r="TJ7" s="9"/>
+      <c r="TK7" s="9"/>
+      <c r="TL7" s="9"/>
+      <c r="TM7" s="9"/>
+      <c r="TN7" s="9"/>
+      <c r="TO7" s="9"/>
+      <c r="TP7" s="9"/>
+      <c r="TQ7" s="9"/>
+      <c r="TR7" s="9"/>
+      <c r="TS7" s="9"/>
+      <c r="TT7" s="9"/>
+      <c r="TU7" s="9"/>
+      <c r="TV7" s="9"/>
+      <c r="TW7" s="9"/>
+      <c r="TX7" s="9"/>
+      <c r="TY7" s="9"/>
+      <c r="TZ7" s="9"/>
+      <c r="UA7" s="9"/>
+      <c r="UB7" s="9"/>
+      <c r="UC7" s="9"/>
+      <c r="UD7" s="9"/>
+      <c r="UE7" s="9"/>
+      <c r="UF7" s="9"/>
+      <c r="UG7" s="9"/>
+      <c r="UH7" s="9"/>
+      <c r="UI7" s="9"/>
+      <c r="UJ7" s="9"/>
+      <c r="UK7" s="9"/>
+      <c r="UL7" s="9"/>
+      <c r="UM7" s="9"/>
+      <c r="UN7" s="9"/>
+      <c r="UO7" s="9"/>
+      <c r="UP7" s="9"/>
+      <c r="UQ7" s="9"/>
+      <c r="UR7" s="9"/>
+      <c r="US7" s="9"/>
+      <c r="UT7" s="9"/>
+      <c r="UU7" s="9"/>
+      <c r="UV7" s="9"/>
+      <c r="UW7" s="9"/>
+      <c r="UX7" s="9"/>
+      <c r="UY7" s="9"/>
+      <c r="UZ7" s="9"/>
+      <c r="VA7" s="9"/>
+      <c r="VB7" s="9"/>
+      <c r="VC7" s="9"/>
+      <c r="VD7" s="9"/>
+      <c r="VE7" s="9"/>
+      <c r="VF7" s="9"/>
+      <c r="VG7" s="9"/>
+      <c r="VH7" s="9"/>
+      <c r="VI7" s="9"/>
+      <c r="VJ7" s="9"/>
+      <c r="VK7" s="9"/>
+      <c r="VL7" s="9"/>
+      <c r="VM7" s="9"/>
+      <c r="VN7" s="9"/>
+      <c r="VO7" s="9"/>
+      <c r="VP7" s="9"/>
+      <c r="VQ7" s="9"/>
+      <c r="VR7" s="9"/>
+      <c r="VS7" s="9"/>
+      <c r="VT7" s="9"/>
+      <c r="VU7" s="9"/>
+      <c r="VV7" s="9"/>
+      <c r="VW7" s="9"/>
+      <c r="VX7" s="9"/>
+      <c r="VY7" s="9"/>
+      <c r="VZ7" s="9"/>
+      <c r="WA7" s="9"/>
+      <c r="WB7" s="9"/>
+      <c r="WC7" s="9"/>
+      <c r="WD7" s="9"/>
+      <c r="WE7" s="9"/>
+      <c r="WF7" s="9"/>
+      <c r="WG7" s="9"/>
+      <c r="WH7" s="9"/>
+      <c r="WI7" s="9"/>
+      <c r="WJ7" s="9"/>
+      <c r="WK7" s="9"/>
+      <c r="WL7" s="9"/>
+      <c r="WM7" s="9"/>
+      <c r="WN7" s="9"/>
+      <c r="WO7" s="9"/>
+      <c r="WP7" s="9"/>
+      <c r="WQ7" s="9"/>
+      <c r="WR7" s="9"/>
+      <c r="WS7" s="9"/>
+      <c r="WT7" s="9"/>
+      <c r="WU7" s="9"/>
+      <c r="WV7" s="9"/>
+      <c r="WW7" s="9"/>
+      <c r="WX7" s="9"/>
+      <c r="WY7" s="9"/>
+      <c r="WZ7" s="9"/>
+      <c r="XA7" s="9"/>
+      <c r="XB7" s="9"/>
+      <c r="XC7" s="9"/>
+      <c r="XD7" s="9"/>
+      <c r="XE7" s="9"/>
+      <c r="XF7" s="9"/>
+      <c r="XG7" s="9"/>
+      <c r="XH7" s="9"/>
+      <c r="XI7" s="9"/>
+      <c r="XJ7" s="9"/>
+      <c r="XK7" s="9"/>
+      <c r="XL7" s="9"/>
+      <c r="XM7" s="9"/>
+      <c r="XN7" s="9"/>
+      <c r="XO7" s="9"/>
+      <c r="XP7" s="9"/>
+      <c r="XQ7" s="9"/>
+      <c r="XR7" s="9"/>
+      <c r="XS7" s="9"/>
+      <c r="XT7" s="9"/>
+      <c r="XU7" s="9"/>
+      <c r="XV7" s="9"/>
+      <c r="XW7" s="9"/>
+      <c r="XX7" s="9"/>
+      <c r="XY7" s="9"/>
+      <c r="XZ7" s="9"/>
+      <c r="YA7" s="9"/>
+      <c r="YB7" s="9"/>
+      <c r="YC7" s="9"/>
+      <c r="YD7" s="9"/>
+      <c r="YE7" s="9"/>
+      <c r="YF7" s="9"/>
+      <c r="YG7" s="9"/>
+      <c r="YH7" s="9"/>
+      <c r="YI7" s="9"/>
+      <c r="YJ7" s="9"/>
+      <c r="YK7" s="9"/>
+      <c r="YL7" s="9"/>
+      <c r="YM7" s="9"/>
+      <c r="YN7" s="9"/>
+      <c r="YO7" s="9"/>
+      <c r="YP7" s="9"/>
+      <c r="YQ7" s="9"/>
+      <c r="YR7" s="9"/>
+      <c r="YS7" s="9"/>
+      <c r="YT7" s="9"/>
+      <c r="YU7" s="9"/>
+      <c r="YV7" s="9"/>
+      <c r="YW7" s="9"/>
+      <c r="YX7" s="9"/>
+      <c r="YY7" s="9"/>
+      <c r="YZ7" s="9"/>
+      <c r="ZA7" s="9"/>
+      <c r="ZB7" s="9"/>
+      <c r="ZC7" s="9"/>
+      <c r="ZD7" s="9"/>
+      <c r="ZE7" s="9"/>
+      <c r="ZF7" s="9"/>
+      <c r="ZG7" s="9"/>
+      <c r="ZH7" s="9"/>
+      <c r="ZI7" s="9"/>
+      <c r="ZJ7" s="9"/>
+      <c r="ZK7" s="9"/>
+      <c r="ZL7" s="9"/>
+      <c r="ZM7" s="9"/>
+      <c r="ZN7" s="9"/>
+      <c r="ZO7" s="9"/>
+      <c r="ZP7" s="9"/>
+      <c r="ZQ7" s="9"/>
+      <c r="ZR7" s="9"/>
+      <c r="ZS7" s="9"/>
+      <c r="ZT7" s="9"/>
+      <c r="ZU7" s="9"/>
+      <c r="ZV7" s="9"/>
+      <c r="ZW7" s="9"/>
+      <c r="ZX7" s="9"/>
+      <c r="ZY7" s="9"/>
+      <c r="ZZ7" s="9"/>
+      <c r="AAA7" s="9"/>
+      <c r="AAB7" s="9"/>
+      <c r="AAC7" s="9"/>
+      <c r="AAD7" s="9"/>
+      <c r="AAE7" s="9"/>
+      <c r="AAF7" s="9"/>
+      <c r="AAG7" s="9"/>
+      <c r="AAH7" s="9"/>
+      <c r="AAI7" s="9"/>
+      <c r="AAJ7" s="9"/>
+      <c r="AAK7" s="9"/>
+      <c r="AAL7" s="9"/>
+      <c r="AAM7" s="9"/>
+      <c r="AAN7" s="9"/>
+      <c r="AAO7" s="9"/>
+      <c r="AAP7" s="9"/>
+      <c r="AAQ7" s="9"/>
+      <c r="AAR7" s="9"/>
+      <c r="AAS7" s="9"/>
+      <c r="AAT7" s="9"/>
+      <c r="AAU7" s="9"/>
+      <c r="AAV7" s="9"/>
+      <c r="AAW7" s="9"/>
+      <c r="AAX7" s="9"/>
+      <c r="AAY7" s="9"/>
+      <c r="AAZ7" s="9"/>
+      <c r="ABA7" s="9"/>
+      <c r="ABB7" s="9"/>
+      <c r="ABC7" s="9"/>
+      <c r="ABD7" s="9"/>
+      <c r="ABE7" s="9"/>
+      <c r="ABF7" s="9"/>
+      <c r="ABG7" s="9"/>
+      <c r="ABH7" s="9"/>
+      <c r="ABI7" s="9"/>
+      <c r="ABJ7" s="9"/>
+      <c r="ABK7" s="9"/>
+      <c r="ABL7" s="9"/>
+      <c r="ABM7" s="9"/>
+      <c r="ABN7" s="9"/>
+      <c r="ABO7" s="9"/>
+      <c r="ABP7" s="9"/>
+      <c r="ABQ7" s="9"/>
+      <c r="ABR7" s="9"/>
+      <c r="ABS7" s="9"/>
+      <c r="ABT7" s="9"/>
+      <c r="ABU7" s="9"/>
+      <c r="ABV7" s="9"/>
+      <c r="ABW7" s="9"/>
+      <c r="ABX7" s="9"/>
+      <c r="ABY7" s="9"/>
+      <c r="ABZ7" s="9"/>
+      <c r="ACA7" s="9"/>
+      <c r="ACB7" s="9"/>
+      <c r="ACC7" s="9"/>
+      <c r="ACD7" s="9"/>
+      <c r="ACE7" s="9"/>
+      <c r="ACF7" s="9"/>
+      <c r="ACG7" s="9"/>
+      <c r="ACH7" s="9"/>
+      <c r="ACI7" s="9"/>
+      <c r="ACJ7" s="9"/>
+      <c r="ACK7" s="9"/>
+      <c r="ACL7" s="9"/>
+      <c r="ACM7" s="9"/>
+      <c r="ACN7" s="9"/>
+      <c r="ACO7" s="9"/>
+      <c r="ACP7" s="9"/>
+      <c r="ACQ7" s="9"/>
+      <c r="ACR7" s="9"/>
+      <c r="ACS7" s="9"/>
+      <c r="ACT7" s="9"/>
+      <c r="ACU7" s="9"/>
+      <c r="ACV7" s="9"/>
+      <c r="ACW7" s="9"/>
+      <c r="ACX7" s="9"/>
+      <c r="ACY7" s="9"/>
+      <c r="ACZ7" s="9"/>
+      <c r="ADA7" s="9"/>
+      <c r="ADB7" s="9"/>
+      <c r="ADC7" s="9"/>
+      <c r="ADD7" s="9"/>
+      <c r="ADE7" s="9"/>
+      <c r="ADF7" s="9"/>
+      <c r="ADG7" s="9"/>
+      <c r="ADH7" s="9"/>
+      <c r="ADI7" s="9"/>
+      <c r="ADJ7" s="9"/>
+      <c r="ADK7" s="9"/>
+      <c r="ADL7" s="9"/>
+      <c r="ADM7" s="9"/>
+      <c r="ADN7" s="9"/>
+      <c r="ADO7" s="9"/>
+      <c r="ADP7" s="9"/>
+      <c r="ADQ7" s="9"/>
+      <c r="ADR7" s="9"/>
+      <c r="ADS7" s="9"/>
+      <c r="ADT7" s="9"/>
+      <c r="ADU7" s="9"/>
+      <c r="ADV7" s="9"/>
+      <c r="ADW7" s="9"/>
+      <c r="ADX7" s="9"/>
+      <c r="ADY7" s="9"/>
+      <c r="ADZ7" s="9"/>
+      <c r="AEA7" s="9"/>
+      <c r="AEB7" s="9"/>
+      <c r="AEC7" s="9"/>
+      <c r="AED7" s="9"/>
+      <c r="AEE7" s="9"/>
+      <c r="AEF7" s="9"/>
+      <c r="AEG7" s="9"/>
+      <c r="AEH7" s="9"/>
+      <c r="AEI7" s="9"/>
+      <c r="AEJ7" s="9"/>
+      <c r="AEK7" s="9"/>
+      <c r="AEL7" s="9"/>
+      <c r="AEM7" s="9"/>
+      <c r="AEN7" s="9"/>
+      <c r="AEO7" s="9"/>
+      <c r="AEP7" s="9"/>
+      <c r="AEQ7" s="9"/>
+      <c r="AER7" s="9"/>
+      <c r="AES7" s="9"/>
+      <c r="AET7" s="9"/>
+      <c r="AEU7" s="9"/>
+      <c r="AEV7" s="9"/>
+      <c r="AEW7" s="9"/>
+      <c r="AEX7" s="9"/>
+      <c r="AEY7" s="9"/>
+      <c r="AEZ7" s="9"/>
+      <c r="AFA7" s="9"/>
+      <c r="AFB7" s="9"/>
+      <c r="AFC7" s="9"/>
+      <c r="AFD7" s="9"/>
+      <c r="AFE7" s="9"/>
+      <c r="AFF7" s="9"/>
+      <c r="AFG7" s="9"/>
+      <c r="AFH7" s="9"/>
+      <c r="AFI7" s="9"/>
+      <c r="AFJ7" s="9"/>
+      <c r="AFK7" s="9"/>
+      <c r="AFL7" s="9"/>
+      <c r="AFM7" s="9"/>
+      <c r="AFN7" s="9"/>
+      <c r="AFO7" s="9"/>
+      <c r="AFP7" s="9"/>
+      <c r="AFQ7" s="9"/>
+      <c r="AFR7" s="9"/>
+      <c r="AFS7" s="9"/>
+      <c r="AFT7" s="9"/>
+      <c r="AFU7" s="9"/>
+      <c r="AFV7" s="9"/>
+      <c r="AFW7" s="9"/>
+      <c r="AFX7" s="9"/>
+      <c r="AFY7" s="9"/>
+      <c r="AFZ7" s="9"/>
+      <c r="AGA7" s="9"/>
+      <c r="AGB7" s="9"/>
+      <c r="AGC7" s="9"/>
+      <c r="AGD7" s="9"/>
+      <c r="AGE7" s="9"/>
+      <c r="AGF7" s="9"/>
+      <c r="AGG7" s="9"/>
+      <c r="AGH7" s="9"/>
+      <c r="AGI7" s="9"/>
+      <c r="AGJ7" s="9"/>
+      <c r="AGK7" s="9"/>
+      <c r="AGL7" s="9"/>
+      <c r="AGM7" s="9"/>
+      <c r="AGN7" s="9"/>
+      <c r="AGO7" s="9"/>
+      <c r="AGP7" s="9"/>
+      <c r="AGQ7" s="9"/>
+      <c r="AGR7" s="9"/>
+      <c r="AGS7" s="9"/>
+      <c r="AGT7" s="9"/>
+      <c r="AGU7" s="9"/>
+      <c r="AGV7" s="9"/>
+      <c r="AGW7" s="9"/>
+      <c r="AGX7" s="9"/>
+      <c r="AGY7" s="9"/>
+      <c r="AGZ7" s="9"/>
+      <c r="AHA7" s="9"/>
+      <c r="AHB7" s="9"/>
+      <c r="AHC7" s="9"/>
+      <c r="AHD7" s="9"/>
+      <c r="AHE7" s="9"/>
+      <c r="AHF7" s="9"/>
+      <c r="AHG7" s="9"/>
+      <c r="AHH7" s="9"/>
+      <c r="AHI7" s="9"/>
+      <c r="AHJ7" s="9"/>
+      <c r="AHK7" s="9"/>
+      <c r="AHL7" s="9"/>
+      <c r="AHM7" s="9"/>
+      <c r="AHN7" s="9"/>
+      <c r="AHO7" s="9"/>
+      <c r="AHP7" s="9"/>
+      <c r="AHQ7" s="9"/>
+      <c r="AHR7" s="9"/>
+      <c r="AHS7" s="9"/>
+      <c r="AHT7" s="9"/>
+      <c r="AHU7" s="9"/>
+      <c r="AHV7" s="9"/>
+      <c r="AHW7" s="9"/>
+      <c r="AHX7" s="9"/>
+      <c r="AHY7" s="9"/>
+      <c r="AHZ7" s="9"/>
+      <c r="AIA7" s="9"/>
+      <c r="AIB7" s="9"/>
+      <c r="AIC7" s="9"/>
+      <c r="AID7" s="9"/>
+      <c r="AIE7" s="9"/>
+      <c r="AIF7" s="9"/>
+      <c r="AIG7" s="9"/>
+      <c r="AIH7" s="9"/>
+      <c r="AII7" s="9"/>
+      <c r="AIJ7" s="9"/>
+      <c r="AIK7" s="9"/>
+      <c r="AIL7" s="9"/>
+      <c r="AIM7" s="9"/>
+      <c r="AIN7" s="9"/>
+      <c r="AIO7" s="9"/>
+      <c r="AIP7" s="9"/>
+      <c r="AIQ7" s="9"/>
+      <c r="AIR7" s="9"/>
+      <c r="AIS7" s="9"/>
+      <c r="AIT7" s="9"/>
+      <c r="AIU7" s="9"/>
+      <c r="AIV7" s="9"/>
+      <c r="AIW7" s="9"/>
+      <c r="AIX7" s="9"/>
+      <c r="AIY7" s="9"/>
+      <c r="AIZ7" s="9"/>
+      <c r="AJA7" s="9"/>
+      <c r="AJB7" s="9"/>
+      <c r="AJC7" s="9"/>
+      <c r="AJD7" s="9"/>
+      <c r="AJE7" s="9"/>
+      <c r="AJF7" s="9"/>
+      <c r="AJG7" s="9"/>
+      <c r="AJH7" s="9"/>
+      <c r="AJI7" s="9"/>
+      <c r="AJJ7" s="9"/>
+      <c r="AJK7" s="9"/>
+      <c r="AJL7" s="9"/>
+      <c r="AJM7" s="9"/>
+      <c r="AJN7" s="9"/>
+      <c r="AJO7" s="9"/>
+      <c r="AJP7" s="9"/>
+      <c r="AJQ7" s="9"/>
+      <c r="AJR7" s="9"/>
+      <c r="AJS7" s="9"/>
+      <c r="AJT7" s="9"/>
+      <c r="AJU7" s="9"/>
+      <c r="AJV7" s="9"/>
+      <c r="AJW7" s="9"/>
+      <c r="AJX7" s="9"/>
+      <c r="AJY7" s="9"/>
+      <c r="AJZ7" s="9"/>
+      <c r="AKA7" s="9"/>
+      <c r="AKB7" s="9"/>
+      <c r="AKC7" s="9"/>
+      <c r="AKD7" s="9"/>
+      <c r="AKE7" s="9"/>
+      <c r="AKF7" s="9"/>
+      <c r="AKG7" s="9"/>
+      <c r="AKH7" s="9"/>
+      <c r="AKI7" s="9"/>
+      <c r="AKJ7" s="9"/>
+      <c r="AKK7" s="9"/>
+      <c r="AKL7" s="9"/>
+      <c r="AKM7" s="9"/>
+      <c r="AKN7" s="9"/>
+      <c r="AKO7" s="9"/>
+      <c r="AKP7" s="9"/>
+      <c r="AKQ7" s="9"/>
+      <c r="AKR7" s="9"/>
+      <c r="AKS7" s="9"/>
+      <c r="AKT7" s="9"/>
+      <c r="AKU7" s="9"/>
+      <c r="AKV7" s="9"/>
+      <c r="AKW7" s="9"/>
+      <c r="AKX7" s="9"/>
+      <c r="AKY7" s="9"/>
+      <c r="AKZ7" s="9"/>
+      <c r="ALA7" s="9"/>
+      <c r="ALB7" s="9"/>
+      <c r="ALC7" s="9"/>
+      <c r="ALD7" s="9"/>
+      <c r="ALE7" s="9"/>
+      <c r="ALF7" s="9"/>
+      <c r="ALG7" s="9"/>
+      <c r="ALH7" s="9"/>
+      <c r="ALI7" s="9"/>
+      <c r="ALJ7" s="9"/>
+      <c r="ALK7" s="9"/>
+      <c r="ALL7" s="9"/>
+      <c r="ALM7" s="9"/>
+      <c r="ALN7" s="9"/>
+      <c r="ALO7" s="9"/>
+      <c r="ALP7" s="9"/>
+      <c r="ALQ7" s="9"/>
+      <c r="ALR7" s="9"/>
+      <c r="ALS7" s="9"/>
+      <c r="ALT7" s="9"/>
+      <c r="ALU7" s="9"/>
+      <c r="ALV7" s="9"/>
+      <c r="ALW7" s="9"/>
+      <c r="ALX7" s="9"/>
+      <c r="ALY7" s="9"/>
+      <c r="ALZ7" s="9"/>
+      <c r="AMA7" s="9"/>
+      <c r="AMB7" s="9"/>
+      <c r="AMC7" s="9"/>
+      <c r="AMD7" s="9"/>
+      <c r="AME7" s="9"/>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:1019">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="9"/>
+      <c r="CF8" s="9"/>
+      <c r="CG8" s="9"/>
+      <c r="CH8" s="9"/>
+      <c r="CI8" s="9"/>
+      <c r="CJ8" s="9"/>
+      <c r="CK8" s="9"/>
+      <c r="CL8" s="9"/>
+      <c r="CM8" s="9"/>
+      <c r="CN8" s="9"/>
+      <c r="CO8" s="9"/>
+      <c r="CP8" s="9"/>
+      <c r="CQ8" s="9"/>
+      <c r="CR8" s="9"/>
+      <c r="CS8" s="9"/>
+      <c r="CT8" s="9"/>
+      <c r="CU8" s="9"/>
+      <c r="CV8" s="9"/>
+      <c r="CW8" s="9"/>
+      <c r="CX8" s="9"/>
+      <c r="CY8" s="9"/>
+      <c r="CZ8" s="9"/>
+      <c r="DA8" s="9"/>
+      <c r="DB8" s="9"/>
+      <c r="DC8" s="9"/>
+      <c r="DD8" s="9"/>
+      <c r="DE8" s="9"/>
+      <c r="DF8" s="9"/>
+      <c r="DG8" s="9"/>
+      <c r="DH8" s="9"/>
+      <c r="DI8" s="9"/>
+      <c r="DJ8" s="9"/>
+      <c r="DK8" s="9"/>
+      <c r="DL8" s="9"/>
+      <c r="DM8" s="9"/>
+      <c r="DN8" s="9"/>
+      <c r="DO8" s="9"/>
+      <c r="DP8" s="9"/>
+      <c r="DQ8" s="9"/>
+      <c r="DR8" s="9"/>
+      <c r="DS8" s="9"/>
+      <c r="DT8" s="9"/>
+      <c r="DU8" s="9"/>
+      <c r="DV8" s="9"/>
+      <c r="DW8" s="9"/>
+      <c r="DX8" s="9"/>
+      <c r="DY8" s="9"/>
+      <c r="DZ8" s="9"/>
+      <c r="EA8" s="9"/>
+      <c r="EB8" s="9"/>
+      <c r="EC8" s="9"/>
+      <c r="ED8" s="9"/>
+      <c r="EE8" s="9"/>
+      <c r="EF8" s="9"/>
+      <c r="EG8" s="9"/>
+      <c r="EH8" s="9"/>
+      <c r="EI8" s="9"/>
+      <c r="EJ8" s="9"/>
+      <c r="EK8" s="9"/>
+      <c r="EL8" s="9"/>
+      <c r="EM8" s="9"/>
+      <c r="EN8" s="9"/>
+      <c r="EO8" s="9"/>
+      <c r="EP8" s="9"/>
+      <c r="EQ8" s="9"/>
+      <c r="ER8" s="9"/>
+      <c r="ES8" s="9"/>
+      <c r="ET8" s="9"/>
+      <c r="EU8" s="9"/>
+      <c r="EV8" s="9"/>
+      <c r="EW8" s="9"/>
+      <c r="EX8" s="9"/>
+      <c r="EY8" s="9"/>
+      <c r="EZ8" s="9"/>
+      <c r="FA8" s="9"/>
+      <c r="FB8" s="9"/>
+      <c r="FC8" s="9"/>
+      <c r="FD8" s="9"/>
+      <c r="FE8" s="9"/>
+      <c r="FF8" s="9"/>
+      <c r="FG8" s="9"/>
+      <c r="FH8" s="9"/>
+      <c r="FI8" s="9"/>
+      <c r="FJ8" s="9"/>
+      <c r="FK8" s="9"/>
+      <c r="FL8" s="9"/>
+      <c r="FM8" s="9"/>
+      <c r="FN8" s="9"/>
+      <c r="FO8" s="9"/>
+      <c r="FP8" s="9"/>
+      <c r="FQ8" s="9"/>
+      <c r="FR8" s="9"/>
+      <c r="FS8" s="9"/>
+      <c r="FT8" s="9"/>
+      <c r="FU8" s="9"/>
+      <c r="FV8" s="9"/>
+      <c r="FW8" s="9"/>
+      <c r="FX8" s="9"/>
+      <c r="FY8" s="9"/>
+      <c r="FZ8" s="9"/>
+      <c r="GA8" s="9"/>
+      <c r="GB8" s="9"/>
+      <c r="GC8" s="9"/>
+      <c r="GD8" s="9"/>
+      <c r="GE8" s="9"/>
+      <c r="GF8" s="9"/>
+      <c r="GG8" s="9"/>
+      <c r="GH8" s="9"/>
+      <c r="GI8" s="9"/>
+      <c r="GJ8" s="9"/>
+      <c r="GK8" s="9"/>
+      <c r="GL8" s="9"/>
+      <c r="GM8" s="9"/>
+      <c r="GN8" s="9"/>
+      <c r="GO8" s="9"/>
+      <c r="GP8" s="9"/>
+      <c r="GQ8" s="9"/>
+      <c r="GR8" s="9"/>
+      <c r="GS8" s="9"/>
+      <c r="GT8" s="9"/>
+      <c r="GU8" s="9"/>
+      <c r="GV8" s="9"/>
+      <c r="GW8" s="9"/>
+      <c r="GX8" s="9"/>
+      <c r="GY8" s="9"/>
+      <c r="GZ8" s="9"/>
+      <c r="HA8" s="9"/>
+      <c r="HB8" s="9"/>
+      <c r="HC8" s="9"/>
+      <c r="HD8" s="9"/>
+      <c r="HE8" s="9"/>
+      <c r="HF8" s="9"/>
+      <c r="HG8" s="9"/>
+      <c r="HH8" s="9"/>
+      <c r="HI8" s="9"/>
+      <c r="HJ8" s="9"/>
+      <c r="HK8" s="9"/>
+      <c r="HL8" s="9"/>
+      <c r="HM8" s="9"/>
+      <c r="HN8" s="9"/>
+      <c r="HO8" s="9"/>
+      <c r="HP8" s="9"/>
+      <c r="HQ8" s="9"/>
+      <c r="HR8" s="9"/>
+      <c r="HS8" s="9"/>
+      <c r="HT8" s="9"/>
+      <c r="HU8" s="9"/>
+      <c r="HV8" s="9"/>
+      <c r="HW8" s="9"/>
+      <c r="HX8" s="9"/>
+      <c r="HY8" s="9"/>
+      <c r="HZ8" s="9"/>
+      <c r="IA8" s="9"/>
+      <c r="IB8" s="9"/>
+      <c r="IC8" s="9"/>
+      <c r="ID8" s="9"/>
+      <c r="IE8" s="9"/>
+      <c r="IF8" s="9"/>
+      <c r="IG8" s="9"/>
+      <c r="IH8" s="9"/>
+      <c r="II8" s="9"/>
+      <c r="IJ8" s="9"/>
+      <c r="IK8" s="9"/>
+      <c r="IL8" s="9"/>
+      <c r="IM8" s="9"/>
+      <c r="IN8" s="9"/>
+      <c r="IO8" s="9"/>
+      <c r="IP8" s="9"/>
+      <c r="IQ8" s="9"/>
+      <c r="IR8" s="9"/>
+      <c r="IS8" s="9"/>
+      <c r="IT8" s="9"/>
+      <c r="IU8" s="9"/>
+      <c r="IV8" s="9"/>
+      <c r="IW8" s="9"/>
+      <c r="IX8" s="9"/>
+      <c r="IY8" s="9"/>
+      <c r="IZ8" s="9"/>
+      <c r="JA8" s="9"/>
+      <c r="JB8" s="9"/>
+      <c r="JC8" s="9"/>
+      <c r="JD8" s="9"/>
+      <c r="JE8" s="9"/>
+      <c r="JF8" s="9"/>
+      <c r="JG8" s="9"/>
+      <c r="JH8" s="9"/>
+      <c r="JI8" s="9"/>
+      <c r="JJ8" s="9"/>
+      <c r="JK8" s="9"/>
+      <c r="JL8" s="9"/>
+      <c r="JM8" s="9"/>
+      <c r="JN8" s="9"/>
+      <c r="JO8" s="9"/>
+      <c r="JP8" s="9"/>
+      <c r="JQ8" s="9"/>
+      <c r="JR8" s="9"/>
+      <c r="JS8" s="9"/>
+      <c r="JT8" s="9"/>
+      <c r="JU8" s="9"/>
+      <c r="JV8" s="9"/>
+      <c r="JW8" s="9"/>
+      <c r="JX8" s="9"/>
+      <c r="JY8" s="9"/>
+      <c r="JZ8" s="9"/>
+      <c r="KA8" s="9"/>
+      <c r="KB8" s="9"/>
+      <c r="KC8" s="9"/>
+      <c r="KD8" s="9"/>
+      <c r="KE8" s="9"/>
+      <c r="KF8" s="9"/>
+      <c r="KG8" s="9"/>
+      <c r="KH8" s="9"/>
+      <c r="KI8" s="9"/>
+      <c r="KJ8" s="9"/>
+      <c r="KK8" s="9"/>
+      <c r="KL8" s="9"/>
+      <c r="KM8" s="9"/>
+      <c r="KN8" s="9"/>
+      <c r="KO8" s="9"/>
+      <c r="KP8" s="9"/>
+      <c r="KQ8" s="9"/>
+      <c r="KR8" s="9"/>
+      <c r="KS8" s="9"/>
+      <c r="KT8" s="9"/>
+      <c r="KU8" s="9"/>
+      <c r="KV8" s="9"/>
+      <c r="KW8" s="9"/>
+      <c r="KX8" s="9"/>
+      <c r="KY8" s="9"/>
+      <c r="KZ8" s="9"/>
+      <c r="LA8" s="9"/>
+      <c r="LB8" s="9"/>
+      <c r="LC8" s="9"/>
+      <c r="LD8" s="9"/>
+      <c r="LE8" s="9"/>
+      <c r="LF8" s="9"/>
+      <c r="LG8" s="9"/>
+      <c r="LH8" s="9"/>
+      <c r="LI8" s="9"/>
+      <c r="LJ8" s="9"/>
+      <c r="LK8" s="9"/>
+      <c r="LL8" s="9"/>
+      <c r="LM8" s="9"/>
+      <c r="LN8" s="9"/>
+      <c r="LO8" s="9"/>
+      <c r="LP8" s="9"/>
+      <c r="LQ8" s="9"/>
+      <c r="LR8" s="9"/>
+      <c r="LS8" s="9"/>
+      <c r="LT8" s="9"/>
+      <c r="LU8" s="9"/>
+      <c r="LV8" s="9"/>
+      <c r="LW8" s="9"/>
+      <c r="LX8" s="9"/>
+      <c r="LY8" s="9"/>
+      <c r="LZ8" s="9"/>
+      <c r="MA8" s="9"/>
+      <c r="MB8" s="9"/>
+      <c r="MC8" s="9"/>
+      <c r="MD8" s="9"/>
+      <c r="ME8" s="9"/>
+      <c r="MF8" s="9"/>
+      <c r="MG8" s="9"/>
+      <c r="MH8" s="9"/>
+      <c r="MI8" s="9"/>
+      <c r="MJ8" s="9"/>
+      <c r="MK8" s="9"/>
+      <c r="ML8" s="9"/>
+      <c r="MM8" s="9"/>
+      <c r="MN8" s="9"/>
+      <c r="MO8" s="9"/>
+      <c r="MP8" s="9"/>
+      <c r="MQ8" s="9"/>
+      <c r="MR8" s="9"/>
+      <c r="MS8" s="9"/>
+      <c r="MT8" s="9"/>
+      <c r="MU8" s="9"/>
+      <c r="MV8" s="9"/>
+      <c r="MW8" s="9"/>
+      <c r="MX8" s="9"/>
+      <c r="MY8" s="9"/>
+      <c r="MZ8" s="9"/>
+      <c r="NA8" s="9"/>
+      <c r="NB8" s="9"/>
+      <c r="NC8" s="9"/>
+      <c r="ND8" s="9"/>
+      <c r="NE8" s="9"/>
+      <c r="NF8" s="9"/>
+      <c r="NG8" s="9"/>
+      <c r="NH8" s="9"/>
+      <c r="NI8" s="9"/>
+      <c r="NJ8" s="9"/>
+      <c r="NK8" s="9"/>
+      <c r="NL8" s="9"/>
+      <c r="NM8" s="9"/>
+      <c r="NN8" s="9"/>
+      <c r="NO8" s="9"/>
+      <c r="NP8" s="9"/>
+      <c r="NQ8" s="9"/>
+      <c r="NR8" s="9"/>
+      <c r="NS8" s="9"/>
+      <c r="NT8" s="9"/>
+      <c r="NU8" s="9"/>
+      <c r="NV8" s="9"/>
+      <c r="NW8" s="9"/>
+      <c r="NX8" s="9"/>
+      <c r="NY8" s="9"/>
+      <c r="NZ8" s="9"/>
+      <c r="OA8" s="9"/>
+      <c r="OB8" s="9"/>
+      <c r="OC8" s="9"/>
+      <c r="OD8" s="9"/>
+      <c r="OE8" s="9"/>
+      <c r="OF8" s="9"/>
+      <c r="OG8" s="9"/>
+      <c r="OH8" s="9"/>
+      <c r="OI8" s="9"/>
+      <c r="OJ8" s="9"/>
+      <c r="OK8" s="9"/>
+      <c r="OL8" s="9"/>
+      <c r="OM8" s="9"/>
+      <c r="ON8" s="9"/>
+      <c r="OO8" s="9"/>
+      <c r="OP8" s="9"/>
+      <c r="OQ8" s="9"/>
+      <c r="OR8" s="9"/>
+      <c r="OS8" s="9"/>
+      <c r="OT8" s="9"/>
+      <c r="OU8" s="9"/>
+      <c r="OV8" s="9"/>
+      <c r="OW8" s="9"/>
+      <c r="OX8" s="9"/>
+      <c r="OY8" s="9"/>
+      <c r="OZ8" s="9"/>
+      <c r="PA8" s="9"/>
+      <c r="PB8" s="9"/>
+      <c r="PC8" s="9"/>
+      <c r="PD8" s="9"/>
+      <c r="PE8" s="9"/>
+      <c r="PF8" s="9"/>
+      <c r="PG8" s="9"/>
+      <c r="PH8" s="9"/>
+      <c r="PI8" s="9"/>
+      <c r="PJ8" s="9"/>
+      <c r="PK8" s="9"/>
+      <c r="PL8" s="9"/>
+      <c r="PM8" s="9"/>
+      <c r="PN8" s="9"/>
+      <c r="PO8" s="9"/>
+      <c r="PP8" s="9"/>
+      <c r="PQ8" s="9"/>
+      <c r="PR8" s="9"/>
+      <c r="PS8" s="9"/>
+      <c r="PT8" s="9"/>
+      <c r="PU8" s="9"/>
+      <c r="PV8" s="9"/>
+      <c r="PW8" s="9"/>
+      <c r="PX8" s="9"/>
+      <c r="PY8" s="9"/>
+      <c r="PZ8" s="9"/>
+      <c r="QA8" s="9"/>
+      <c r="QB8" s="9"/>
+      <c r="QC8" s="9"/>
+      <c r="QD8" s="9"/>
+      <c r="QE8" s="9"/>
+      <c r="QF8" s="9"/>
+      <c r="QG8" s="9"/>
+      <c r="QH8" s="9"/>
+      <c r="QI8" s="9"/>
+      <c r="QJ8" s="9"/>
+      <c r="QK8" s="9"/>
+      <c r="QL8" s="9"/>
+      <c r="QM8" s="9"/>
+      <c r="QN8" s="9"/>
+      <c r="QO8" s="9"/>
+      <c r="QP8" s="9"/>
+      <c r="QQ8" s="9"/>
+      <c r="QR8" s="9"/>
+      <c r="QS8" s="9"/>
+      <c r="QT8" s="9"/>
+      <c r="QU8" s="9"/>
+      <c r="QV8" s="9"/>
+      <c r="QW8" s="9"/>
+      <c r="QX8" s="9"/>
+      <c r="QY8" s="9"/>
+      <c r="QZ8" s="9"/>
+      <c r="RA8" s="9"/>
+      <c r="RB8" s="9"/>
+      <c r="RC8" s="9"/>
+      <c r="RD8" s="9"/>
+      <c r="RE8" s="9"/>
+      <c r="RF8" s="9"/>
+      <c r="RG8" s="9"/>
+      <c r="RH8" s="9"/>
+      <c r="RI8" s="9"/>
+      <c r="RJ8" s="9"/>
+      <c r="RK8" s="9"/>
+      <c r="RL8" s="9"/>
+      <c r="RM8" s="9"/>
+      <c r="RN8" s="9"/>
+      <c r="RO8" s="9"/>
+      <c r="RP8" s="9"/>
+      <c r="RQ8" s="9"/>
+      <c r="RR8" s="9"/>
+      <c r="RS8" s="9"/>
+      <c r="RT8" s="9"/>
+      <c r="RU8" s="9"/>
+      <c r="RV8" s="9"/>
+      <c r="RW8" s="9"/>
+      <c r="RX8" s="9"/>
+      <c r="RY8" s="9"/>
+      <c r="RZ8" s="9"/>
+      <c r="SA8" s="9"/>
+      <c r="SB8" s="9"/>
+      <c r="SC8" s="9"/>
+      <c r="SD8" s="9"/>
+      <c r="SE8" s="9"/>
+      <c r="SF8" s="9"/>
+      <c r="SG8" s="9"/>
+      <c r="SH8" s="9"/>
+      <c r="SI8" s="9"/>
+      <c r="SJ8" s="9"/>
+      <c r="SK8" s="9"/>
+      <c r="SL8" s="9"/>
+      <c r="SM8" s="9"/>
+      <c r="SN8" s="9"/>
+      <c r="SO8" s="9"/>
+      <c r="SP8" s="9"/>
+      <c r="SQ8" s="9"/>
+      <c r="SR8" s="9"/>
+      <c r="SS8" s="9"/>
+      <c r="ST8" s="9"/>
+      <c r="SU8" s="9"/>
+      <c r="SV8" s="9"/>
+      <c r="SW8" s="9"/>
+      <c r="SX8" s="9"/>
+      <c r="SY8" s="9"/>
+      <c r="SZ8" s="9"/>
+      <c r="TA8" s="9"/>
+      <c r="TB8" s="9"/>
+      <c r="TC8" s="9"/>
+      <c r="TD8" s="9"/>
+      <c r="TE8" s="9"/>
+      <c r="TF8" s="9"/>
+      <c r="TG8" s="9"/>
+      <c r="TH8" s="9"/>
+      <c r="TI8" s="9"/>
+      <c r="TJ8" s="9"/>
+      <c r="TK8" s="9"/>
+      <c r="TL8" s="9"/>
+      <c r="TM8" s="9"/>
+      <c r="TN8" s="9"/>
+      <c r="TO8" s="9"/>
+      <c r="TP8" s="9"/>
+      <c r="TQ8" s="9"/>
+      <c r="TR8" s="9"/>
+      <c r="TS8" s="9"/>
+      <c r="TT8" s="9"/>
+      <c r="TU8" s="9"/>
+      <c r="TV8" s="9"/>
+      <c r="TW8" s="9"/>
+      <c r="TX8" s="9"/>
+      <c r="TY8" s="9"/>
+      <c r="TZ8" s="9"/>
+      <c r="UA8" s="9"/>
+      <c r="UB8" s="9"/>
+      <c r="UC8" s="9"/>
+      <c r="UD8" s="9"/>
+      <c r="UE8" s="9"/>
+      <c r="UF8" s="9"/>
+      <c r="UG8" s="9"/>
+      <c r="UH8" s="9"/>
+      <c r="UI8" s="9"/>
+      <c r="UJ8" s="9"/>
+      <c r="UK8" s="9"/>
+      <c r="UL8" s="9"/>
+      <c r="UM8" s="9"/>
+      <c r="UN8" s="9"/>
+      <c r="UO8" s="9"/>
+      <c r="UP8" s="9"/>
+      <c r="UQ8" s="9"/>
+      <c r="UR8" s="9"/>
+      <c r="US8" s="9"/>
+      <c r="UT8" s="9"/>
+      <c r="UU8" s="9"/>
+      <c r="UV8" s="9"/>
+      <c r="UW8" s="9"/>
+      <c r="UX8" s="9"/>
+      <c r="UY8" s="9"/>
+      <c r="UZ8" s="9"/>
+      <c r="VA8" s="9"/>
+      <c r="VB8" s="9"/>
+      <c r="VC8" s="9"/>
+      <c r="VD8" s="9"/>
+      <c r="VE8" s="9"/>
+      <c r="VF8" s="9"/>
+      <c r="VG8" s="9"/>
+      <c r="VH8" s="9"/>
+      <c r="VI8" s="9"/>
+      <c r="VJ8" s="9"/>
+      <c r="VK8" s="9"/>
+      <c r="VL8" s="9"/>
+      <c r="VM8" s="9"/>
+      <c r="VN8" s="9"/>
+      <c r="VO8" s="9"/>
+      <c r="VP8" s="9"/>
+      <c r="VQ8" s="9"/>
+      <c r="VR8" s="9"/>
+      <c r="VS8" s="9"/>
+      <c r="VT8" s="9"/>
+      <c r="VU8" s="9"/>
+      <c r="VV8" s="9"/>
+      <c r="VW8" s="9"/>
+      <c r="VX8" s="9"/>
+      <c r="VY8" s="9"/>
+      <c r="VZ8" s="9"/>
+      <c r="WA8" s="9"/>
+      <c r="WB8" s="9"/>
+      <c r="WC8" s="9"/>
+      <c r="WD8" s="9"/>
+      <c r="WE8" s="9"/>
+      <c r="WF8" s="9"/>
+      <c r="WG8" s="9"/>
+      <c r="WH8" s="9"/>
+      <c r="WI8" s="9"/>
+      <c r="WJ8" s="9"/>
+      <c r="WK8" s="9"/>
+      <c r="WL8" s="9"/>
+      <c r="WM8" s="9"/>
+      <c r="WN8" s="9"/>
+      <c r="WO8" s="9"/>
+      <c r="WP8" s="9"/>
+      <c r="WQ8" s="9"/>
+      <c r="WR8" s="9"/>
+      <c r="WS8" s="9"/>
+      <c r="WT8" s="9"/>
+      <c r="WU8" s="9"/>
+      <c r="WV8" s="9"/>
+      <c r="WW8" s="9"/>
+      <c r="WX8" s="9"/>
+      <c r="WY8" s="9"/>
+      <c r="WZ8" s="9"/>
+      <c r="XA8" s="9"/>
+      <c r="XB8" s="9"/>
+      <c r="XC8" s="9"/>
+      <c r="XD8" s="9"/>
+      <c r="XE8" s="9"/>
+      <c r="XF8" s="9"/>
+      <c r="XG8" s="9"/>
+      <c r="XH8" s="9"/>
+      <c r="XI8" s="9"/>
+      <c r="XJ8" s="9"/>
+      <c r="XK8" s="9"/>
+      <c r="XL8" s="9"/>
+      <c r="XM8" s="9"/>
+      <c r="XN8" s="9"/>
+      <c r="XO8" s="9"/>
+      <c r="XP8" s="9"/>
+      <c r="XQ8" s="9"/>
+      <c r="XR8" s="9"/>
+      <c r="XS8" s="9"/>
+      <c r="XT8" s="9"/>
+      <c r="XU8" s="9"/>
+      <c r="XV8" s="9"/>
+      <c r="XW8" s="9"/>
+      <c r="XX8" s="9"/>
+      <c r="XY8" s="9"/>
+      <c r="XZ8" s="9"/>
+      <c r="YA8" s="9"/>
+      <c r="YB8" s="9"/>
+      <c r="YC8" s="9"/>
+      <c r="YD8" s="9"/>
+      <c r="YE8" s="9"/>
+      <c r="YF8" s="9"/>
+      <c r="YG8" s="9"/>
+      <c r="YH8" s="9"/>
+      <c r="YI8" s="9"/>
+      <c r="YJ8" s="9"/>
+      <c r="YK8" s="9"/>
+      <c r="YL8" s="9"/>
+      <c r="YM8" s="9"/>
+      <c r="YN8" s="9"/>
+      <c r="YO8" s="9"/>
+      <c r="YP8" s="9"/>
+      <c r="YQ8" s="9"/>
+      <c r="YR8" s="9"/>
+      <c r="YS8" s="9"/>
+      <c r="YT8" s="9"/>
+      <c r="YU8" s="9"/>
+      <c r="YV8" s="9"/>
+      <c r="YW8" s="9"/>
+      <c r="YX8" s="9"/>
+      <c r="YY8" s="9"/>
+      <c r="YZ8" s="9"/>
+      <c r="ZA8" s="9"/>
+      <c r="ZB8" s="9"/>
+      <c r="ZC8" s="9"/>
+      <c r="ZD8" s="9"/>
+      <c r="ZE8" s="9"/>
+      <c r="ZF8" s="9"/>
+      <c r="ZG8" s="9"/>
+      <c r="ZH8" s="9"/>
+      <c r="ZI8" s="9"/>
+      <c r="ZJ8" s="9"/>
+      <c r="ZK8" s="9"/>
+      <c r="ZL8" s="9"/>
+      <c r="ZM8" s="9"/>
+      <c r="ZN8" s="9"/>
+      <c r="ZO8" s="9"/>
+      <c r="ZP8" s="9"/>
+      <c r="ZQ8" s="9"/>
+      <c r="ZR8" s="9"/>
+      <c r="ZS8" s="9"/>
+      <c r="ZT8" s="9"/>
+      <c r="ZU8" s="9"/>
+      <c r="ZV8" s="9"/>
+      <c r="ZW8" s="9"/>
+      <c r="ZX8" s="9"/>
+      <c r="ZY8" s="9"/>
+      <c r="ZZ8" s="9"/>
+      <c r="AAA8" s="9"/>
+      <c r="AAB8" s="9"/>
+      <c r="AAC8" s="9"/>
+      <c r="AAD8" s="9"/>
+      <c r="AAE8" s="9"/>
+      <c r="AAF8" s="9"/>
+      <c r="AAG8" s="9"/>
+      <c r="AAH8" s="9"/>
+      <c r="AAI8" s="9"/>
+      <c r="AAJ8" s="9"/>
+      <c r="AAK8" s="9"/>
+      <c r="AAL8" s="9"/>
+      <c r="AAM8" s="9"/>
+      <c r="AAN8" s="9"/>
+      <c r="AAO8" s="9"/>
+      <c r="AAP8" s="9"/>
+      <c r="AAQ8" s="9"/>
+      <c r="AAR8" s="9"/>
+      <c r="AAS8" s="9"/>
+      <c r="AAT8" s="9"/>
+      <c r="AAU8" s="9"/>
+      <c r="AAV8" s="9"/>
+      <c r="AAW8" s="9"/>
+      <c r="AAX8" s="9"/>
+      <c r="AAY8" s="9"/>
+      <c r="AAZ8" s="9"/>
+      <c r="ABA8" s="9"/>
+      <c r="ABB8" s="9"/>
+      <c r="ABC8" s="9"/>
+      <c r="ABD8" s="9"/>
+      <c r="ABE8" s="9"/>
+      <c r="ABF8" s="9"/>
+      <c r="ABG8" s="9"/>
+      <c r="ABH8" s="9"/>
+      <c r="ABI8" s="9"/>
+      <c r="ABJ8" s="9"/>
+      <c r="ABK8" s="9"/>
+      <c r="ABL8" s="9"/>
+      <c r="ABM8" s="9"/>
+      <c r="ABN8" s="9"/>
+      <c r="ABO8" s="9"/>
+      <c r="ABP8" s="9"/>
+      <c r="ABQ8" s="9"/>
+      <c r="ABR8" s="9"/>
+      <c r="ABS8" s="9"/>
+      <c r="ABT8" s="9"/>
+      <c r="ABU8" s="9"/>
+      <c r="ABV8" s="9"/>
+      <c r="ABW8" s="9"/>
+      <c r="ABX8" s="9"/>
+      <c r="ABY8" s="9"/>
+      <c r="ABZ8" s="9"/>
+      <c r="ACA8" s="9"/>
+      <c r="ACB8" s="9"/>
+      <c r="ACC8" s="9"/>
+      <c r="ACD8" s="9"/>
+      <c r="ACE8" s="9"/>
+      <c r="ACF8" s="9"/>
+      <c r="ACG8" s="9"/>
+      <c r="ACH8" s="9"/>
+      <c r="ACI8" s="9"/>
+      <c r="ACJ8" s="9"/>
+      <c r="ACK8" s="9"/>
+      <c r="ACL8" s="9"/>
+      <c r="ACM8" s="9"/>
+      <c r="ACN8" s="9"/>
+      <c r="ACO8" s="9"/>
+      <c r="ACP8" s="9"/>
+      <c r="ACQ8" s="9"/>
+      <c r="ACR8" s="9"/>
+      <c r="ACS8" s="9"/>
+      <c r="ACT8" s="9"/>
+      <c r="ACU8" s="9"/>
+      <c r="ACV8" s="9"/>
+      <c r="ACW8" s="9"/>
+      <c r="ACX8" s="9"/>
+      <c r="ACY8" s="9"/>
+      <c r="ACZ8" s="9"/>
+      <c r="ADA8" s="9"/>
+      <c r="ADB8" s="9"/>
+      <c r="ADC8" s="9"/>
+      <c r="ADD8" s="9"/>
+      <c r="ADE8" s="9"/>
+      <c r="ADF8" s="9"/>
+      <c r="ADG8" s="9"/>
+      <c r="ADH8" s="9"/>
+      <c r="ADI8" s="9"/>
+      <c r="ADJ8" s="9"/>
+      <c r="ADK8" s="9"/>
+      <c r="ADL8" s="9"/>
+      <c r="ADM8" s="9"/>
+      <c r="ADN8" s="9"/>
+      <c r="ADO8" s="9"/>
+      <c r="ADP8" s="9"/>
+      <c r="ADQ8" s="9"/>
+      <c r="ADR8" s="9"/>
+      <c r="ADS8" s="9"/>
+      <c r="ADT8" s="9"/>
+      <c r="ADU8" s="9"/>
+      <c r="ADV8" s="9"/>
+      <c r="ADW8" s="9"/>
+      <c r="ADX8" s="9"/>
+      <c r="ADY8" s="9"/>
+      <c r="ADZ8" s="9"/>
+      <c r="AEA8" s="9"/>
+      <c r="AEB8" s="9"/>
+      <c r="AEC8" s="9"/>
+      <c r="AED8" s="9"/>
+      <c r="AEE8" s="9"/>
+      <c r="AEF8" s="9"/>
+      <c r="AEG8" s="9"/>
+      <c r="AEH8" s="9"/>
+      <c r="AEI8" s="9"/>
+      <c r="AEJ8" s="9"/>
+      <c r="AEK8" s="9"/>
+      <c r="AEL8" s="9"/>
+      <c r="AEM8" s="9"/>
+      <c r="AEN8" s="9"/>
+      <c r="AEO8" s="9"/>
+      <c r="AEP8" s="9"/>
+      <c r="AEQ8" s="9"/>
+      <c r="AER8" s="9"/>
+      <c r="AES8" s="9"/>
+      <c r="AET8" s="9"/>
+      <c r="AEU8" s="9"/>
+      <c r="AEV8" s="9"/>
+      <c r="AEW8" s="9"/>
+      <c r="AEX8" s="9"/>
+      <c r="AEY8" s="9"/>
+      <c r="AEZ8" s="9"/>
+      <c r="AFA8" s="9"/>
+      <c r="AFB8" s="9"/>
+      <c r="AFC8" s="9"/>
+      <c r="AFD8" s="9"/>
+      <c r="AFE8" s="9"/>
+      <c r="AFF8" s="9"/>
+      <c r="AFG8" s="9"/>
+      <c r="AFH8" s="9"/>
+      <c r="AFI8" s="9"/>
+      <c r="AFJ8" s="9"/>
+      <c r="AFK8" s="9"/>
+      <c r="AFL8" s="9"/>
+      <c r="AFM8" s="9"/>
+      <c r="AFN8" s="9"/>
+      <c r="AFO8" s="9"/>
+      <c r="AFP8" s="9"/>
+      <c r="AFQ8" s="9"/>
+      <c r="AFR8" s="9"/>
+      <c r="AFS8" s="9"/>
+      <c r="AFT8" s="9"/>
+      <c r="AFU8" s="9"/>
+      <c r="AFV8" s="9"/>
+      <c r="AFW8" s="9"/>
+      <c r="AFX8" s="9"/>
+      <c r="AFY8" s="9"/>
+      <c r="AFZ8" s="9"/>
+      <c r="AGA8" s="9"/>
+      <c r="AGB8" s="9"/>
+      <c r="AGC8" s="9"/>
+      <c r="AGD8" s="9"/>
+      <c r="AGE8" s="9"/>
+      <c r="AGF8" s="9"/>
+      <c r="AGG8" s="9"/>
+      <c r="AGH8" s="9"/>
+      <c r="AGI8" s="9"/>
+      <c r="AGJ8" s="9"/>
+      <c r="AGK8" s="9"/>
+      <c r="AGL8" s="9"/>
+      <c r="AGM8" s="9"/>
+      <c r="AGN8" s="9"/>
+      <c r="AGO8" s="9"/>
+      <c r="AGP8" s="9"/>
+      <c r="AGQ8" s="9"/>
+      <c r="AGR8" s="9"/>
+      <c r="AGS8" s="9"/>
+      <c r="AGT8" s="9"/>
+      <c r="AGU8" s="9"/>
+      <c r="AGV8" s="9"/>
+      <c r="AGW8" s="9"/>
+      <c r="AGX8" s="9"/>
+      <c r="AGY8" s="9"/>
+      <c r="AGZ8" s="9"/>
+      <c r="AHA8" s="9"/>
+      <c r="AHB8" s="9"/>
+      <c r="AHC8" s="9"/>
+      <c r="AHD8" s="9"/>
+      <c r="AHE8" s="9"/>
+      <c r="AHF8" s="9"/>
+      <c r="AHG8" s="9"/>
+      <c r="AHH8" s="9"/>
+      <c r="AHI8" s="9"/>
+      <c r="AHJ8" s="9"/>
+      <c r="AHK8" s="9"/>
+      <c r="AHL8" s="9"/>
+      <c r="AHM8" s="9"/>
+      <c r="AHN8" s="9"/>
+      <c r="AHO8" s="9"/>
+      <c r="AHP8" s="9"/>
+      <c r="AHQ8" s="9"/>
+      <c r="AHR8" s="9"/>
+      <c r="AHS8" s="9"/>
+      <c r="AHT8" s="9"/>
+      <c r="AHU8" s="9"/>
+      <c r="AHV8" s="9"/>
+      <c r="AHW8" s="9"/>
+      <c r="AHX8" s="9"/>
+      <c r="AHY8" s="9"/>
+      <c r="AHZ8" s="9"/>
+      <c r="AIA8" s="9"/>
+      <c r="AIB8" s="9"/>
+      <c r="AIC8" s="9"/>
+      <c r="AID8" s="9"/>
+      <c r="AIE8" s="9"/>
+      <c r="AIF8" s="9"/>
+      <c r="AIG8" s="9"/>
+      <c r="AIH8" s="9"/>
+      <c r="AII8" s="9"/>
+      <c r="AIJ8" s="9"/>
+      <c r="AIK8" s="9"/>
+      <c r="AIL8" s="9"/>
+      <c r="AIM8" s="9"/>
+      <c r="AIN8" s="9"/>
+      <c r="AIO8" s="9"/>
+      <c r="AIP8" s="9"/>
+      <c r="AIQ8" s="9"/>
+      <c r="AIR8" s="9"/>
+      <c r="AIS8" s="9"/>
+      <c r="AIT8" s="9"/>
+      <c r="AIU8" s="9"/>
+      <c r="AIV8" s="9"/>
+      <c r="AIW8" s="9"/>
+      <c r="AIX8" s="9"/>
+      <c r="AIY8" s="9"/>
+      <c r="AIZ8" s="9"/>
+      <c r="AJA8" s="9"/>
+      <c r="AJB8" s="9"/>
+      <c r="AJC8" s="9"/>
+      <c r="AJD8" s="9"/>
+      <c r="AJE8" s="9"/>
+      <c r="AJF8" s="9"/>
+      <c r="AJG8" s="9"/>
+      <c r="AJH8" s="9"/>
+      <c r="AJI8" s="9"/>
+      <c r="AJJ8" s="9"/>
+      <c r="AJK8" s="9"/>
+      <c r="AJL8" s="9"/>
+      <c r="AJM8" s="9"/>
+      <c r="AJN8" s="9"/>
+      <c r="AJO8" s="9"/>
+      <c r="AJP8" s="9"/>
+      <c r="AJQ8" s="9"/>
+      <c r="AJR8" s="9"/>
+      <c r="AJS8" s="9"/>
+      <c r="AJT8" s="9"/>
+      <c r="AJU8" s="9"/>
+      <c r="AJV8" s="9"/>
+      <c r="AJW8" s="9"/>
+      <c r="AJX8" s="9"/>
+      <c r="AJY8" s="9"/>
+      <c r="AJZ8" s="9"/>
+      <c r="AKA8" s="9"/>
+      <c r="AKB8" s="9"/>
+      <c r="AKC8" s="9"/>
+      <c r="AKD8" s="9"/>
+      <c r="AKE8" s="9"/>
+      <c r="AKF8" s="9"/>
+      <c r="AKG8" s="9"/>
+      <c r="AKH8" s="9"/>
+      <c r="AKI8" s="9"/>
+      <c r="AKJ8" s="9"/>
+      <c r="AKK8" s="9"/>
+      <c r="AKL8" s="9"/>
+      <c r="AKM8" s="9"/>
+      <c r="AKN8" s="9"/>
+      <c r="AKO8" s="9"/>
+      <c r="AKP8" s="9"/>
+      <c r="AKQ8" s="9"/>
+      <c r="AKR8" s="9"/>
+      <c r="AKS8" s="9"/>
+      <c r="AKT8" s="9"/>
+      <c r="AKU8" s="9"/>
+      <c r="AKV8" s="9"/>
+      <c r="AKW8" s="9"/>
+      <c r="AKX8" s="9"/>
+      <c r="AKY8" s="9"/>
+      <c r="AKZ8" s="9"/>
+      <c r="ALA8" s="9"/>
+      <c r="ALB8" s="9"/>
+      <c r="ALC8" s="9"/>
+      <c r="ALD8" s="9"/>
+      <c r="ALE8" s="9"/>
+      <c r="ALF8" s="9"/>
+      <c r="ALG8" s="9"/>
+      <c r="ALH8" s="9"/>
+      <c r="ALI8" s="9"/>
+      <c r="ALJ8" s="9"/>
+      <c r="ALK8" s="9"/>
+      <c r="ALL8" s="9"/>
+      <c r="ALM8" s="9"/>
+      <c r="ALN8" s="9"/>
+      <c r="ALO8" s="9"/>
+      <c r="ALP8" s="9"/>
+      <c r="ALQ8" s="9"/>
+      <c r="ALR8" s="9"/>
+      <c r="ALS8" s="9"/>
+      <c r="ALT8" s="9"/>
+      <c r="ALU8" s="9"/>
+      <c r="ALV8" s="9"/>
+      <c r="ALW8" s="9"/>
+      <c r="ALX8" s="9"/>
+      <c r="ALY8" s="9"/>
+      <c r="ALZ8" s="9"/>
+      <c r="AMA8" s="9"/>
+      <c r="AMB8" s="9"/>
+      <c r="AMC8" s="9"/>
+      <c r="AMD8" s="9"/>
+      <c r="AME8" s="9"/>
+    </row>
+    <row r="9" s="8" customFormat="1" customHeight="1" spans="1:1019">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="9"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="9"/>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="9"/>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="9"/>
+      <c r="CF9" s="9"/>
+      <c r="CG9" s="9"/>
+      <c r="CH9" s="9"/>
+      <c r="CI9" s="9"/>
+      <c r="CJ9" s="9"/>
+      <c r="CK9" s="9"/>
+      <c r="CL9" s="9"/>
+      <c r="CM9" s="9"/>
+      <c r="CN9" s="9"/>
+      <c r="CO9" s="9"/>
+      <c r="CP9" s="9"/>
+      <c r="CQ9" s="9"/>
+      <c r="CR9" s="9"/>
+      <c r="CS9" s="9"/>
+      <c r="CT9" s="9"/>
+      <c r="CU9" s="9"/>
+      <c r="CV9" s="9"/>
+      <c r="CW9" s="9"/>
+      <c r="CX9" s="9"/>
+      <c r="CY9" s="9"/>
+      <c r="CZ9" s="9"/>
+      <c r="DA9" s="9"/>
+      <c r="DB9" s="9"/>
+      <c r="DC9" s="9"/>
+      <c r="DD9" s="9"/>
+      <c r="DE9" s="9"/>
+      <c r="DF9" s="9"/>
+      <c r="DG9" s="9"/>
+      <c r="DH9" s="9"/>
+      <c r="DI9" s="9"/>
+      <c r="DJ9" s="9"/>
+      <c r="DK9" s="9"/>
+      <c r="DL9" s="9"/>
+      <c r="DM9" s="9"/>
+      <c r="DN9" s="9"/>
+      <c r="DO9" s="9"/>
+      <c r="DP9" s="9"/>
+      <c r="DQ9" s="9"/>
+      <c r="DR9" s="9"/>
+      <c r="DS9" s="9"/>
+      <c r="DT9" s="9"/>
+      <c r="DU9" s="9"/>
+      <c r="DV9" s="9"/>
+      <c r="DW9" s="9"/>
+      <c r="DX9" s="9"/>
+      <c r="DY9" s="9"/>
+      <c r="DZ9" s="9"/>
+      <c r="EA9" s="9"/>
+      <c r="EB9" s="9"/>
+      <c r="EC9" s="9"/>
+      <c r="ED9" s="9"/>
+      <c r="EE9" s="9"/>
+      <c r="EF9" s="9"/>
+      <c r="EG9" s="9"/>
+      <c r="EH9" s="9"/>
+      <c r="EI9" s="9"/>
+      <c r="EJ9" s="9"/>
+      <c r="EK9" s="9"/>
+      <c r="EL9" s="9"/>
+      <c r="EM9" s="9"/>
+      <c r="EN9" s="9"/>
+      <c r="EO9" s="9"/>
+      <c r="EP9" s="9"/>
+      <c r="EQ9" s="9"/>
+      <c r="ER9" s="9"/>
+      <c r="ES9" s="9"/>
+      <c r="ET9" s="9"/>
+      <c r="EU9" s="9"/>
+      <c r="EV9" s="9"/>
+      <c r="EW9" s="9"/>
+      <c r="EX9" s="9"/>
+      <c r="EY9" s="9"/>
+      <c r="EZ9" s="9"/>
+      <c r="FA9" s="9"/>
+      <c r="FB9" s="9"/>
+      <c r="FC9" s="9"/>
+      <c r="FD9" s="9"/>
+      <c r="FE9" s="9"/>
+      <c r="FF9" s="9"/>
+      <c r="FG9" s="9"/>
+      <c r="FH9" s="9"/>
+      <c r="FI9" s="9"/>
+      <c r="FJ9" s="9"/>
+      <c r="FK9" s="9"/>
+      <c r="FL9" s="9"/>
+      <c r="FM9" s="9"/>
+      <c r="FN9" s="9"/>
+      <c r="FO9" s="9"/>
+      <c r="FP9" s="9"/>
+      <c r="FQ9" s="9"/>
+      <c r="FR9" s="9"/>
+      <c r="FS9" s="9"/>
+      <c r="FT9" s="9"/>
+      <c r="FU9" s="9"/>
+      <c r="FV9" s="9"/>
+      <c r="FW9" s="9"/>
+      <c r="FX9" s="9"/>
+      <c r="FY9" s="9"/>
+      <c r="FZ9" s="9"/>
+      <c r="GA9" s="9"/>
+      <c r="GB9" s="9"/>
+      <c r="GC9" s="9"/>
+      <c r="GD9" s="9"/>
+      <c r="GE9" s="9"/>
+      <c r="GF9" s="9"/>
+      <c r="GG9" s="9"/>
+      <c r="GH9" s="9"/>
+      <c r="GI9" s="9"/>
+      <c r="GJ9" s="9"/>
+      <c r="GK9" s="9"/>
+      <c r="GL9" s="9"/>
+      <c r="GM9" s="9"/>
+      <c r="GN9" s="9"/>
+      <c r="GO9" s="9"/>
+      <c r="GP9" s="9"/>
+      <c r="GQ9" s="9"/>
+      <c r="GR9" s="9"/>
+      <c r="GS9" s="9"/>
+      <c r="GT9" s="9"/>
+      <c r="GU9" s="9"/>
+      <c r="GV9" s="9"/>
+      <c r="GW9" s="9"/>
+      <c r="GX9" s="9"/>
+      <c r="GY9" s="9"/>
+      <c r="GZ9" s="9"/>
+      <c r="HA9" s="9"/>
+      <c r="HB9" s="9"/>
+      <c r="HC9" s="9"/>
+      <c r="HD9" s="9"/>
+      <c r="HE9" s="9"/>
+      <c r="HF9" s="9"/>
+      <c r="HG9" s="9"/>
+      <c r="HH9" s="9"/>
+      <c r="HI9" s="9"/>
+      <c r="HJ9" s="9"/>
+      <c r="HK9" s="9"/>
+      <c r="HL9" s="9"/>
+      <c r="HM9" s="9"/>
+      <c r="HN9" s="9"/>
+      <c r="HO9" s="9"/>
+      <c r="HP9" s="9"/>
+      <c r="HQ9" s="9"/>
+      <c r="HR9" s="9"/>
+      <c r="HS9" s="9"/>
+      <c r="HT9" s="9"/>
+      <c r="HU9" s="9"/>
+      <c r="HV9" s="9"/>
+      <c r="HW9" s="9"/>
+      <c r="HX9" s="9"/>
+      <c r="HY9" s="9"/>
+      <c r="HZ9" s="9"/>
+      <c r="IA9" s="9"/>
+      <c r="IB9" s="9"/>
+      <c r="IC9" s="9"/>
+      <c r="ID9" s="9"/>
+      <c r="IE9" s="9"/>
+      <c r="IF9" s="9"/>
+      <c r="IG9" s="9"/>
+      <c r="IH9" s="9"/>
+      <c r="II9" s="9"/>
+      <c r="IJ9" s="9"/>
+      <c r="IK9" s="9"/>
+      <c r="IL9" s="9"/>
+      <c r="IM9" s="9"/>
+      <c r="IN9" s="9"/>
+      <c r="IO9" s="9"/>
+      <c r="IP9" s="9"/>
+      <c r="IQ9" s="9"/>
+      <c r="IR9" s="9"/>
+      <c r="IS9" s="9"/>
+      <c r="IT9" s="9"/>
+      <c r="IU9" s="9"/>
+      <c r="IV9" s="9"/>
+      <c r="IW9" s="9"/>
+      <c r="IX9" s="9"/>
+      <c r="IY9" s="9"/>
+      <c r="IZ9" s="9"/>
+      <c r="JA9" s="9"/>
+      <c r="JB9" s="9"/>
+      <c r="JC9" s="9"/>
+      <c r="JD9" s="9"/>
+      <c r="JE9" s="9"/>
+      <c r="JF9" s="9"/>
+      <c r="JG9" s="9"/>
+      <c r="JH9" s="9"/>
+      <c r="JI9" s="9"/>
+      <c r="JJ9" s="9"/>
+      <c r="JK9" s="9"/>
+      <c r="JL9" s="9"/>
+      <c r="JM9" s="9"/>
+      <c r="JN9" s="9"/>
+      <c r="JO9" s="9"/>
+      <c r="JP9" s="9"/>
+      <c r="JQ9" s="9"/>
+      <c r="JR9" s="9"/>
+      <c r="JS9" s="9"/>
+      <c r="JT9" s="9"/>
+      <c r="JU9" s="9"/>
+      <c r="JV9" s="9"/>
+      <c r="JW9" s="9"/>
+      <c r="JX9" s="9"/>
+      <c r="JY9" s="9"/>
+      <c r="JZ9" s="9"/>
+      <c r="KA9" s="9"/>
+      <c r="KB9" s="9"/>
+      <c r="KC9" s="9"/>
+      <c r="KD9" s="9"/>
+      <c r="KE9" s="9"/>
+      <c r="KF9" s="9"/>
+      <c r="KG9" s="9"/>
+      <c r="KH9" s="9"/>
+      <c r="KI9" s="9"/>
+      <c r="KJ9" s="9"/>
+      <c r="KK9" s="9"/>
+      <c r="KL9" s="9"/>
+      <c r="KM9" s="9"/>
+      <c r="KN9" s="9"/>
+      <c r="KO9" s="9"/>
+      <c r="KP9" s="9"/>
+      <c r="KQ9" s="9"/>
+      <c r="KR9" s="9"/>
+      <c r="KS9" s="9"/>
+      <c r="KT9" s="9"/>
+      <c r="KU9" s="9"/>
+      <c r="KV9" s="9"/>
+      <c r="KW9" s="9"/>
+      <c r="KX9" s="9"/>
+      <c r="KY9" s="9"/>
+      <c r="KZ9" s="9"/>
+      <c r="LA9" s="9"/>
+      <c r="LB9" s="9"/>
+      <c r="LC9" s="9"/>
+      <c r="LD9" s="9"/>
+      <c r="LE9" s="9"/>
+      <c r="LF9" s="9"/>
+      <c r="LG9" s="9"/>
+      <c r="LH9" s="9"/>
+      <c r="LI9" s="9"/>
+      <c r="LJ9" s="9"/>
+      <c r="LK9" s="9"/>
+      <c r="LL9" s="9"/>
+      <c r="LM9" s="9"/>
+      <c r="LN9" s="9"/>
+      <c r="LO9" s="9"/>
+      <c r="LP9" s="9"/>
+      <c r="LQ9" s="9"/>
+      <c r="LR9" s="9"/>
+      <c r="LS9" s="9"/>
+      <c r="LT9" s="9"/>
+      <c r="LU9" s="9"/>
+      <c r="LV9" s="9"/>
+      <c r="LW9" s="9"/>
+      <c r="LX9" s="9"/>
+      <c r="LY9" s="9"/>
+      <c r="LZ9" s="9"/>
+      <c r="MA9" s="9"/>
+      <c r="MB9" s="9"/>
+      <c r="MC9" s="9"/>
+      <c r="MD9" s="9"/>
+      <c r="ME9" s="9"/>
+      <c r="MF9" s="9"/>
+      <c r="MG9" s="9"/>
+      <c r="MH9" s="9"/>
+      <c r="MI9" s="9"/>
+      <c r="MJ9" s="9"/>
+      <c r="MK9" s="9"/>
+      <c r="ML9" s="9"/>
+      <c r="MM9" s="9"/>
+      <c r="MN9" s="9"/>
+      <c r="MO9" s="9"/>
+      <c r="MP9" s="9"/>
+      <c r="MQ9" s="9"/>
+      <c r="MR9" s="9"/>
+      <c r="MS9" s="9"/>
+      <c r="MT9" s="9"/>
+      <c r="MU9" s="9"/>
+      <c r="MV9" s="9"/>
+      <c r="MW9" s="9"/>
+      <c r="MX9" s="9"/>
+      <c r="MY9" s="9"/>
+      <c r="MZ9" s="9"/>
+      <c r="NA9" s="9"/>
+      <c r="NB9" s="9"/>
+      <c r="NC9" s="9"/>
+      <c r="ND9" s="9"/>
+      <c r="NE9" s="9"/>
+      <c r="NF9" s="9"/>
+      <c r="NG9" s="9"/>
+      <c r="NH9" s="9"/>
+      <c r="NI9" s="9"/>
+      <c r="NJ9" s="9"/>
+      <c r="NK9" s="9"/>
+      <c r="NL9" s="9"/>
+      <c r="NM9" s="9"/>
+      <c r="NN9" s="9"/>
+      <c r="NO9" s="9"/>
+      <c r="NP9" s="9"/>
+      <c r="NQ9" s="9"/>
+      <c r="NR9" s="9"/>
+      <c r="NS9" s="9"/>
+      <c r="NT9" s="9"/>
+      <c r="NU9" s="9"/>
+      <c r="NV9" s="9"/>
+      <c r="NW9" s="9"/>
+      <c r="NX9" s="9"/>
+      <c r="NY9" s="9"/>
+      <c r="NZ9" s="9"/>
+      <c r="OA9" s="9"/>
+      <c r="OB9" s="9"/>
+      <c r="OC9" s="9"/>
+      <c r="OD9" s="9"/>
+      <c r="OE9" s="9"/>
+      <c r="OF9" s="9"/>
+      <c r="OG9" s="9"/>
+      <c r="OH9" s="9"/>
+      <c r="OI9" s="9"/>
+      <c r="OJ9" s="9"/>
+      <c r="OK9" s="9"/>
+      <c r="OL9" s="9"/>
+      <c r="OM9" s="9"/>
+      <c r="ON9" s="9"/>
+      <c r="OO9" s="9"/>
+      <c r="OP9" s="9"/>
+      <c r="OQ9" s="9"/>
+      <c r="OR9" s="9"/>
+      <c r="OS9" s="9"/>
+      <c r="OT9" s="9"/>
+      <c r="OU9" s="9"/>
+      <c r="OV9" s="9"/>
+      <c r="OW9" s="9"/>
+      <c r="OX9" s="9"/>
+      <c r="OY9" s="9"/>
+      <c r="OZ9" s="9"/>
+      <c r="PA9" s="9"/>
+      <c r="PB9" s="9"/>
+      <c r="PC9" s="9"/>
+      <c r="PD9" s="9"/>
+      <c r="PE9" s="9"/>
+      <c r="PF9" s="9"/>
+      <c r="PG9" s="9"/>
+      <c r="PH9" s="9"/>
+      <c r="PI9" s="9"/>
+      <c r="PJ9" s="9"/>
+      <c r="PK9" s="9"/>
+      <c r="PL9" s="9"/>
+      <c r="PM9" s="9"/>
+      <c r="PN9" s="9"/>
+      <c r="PO9" s="9"/>
+      <c r="PP9" s="9"/>
+      <c r="PQ9" s="9"/>
+      <c r="PR9" s="9"/>
+      <c r="PS9" s="9"/>
+      <c r="PT9" s="9"/>
+      <c r="PU9" s="9"/>
+      <c r="PV9" s="9"/>
+      <c r="PW9" s="9"/>
+      <c r="PX9" s="9"/>
+      <c r="PY9" s="9"/>
+      <c r="PZ9" s="9"/>
+      <c r="QA9" s="9"/>
+      <c r="QB9" s="9"/>
+      <c r="QC9" s="9"/>
+      <c r="QD9" s="9"/>
+      <c r="QE9" s="9"/>
+      <c r="QF9" s="9"/>
+      <c r="QG9" s="9"/>
+      <c r="QH9" s="9"/>
+      <c r="QI9" s="9"/>
+      <c r="QJ9" s="9"/>
+      <c r="QK9" s="9"/>
+      <c r="QL9" s="9"/>
+      <c r="QM9" s="9"/>
+      <c r="QN9" s="9"/>
+      <c r="QO9" s="9"/>
+      <c r="QP9" s="9"/>
+      <c r="QQ9" s="9"/>
+      <c r="QR9" s="9"/>
+      <c r="QS9" s="9"/>
+      <c r="QT9" s="9"/>
+      <c r="QU9" s="9"/>
+      <c r="QV9" s="9"/>
+      <c r="QW9" s="9"/>
+      <c r="QX9" s="9"/>
+      <c r="QY9" s="9"/>
+      <c r="QZ9" s="9"/>
+      <c r="RA9" s="9"/>
+      <c r="RB9" s="9"/>
+      <c r="RC9" s="9"/>
+      <c r="RD9" s="9"/>
+      <c r="RE9" s="9"/>
+      <c r="RF9" s="9"/>
+      <c r="RG9" s="9"/>
+      <c r="RH9" s="9"/>
+      <c r="RI9" s="9"/>
+      <c r="RJ9" s="9"/>
+      <c r="RK9" s="9"/>
+      <c r="RL9" s="9"/>
+      <c r="RM9" s="9"/>
+      <c r="RN9" s="9"/>
+      <c r="RO9" s="9"/>
+      <c r="RP9" s="9"/>
+      <c r="RQ9" s="9"/>
+      <c r="RR9" s="9"/>
+      <c r="RS9" s="9"/>
+      <c r="RT9" s="9"/>
+      <c r="RU9" s="9"/>
+      <c r="RV9" s="9"/>
+      <c r="RW9" s="9"/>
+      <c r="RX9" s="9"/>
+      <c r="RY9" s="9"/>
+      <c r="RZ9" s="9"/>
+      <c r="SA9" s="9"/>
+      <c r="SB9" s="9"/>
+      <c r="SC9" s="9"/>
+      <c r="SD9" s="9"/>
+      <c r="SE9" s="9"/>
+      <c r="SF9" s="9"/>
+      <c r="SG9" s="9"/>
+      <c r="SH9" s="9"/>
+      <c r="SI9" s="9"/>
+      <c r="SJ9" s="9"/>
+      <c r="SK9" s="9"/>
+      <c r="SL9" s="9"/>
+      <c r="SM9" s="9"/>
+      <c r="SN9" s="9"/>
+      <c r="SO9" s="9"/>
+      <c r="SP9" s="9"/>
+      <c r="SQ9" s="9"/>
+      <c r="SR9" s="9"/>
+      <c r="SS9" s="9"/>
+      <c r="ST9" s="9"/>
+      <c r="SU9" s="9"/>
+      <c r="SV9" s="9"/>
+      <c r="SW9" s="9"/>
+      <c r="SX9" s="9"/>
+      <c r="SY9" s="9"/>
+      <c r="SZ9" s="9"/>
+      <c r="TA9" s="9"/>
+      <c r="TB9" s="9"/>
+      <c r="TC9" s="9"/>
+      <c r="TD9" s="9"/>
+      <c r="TE9" s="9"/>
+      <c r="TF9" s="9"/>
+      <c r="TG9" s="9"/>
+      <c r="TH9" s="9"/>
+      <c r="TI9" s="9"/>
+      <c r="TJ9" s="9"/>
+      <c r="TK9" s="9"/>
+      <c r="TL9" s="9"/>
+      <c r="TM9" s="9"/>
+      <c r="TN9" s="9"/>
+      <c r="TO9" s="9"/>
+      <c r="TP9" s="9"/>
+      <c r="TQ9" s="9"/>
+      <c r="TR9" s="9"/>
+      <c r="TS9" s="9"/>
+      <c r="TT9" s="9"/>
+      <c r="TU9" s="9"/>
+      <c r="TV9" s="9"/>
+      <c r="TW9" s="9"/>
+      <c r="TX9" s="9"/>
+      <c r="TY9" s="9"/>
+      <c r="TZ9" s="9"/>
+      <c r="UA9" s="9"/>
+      <c r="UB9" s="9"/>
+      <c r="UC9" s="9"/>
+      <c r="UD9" s="9"/>
+      <c r="UE9" s="9"/>
+      <c r="UF9" s="9"/>
+      <c r="UG9" s="9"/>
+      <c r="UH9" s="9"/>
+      <c r="UI9" s="9"/>
+      <c r="UJ9" s="9"/>
+      <c r="UK9" s="9"/>
+      <c r="UL9" s="9"/>
+      <c r="UM9" s="9"/>
+      <c r="UN9" s="9"/>
+      <c r="UO9" s="9"/>
+      <c r="UP9" s="9"/>
+      <c r="UQ9" s="9"/>
+      <c r="UR9" s="9"/>
+      <c r="US9" s="9"/>
+      <c r="UT9" s="9"/>
+      <c r="UU9" s="9"/>
+      <c r="UV9" s="9"/>
+      <c r="UW9" s="9"/>
+      <c r="UX9" s="9"/>
+      <c r="UY9" s="9"/>
+      <c r="UZ9" s="9"/>
+      <c r="VA9" s="9"/>
+      <c r="VB9" s="9"/>
+      <c r="VC9" s="9"/>
+      <c r="VD9" s="9"/>
+      <c r="VE9" s="9"/>
+      <c r="VF9" s="9"/>
+      <c r="VG9" s="9"/>
+      <c r="VH9" s="9"/>
+      <c r="VI9" s="9"/>
+      <c r="VJ9" s="9"/>
+      <c r="VK9" s="9"/>
+      <c r="VL9" s="9"/>
+      <c r="VM9" s="9"/>
+      <c r="VN9" s="9"/>
+      <c r="VO9" s="9"/>
+      <c r="VP9" s="9"/>
+      <c r="VQ9" s="9"/>
+      <c r="VR9" s="9"/>
+      <c r="VS9" s="9"/>
+      <c r="VT9" s="9"/>
+      <c r="VU9" s="9"/>
+      <c r="VV9" s="9"/>
+      <c r="VW9" s="9"/>
+      <c r="VX9" s="9"/>
+      <c r="VY9" s="9"/>
+      <c r="VZ9" s="9"/>
+      <c r="WA9" s="9"/>
+      <c r="WB9" s="9"/>
+      <c r="WC9" s="9"/>
+      <c r="WD9" s="9"/>
+      <c r="WE9" s="9"/>
+      <c r="WF9" s="9"/>
+      <c r="WG9" s="9"/>
+      <c r="WH9" s="9"/>
+      <c r="WI9" s="9"/>
+      <c r="WJ9" s="9"/>
+      <c r="WK9" s="9"/>
+      <c r="WL9" s="9"/>
+      <c r="WM9" s="9"/>
+      <c r="WN9" s="9"/>
+      <c r="WO9" s="9"/>
+      <c r="WP9" s="9"/>
+      <c r="WQ9" s="9"/>
+      <c r="WR9" s="9"/>
+      <c r="WS9" s="9"/>
+      <c r="WT9" s="9"/>
+      <c r="WU9" s="9"/>
+      <c r="WV9" s="9"/>
+      <c r="WW9" s="9"/>
+      <c r="WX9" s="9"/>
+      <c r="WY9" s="9"/>
+      <c r="WZ9" s="9"/>
+      <c r="XA9" s="9"/>
+      <c r="XB9" s="9"/>
+      <c r="XC9" s="9"/>
+      <c r="XD9" s="9"/>
+      <c r="XE9" s="9"/>
+      <c r="XF9" s="9"/>
+      <c r="XG9" s="9"/>
+      <c r="XH9" s="9"/>
+      <c r="XI9" s="9"/>
+      <c r="XJ9" s="9"/>
+      <c r="XK9" s="9"/>
+      <c r="XL9" s="9"/>
+      <c r="XM9" s="9"/>
+      <c r="XN9" s="9"/>
+      <c r="XO9" s="9"/>
+      <c r="XP9" s="9"/>
+      <c r="XQ9" s="9"/>
+      <c r="XR9" s="9"/>
+      <c r="XS9" s="9"/>
+      <c r="XT9" s="9"/>
+      <c r="XU9" s="9"/>
+      <c r="XV9" s="9"/>
+      <c r="XW9" s="9"/>
+      <c r="XX9" s="9"/>
+      <c r="XY9" s="9"/>
+      <c r="XZ9" s="9"/>
+      <c r="YA9" s="9"/>
+      <c r="YB9" s="9"/>
+      <c r="YC9" s="9"/>
+      <c r="YD9" s="9"/>
+      <c r="YE9" s="9"/>
+      <c r="YF9" s="9"/>
+      <c r="YG9" s="9"/>
+      <c r="YH9" s="9"/>
+      <c r="YI9" s="9"/>
+      <c r="YJ9" s="9"/>
+      <c r="YK9" s="9"/>
+      <c r="YL9" s="9"/>
+      <c r="YM9" s="9"/>
+      <c r="YN9" s="9"/>
+      <c r="YO9" s="9"/>
+      <c r="YP9" s="9"/>
+      <c r="YQ9" s="9"/>
+      <c r="YR9" s="9"/>
+      <c r="YS9" s="9"/>
+      <c r="YT9" s="9"/>
+      <c r="YU9" s="9"/>
+      <c r="YV9" s="9"/>
+      <c r="YW9" s="9"/>
+      <c r="YX9" s="9"/>
+      <c r="YY9" s="9"/>
+      <c r="YZ9" s="9"/>
+      <c r="ZA9" s="9"/>
+      <c r="ZB9" s="9"/>
+      <c r="ZC9" s="9"/>
+      <c r="ZD9" s="9"/>
+      <c r="ZE9" s="9"/>
+      <c r="ZF9" s="9"/>
+      <c r="ZG9" s="9"/>
+      <c r="ZH9" s="9"/>
+      <c r="ZI9" s="9"/>
+      <c r="ZJ9" s="9"/>
+      <c r="ZK9" s="9"/>
+      <c r="ZL9" s="9"/>
+      <c r="ZM9" s="9"/>
+      <c r="ZN9" s="9"/>
+      <c r="ZO9" s="9"/>
+      <c r="ZP9" s="9"/>
+      <c r="ZQ9" s="9"/>
+      <c r="ZR9" s="9"/>
+      <c r="ZS9" s="9"/>
+      <c r="ZT9" s="9"/>
+      <c r="ZU9" s="9"/>
+      <c r="ZV9" s="9"/>
+      <c r="ZW9" s="9"/>
+      <c r="ZX9" s="9"/>
+      <c r="ZY9" s="9"/>
+      <c r="ZZ9" s="9"/>
+      <c r="AAA9" s="9"/>
+      <c r="AAB9" s="9"/>
+      <c r="AAC9" s="9"/>
+      <c r="AAD9" s="9"/>
+      <c r="AAE9" s="9"/>
+      <c r="AAF9" s="9"/>
+      <c r="AAG9" s="9"/>
+      <c r="AAH9" s="9"/>
+      <c r="AAI9" s="9"/>
+      <c r="AAJ9" s="9"/>
+      <c r="AAK9" s="9"/>
+      <c r="AAL9" s="9"/>
+      <c r="AAM9" s="9"/>
+      <c r="AAN9" s="9"/>
+      <c r="AAO9" s="9"/>
+      <c r="AAP9" s="9"/>
+      <c r="AAQ9" s="9"/>
+      <c r="AAR9" s="9"/>
+      <c r="AAS9" s="9"/>
+      <c r="AAT9" s="9"/>
+      <c r="AAU9" s="9"/>
+      <c r="AAV9" s="9"/>
+      <c r="AAW9" s="9"/>
+      <c r="AAX9" s="9"/>
+      <c r="AAY9" s="9"/>
+      <c r="AAZ9" s="9"/>
+      <c r="ABA9" s="9"/>
+      <c r="ABB9" s="9"/>
+      <c r="ABC9" s="9"/>
+      <c r="ABD9" s="9"/>
+      <c r="ABE9" s="9"/>
+      <c r="ABF9" s="9"/>
+      <c r="ABG9" s="9"/>
+      <c r="ABH9" s="9"/>
+      <c r="ABI9" s="9"/>
+      <c r="ABJ9" s="9"/>
+      <c r="ABK9" s="9"/>
+      <c r="ABL9" s="9"/>
+      <c r="ABM9" s="9"/>
+      <c r="ABN9" s="9"/>
+      <c r="ABO9" s="9"/>
+      <c r="ABP9" s="9"/>
+      <c r="ABQ9" s="9"/>
+      <c r="ABR9" s="9"/>
+      <c r="ABS9" s="9"/>
+      <c r="ABT9" s="9"/>
+      <c r="ABU9" s="9"/>
+      <c r="ABV9" s="9"/>
+      <c r="ABW9" s="9"/>
+      <c r="ABX9" s="9"/>
+      <c r="ABY9" s="9"/>
+      <c r="ABZ9" s="9"/>
+      <c r="ACA9" s="9"/>
+      <c r="ACB9" s="9"/>
+      <c r="ACC9" s="9"/>
+      <c r="ACD9" s="9"/>
+      <c r="ACE9" s="9"/>
+      <c r="ACF9" s="9"/>
+      <c r="ACG9" s="9"/>
+      <c r="ACH9" s="9"/>
+      <c r="ACI9" s="9"/>
+      <c r="ACJ9" s="9"/>
+      <c r="ACK9" s="9"/>
+      <c r="ACL9" s="9"/>
+      <c r="ACM9" s="9"/>
+      <c r="ACN9" s="9"/>
+      <c r="ACO9" s="9"/>
+      <c r="ACP9" s="9"/>
+      <c r="ACQ9" s="9"/>
+      <c r="ACR9" s="9"/>
+      <c r="ACS9" s="9"/>
+      <c r="ACT9" s="9"/>
+      <c r="ACU9" s="9"/>
+      <c r="ACV9" s="9"/>
+      <c r="ACW9" s="9"/>
+      <c r="ACX9" s="9"/>
+      <c r="ACY9" s="9"/>
+      <c r="ACZ9" s="9"/>
+      <c r="ADA9" s="9"/>
+      <c r="ADB9" s="9"/>
+      <c r="ADC9" s="9"/>
+      <c r="ADD9" s="9"/>
+      <c r="ADE9" s="9"/>
+      <c r="ADF9" s="9"/>
+      <c r="ADG9" s="9"/>
+      <c r="ADH9" s="9"/>
+      <c r="ADI9" s="9"/>
+      <c r="ADJ9" s="9"/>
+      <c r="ADK9" s="9"/>
+      <c r="ADL9" s="9"/>
+      <c r="ADM9" s="9"/>
+      <c r="ADN9" s="9"/>
+      <c r="ADO9" s="9"/>
+      <c r="ADP9" s="9"/>
+      <c r="ADQ9" s="9"/>
+      <c r="ADR9" s="9"/>
+      <c r="ADS9" s="9"/>
+      <c r="ADT9" s="9"/>
+      <c r="ADU9" s="9"/>
+      <c r="ADV9" s="9"/>
+      <c r="ADW9" s="9"/>
+      <c r="ADX9" s="9"/>
+      <c r="ADY9" s="9"/>
+      <c r="ADZ9" s="9"/>
+      <c r="AEA9" s="9"/>
+      <c r="AEB9" s="9"/>
+      <c r="AEC9" s="9"/>
+      <c r="AED9" s="9"/>
+      <c r="AEE9" s="9"/>
+      <c r="AEF9" s="9"/>
+      <c r="AEG9" s="9"/>
+      <c r="AEH9" s="9"/>
+      <c r="AEI9" s="9"/>
+      <c r="AEJ9" s="9"/>
+      <c r="AEK9" s="9"/>
+      <c r="AEL9" s="9"/>
+      <c r="AEM9" s="9"/>
+      <c r="AEN9" s="9"/>
+      <c r="AEO9" s="9"/>
+      <c r="AEP9" s="9"/>
+      <c r="AEQ9" s="9"/>
+      <c r="AER9" s="9"/>
+      <c r="AES9" s="9"/>
+      <c r="AET9" s="9"/>
+      <c r="AEU9" s="9"/>
+      <c r="AEV9" s="9"/>
+      <c r="AEW9" s="9"/>
+      <c r="AEX9" s="9"/>
+      <c r="AEY9" s="9"/>
+      <c r="AEZ9" s="9"/>
+      <c r="AFA9" s="9"/>
+      <c r="AFB9" s="9"/>
+      <c r="AFC9" s="9"/>
+      <c r="AFD9" s="9"/>
+      <c r="AFE9" s="9"/>
+      <c r="AFF9" s="9"/>
+      <c r="AFG9" s="9"/>
+      <c r="AFH9" s="9"/>
+      <c r="AFI9" s="9"/>
+      <c r="AFJ9" s="9"/>
+      <c r="AFK9" s="9"/>
+      <c r="AFL9" s="9"/>
+      <c r="AFM9" s="9"/>
+      <c r="AFN9" s="9"/>
+      <c r="AFO9" s="9"/>
+      <c r="AFP9" s="9"/>
+      <c r="AFQ9" s="9"/>
+      <c r="AFR9" s="9"/>
+      <c r="AFS9" s="9"/>
+      <c r="AFT9" s="9"/>
+      <c r="AFU9" s="9"/>
+      <c r="AFV9" s="9"/>
+      <c r="AFW9" s="9"/>
+      <c r="AFX9" s="9"/>
+      <c r="AFY9" s="9"/>
+      <c r="AFZ9" s="9"/>
+      <c r="AGA9" s="9"/>
+      <c r="AGB9" s="9"/>
+      <c r="AGC9" s="9"/>
+      <c r="AGD9" s="9"/>
+      <c r="AGE9" s="9"/>
+      <c r="AGF9" s="9"/>
+      <c r="AGG9" s="9"/>
+      <c r="AGH9" s="9"/>
+      <c r="AGI9" s="9"/>
+      <c r="AGJ9" s="9"/>
+      <c r="AGK9" s="9"/>
+      <c r="AGL9" s="9"/>
+      <c r="AGM9" s="9"/>
+      <c r="AGN9" s="9"/>
+      <c r="AGO9" s="9"/>
+      <c r="AGP9" s="9"/>
+      <c r="AGQ9" s="9"/>
+      <c r="AGR9" s="9"/>
+      <c r="AGS9" s="9"/>
+      <c r="AGT9" s="9"/>
+      <c r="AGU9" s="9"/>
+      <c r="AGV9" s="9"/>
+      <c r="AGW9" s="9"/>
+      <c r="AGX9" s="9"/>
+      <c r="AGY9" s="9"/>
+      <c r="AGZ9" s="9"/>
+      <c r="AHA9" s="9"/>
+      <c r="AHB9" s="9"/>
+      <c r="AHC9" s="9"/>
+      <c r="AHD9" s="9"/>
+      <c r="AHE9" s="9"/>
+      <c r="AHF9" s="9"/>
+      <c r="AHG9" s="9"/>
+      <c r="AHH9" s="9"/>
+      <c r="AHI9" s="9"/>
+      <c r="AHJ9" s="9"/>
+      <c r="AHK9" s="9"/>
+      <c r="AHL9" s="9"/>
+      <c r="AHM9" s="9"/>
+      <c r="AHN9" s="9"/>
+      <c r="AHO9" s="9"/>
+      <c r="AHP9" s="9"/>
+      <c r="AHQ9" s="9"/>
+      <c r="AHR9" s="9"/>
+      <c r="AHS9" s="9"/>
+      <c r="AHT9" s="9"/>
+      <c r="AHU9" s="9"/>
+      <c r="AHV9" s="9"/>
+      <c r="AHW9" s="9"/>
+      <c r="AHX9" s="9"/>
+      <c r="AHY9" s="9"/>
+      <c r="AHZ9" s="9"/>
+      <c r="AIA9" s="9"/>
+      <c r="AIB9" s="9"/>
+      <c r="AIC9" s="9"/>
+      <c r="AID9" s="9"/>
+      <c r="AIE9" s="9"/>
+      <c r="AIF9" s="9"/>
+      <c r="AIG9" s="9"/>
+      <c r="AIH9" s="9"/>
+      <c r="AII9" s="9"/>
+      <c r="AIJ9" s="9"/>
+      <c r="AIK9" s="9"/>
+      <c r="AIL9" s="9"/>
+      <c r="AIM9" s="9"/>
+      <c r="AIN9" s="9"/>
+      <c r="AIO9" s="9"/>
+      <c r="AIP9" s="9"/>
+      <c r="AIQ9" s="9"/>
+      <c r="AIR9" s="9"/>
+      <c r="AIS9" s="9"/>
+      <c r="AIT9" s="9"/>
+      <c r="AIU9" s="9"/>
+      <c r="AIV9" s="9"/>
+      <c r="AIW9" s="9"/>
+      <c r="AIX9" s="9"/>
+      <c r="AIY9" s="9"/>
+      <c r="AIZ9" s="9"/>
+      <c r="AJA9" s="9"/>
+      <c r="AJB9" s="9"/>
+      <c r="AJC9" s="9"/>
+      <c r="AJD9" s="9"/>
+      <c r="AJE9" s="9"/>
+      <c r="AJF9" s="9"/>
+      <c r="AJG9" s="9"/>
+      <c r="AJH9" s="9"/>
+      <c r="AJI9" s="9"/>
+      <c r="AJJ9" s="9"/>
+      <c r="AJK9" s="9"/>
+      <c r="AJL9" s="9"/>
+      <c r="AJM9" s="9"/>
+      <c r="AJN9" s="9"/>
+      <c r="AJO9" s="9"/>
+      <c r="AJP9" s="9"/>
+      <c r="AJQ9" s="9"/>
+      <c r="AJR9" s="9"/>
+      <c r="AJS9" s="9"/>
+      <c r="AJT9" s="9"/>
+      <c r="AJU9" s="9"/>
+      <c r="AJV9" s="9"/>
+      <c r="AJW9" s="9"/>
+      <c r="AJX9" s="9"/>
+      <c r="AJY9" s="9"/>
+      <c r="AJZ9" s="9"/>
+      <c r="AKA9" s="9"/>
+      <c r="AKB9" s="9"/>
+      <c r="AKC9" s="9"/>
+      <c r="AKD9" s="9"/>
+      <c r="AKE9" s="9"/>
+      <c r="AKF9" s="9"/>
+      <c r="AKG9" s="9"/>
+      <c r="AKH9" s="9"/>
+      <c r="AKI9" s="9"/>
+      <c r="AKJ9" s="9"/>
+      <c r="AKK9" s="9"/>
+      <c r="AKL9" s="9"/>
+      <c r="AKM9" s="9"/>
+      <c r="AKN9" s="9"/>
+      <c r="AKO9" s="9"/>
+      <c r="AKP9" s="9"/>
+      <c r="AKQ9" s="9"/>
+      <c r="AKR9" s="9"/>
+      <c r="AKS9" s="9"/>
+      <c r="AKT9" s="9"/>
+      <c r="AKU9" s="9"/>
+      <c r="AKV9" s="9"/>
+      <c r="AKW9" s="9"/>
+      <c r="AKX9" s="9"/>
+      <c r="AKY9" s="9"/>
+      <c r="AKZ9" s="9"/>
+      <c r="ALA9" s="9"/>
+      <c r="ALB9" s="9"/>
+      <c r="ALC9" s="9"/>
+      <c r="ALD9" s="9"/>
+      <c r="ALE9" s="9"/>
+      <c r="ALF9" s="9"/>
+      <c r="ALG9" s="9"/>
+      <c r="ALH9" s="9"/>
+      <c r="ALI9" s="9"/>
+      <c r="ALJ9" s="9"/>
+      <c r="ALK9" s="9"/>
+      <c r="ALL9" s="9"/>
+      <c r="ALM9" s="9"/>
+      <c r="ALN9" s="9"/>
+      <c r="ALO9" s="9"/>
+      <c r="ALP9" s="9"/>
+      <c r="ALQ9" s="9"/>
+      <c r="ALR9" s="9"/>
+      <c r="ALS9" s="9"/>
+      <c r="ALT9" s="9"/>
+      <c r="ALU9" s="9"/>
+      <c r="ALV9" s="9"/>
+      <c r="ALW9" s="9"/>
+      <c r="ALX9" s="9"/>
+      <c r="ALY9" s="9"/>
+      <c r="ALZ9" s="9"/>
+      <c r="AMA9" s="9"/>
+      <c r="AMB9" s="9"/>
+      <c r="AMC9" s="9"/>
+      <c r="AMD9" s="9"/>
+      <c r="AME9" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.552380952381" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.7809523809524" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.552380952381" style="5" customWidth="1"/>
+    <col min="4" max="4" width="57.1142857142857" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="1" spans="4:4">
+      <c r="D34" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://localhost:5000/api/inbound_payment.json" tooltip="http://localhost:5000/api/inbound_payment.json"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://localhost:5000/api/outbound_payment.xml" tooltip="http://localhost:5000/api/outbound_payment.xml"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://localhost:5000/api/positions2" tooltip="http://localhost:5000/api/positions2"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.json"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang2.free.beeceptor.com/api/outbound_payment.xml"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://vhuang2.free.beeceptor.com/api/positions" tooltip="https://vhuang2.free.beeceptor.com/api/positions"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.json" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.json"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml" tooltip="https://vhuang1.free.beeceptor.com/api/outbound_payment.xml"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://vhuang1.free.beeceptor.com/api/positions" tooltip="https://vhuang1.free.beeceptor.com/api/positions"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.7809523809524" style="5" customWidth="1"/>
+    <col min="2" max="2" width="118.780952380952" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.14285714285714" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="105" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="60" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="1" spans="4:4">
+      <c r="D34" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="14.7809523809524" style="5" customWidth="1"/>
+    <col min="3" max="3" width="118.780952380952" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="269" customHeight="1" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="269" customHeight="1" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="1" spans="4:4">
+      <c r="D34" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="127">
   <si>
     <t>Case ID</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>https://vhuang1.free.beeceptor.com/api/positions</t>
-  </si>
-  <si>
-    <t>WebEnvironments</t>
   </si>
   <si>
     <t>HeaderName</t>
@@ -350,6 +347,9 @@
 accept: application/json
 Authorization: "{{uuid4}}"
 user_agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
+  </si>
+  <si>
+    <t>WebEnvironments</t>
   </si>
   <si>
     <t>TemplateName</t>
@@ -1660,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1770,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" ht="345" spans="1:2">
@@ -1791,7 +1791,7 @@
     </row>
     <row r="34" s="5" customFormat="1" spans="4:4">
       <c r="D34" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2404,8 +2404,8 @@
   <sheetPr/>
   <dimension ref="A1:AME9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -5735,10 +5735,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5888,11 +5888,6 @@
       </c>
       <c r="D10" s="6" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="34" s="5" customFormat="1" spans="4:4">
-      <c r="D34" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5930,10 +5925,10 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" ht="105" spans="1:2">
@@ -5941,7 +5936,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="60" spans="1:2">
@@ -5949,12 +5944,12 @@
         <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="4:4">
       <c r="D34" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5987,7 +5982,7 @@
         <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" ht="269" customHeight="1" spans="1:3">
@@ -6014,7 +6009,7 @@
     </row>
     <row r="34" s="5" customFormat="1" spans="4:4">
       <c r="D34" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
   <si>
     <t>Content-Type: application/json
 accept: application/json
-Authorization: token="{{uuid4}}"
+Authorization: "token={{uuid4}}"
 timestamp: "{{timestamp}}"
 timestamp2: "{{formated_timestamp}}"
 bic: "{{bic}}"
@@ -543,9 +543,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -585,23 +585,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,6 +617,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,8 +637,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,21 +658,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,26 +683,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,16 +714,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,79 +749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +767,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +827,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +863,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,31 +893,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,19 +923,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,15 +958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -982,11 +973,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,21 +1013,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1041,6 +1023,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,7 +1058,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1069,131 +1069,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1216,8 +1216,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,9 +1228,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1660,18 +1657,18 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" style="17" customWidth="1"/>
-    <col min="2" max="2" width="33" style="17" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9" style="17"/>
-    <col min="5" max="5" width="5.57142857142857" style="17" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="17"/>
+    <col min="1" max="1" width="8.28571428571429" style="16" customWidth="1"/>
+    <col min="2" max="2" width="33" style="16" customWidth="1"/>
+    <col min="3" max="3" width="33.7238095238095" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="5.57142857142857" style="16" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1692,53 +1689,53 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1931,12 +1928,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="17" customWidth="1"/>
-    <col min="5" max="5" width="34" style="17" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="17"/>
+    <col min="1" max="1" width="8" style="16" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.7238095238095" style="16" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" style="16" customWidth="1"/>
+    <col min="5" max="5" width="34" style="16" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1957,53 +1954,53 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2025,13 +2022,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.7238095238095" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.2761904761905" style="17" customWidth="1"/>
-    <col min="4" max="4" width="32" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="18" customWidth="1"/>
-    <col min="7" max="1024" width="9" style="17"/>
+    <col min="1" max="1" width="11.7238095238095" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.2761904761905" style="16" customWidth="1"/>
+    <col min="4" max="4" width="32" style="16" customWidth="1"/>
+    <col min="5" max="5" width="17" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" style="17" customWidth="1"/>
+    <col min="7" max="1024" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
@@ -2055,104 +2052,104 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:6">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2198,30 +2195,30 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2263,128 +2260,128 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2424,8 +2421,8 @@
     <col min="13" max="13" width="28" style="9" customWidth="1"/>
     <col min="14" max="14" width="26.8761904761905" style="9" customWidth="1"/>
     <col min="15" max="1019" width="9.42857142857143" style="9"/>
-    <col min="1020" max="1020" width="9.42857142857143" style="8"/>
-    <col min="1021" max="16384" width="9.41904761904762" style="8"/>
+    <col min="1020" max="1020" width="9.42857142857143" style="5"/>
+    <col min="1021" max="16384" width="9.41904761904762" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
@@ -2662,7 +2659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:1019">
+    <row r="7" s="5" customFormat="1" spans="1:1019">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -3683,7 +3680,7 @@
       <c r="AMD7" s="9"/>
       <c r="AME7" s="9"/>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:1019">
+    <row r="8" s="5" customFormat="1" spans="1:1019">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -4704,7 +4701,7 @@
       <c r="AMD8" s="9"/>
       <c r="AME8" s="9"/>
     </row>
-    <row r="9" s="8" customFormat="1" customHeight="1" spans="1:1019">
+    <row r="9" s="5" customFormat="1" customHeight="1" spans="1:1019">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5912,8 +5909,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5935,7 +5932,7 @@
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5943,7 +5940,7 @@
       <c r="A3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>101</v>
       </c>
     </row>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="125">
   <si>
     <t>Case ID</t>
   </si>
@@ -344,9 +344,6 @@
 accept: application/json
 Authorization: "{{uuid4}}"
 user_agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
-  </si>
-  <si>
-    <t>WebEnvironments</t>
   </si>
   <si>
     <t>TemplateName</t>
@@ -534,10 +531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -572,13 +569,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -590,11 +580,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,30 +594,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,14 +626,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -675,14 +635,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -703,9 +655,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,13 +737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +755,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,103 +827,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,19 +857,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,13 +905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,20 +961,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,21 +986,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1038,6 +1017,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1049,138 +1046,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1740,13 +1737,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A2:$XFD3"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.552380952381" style="6" customWidth="1"/>
     <col min="2" max="2" width="118.780952380952" style="6" customWidth="1"/>
@@ -1766,7 +1763,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="201" customHeight="1" spans="1:2">
@@ -1774,12 +1771,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" s="6" customFormat="1" spans="4:4">
-      <c r="D34" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1816,28 +1808,28 @@
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="90" spans="1:10">
@@ -1845,31 +1837,31 @@
         <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
@@ -1877,28 +1869,28 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5729,7 +5721,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5901,13 +5893,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.7809523809524" style="6" customWidth="1"/>
     <col min="2" max="2" width="118.780952380952" style="6" customWidth="1"/>
@@ -5936,11 +5928,6 @@
       </c>
       <c r="B3" s="8" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="34" s="6" customFormat="1" spans="4:4">
-      <c r="D34" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5952,13 +5939,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A2:$XFD3"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="14.7809523809524" style="6" customWidth="1"/>
     <col min="3" max="3" width="118.780952380952" style="6" customWidth="1"/>
@@ -5967,10 +5954,10 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>98</v>
@@ -5981,10 +5968,10 @@
         <v>66</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="201" customHeight="1" spans="1:3">
@@ -5992,15 +5979,10 @@
         <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" s="6" customFormat="1" spans="4:4">
-      <c r="D34" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="125">
   <si>
     <t>Case ID</t>
   </si>
@@ -531,10 +531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -568,20 +568,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,11 +587,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,26 +610,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,13 +644,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,8 +671,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,15 +710,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,7 +737,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +773,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +803,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,43 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,55 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +887,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,18 +918,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,32 +946,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,15 +975,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,11 +1003,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,138 +1046,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1785,7 +1785,7 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -2387,8 +2387,8 @@
   <sheetPr/>
   <dimension ref="A1:AME9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -2459,7 +2459,9 @@
       <c r="A2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
@@ -2487,7 +2489,9 @@
       <c r="A3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -574,7 +574,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,18 +595,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,18 +611,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,18 +642,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,16 +673,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,14 +703,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -710,7 +710,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,13 +737,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,43 +857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,19 +875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,25 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,61 +911,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,20 +946,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,6 +976,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -990,15 +996,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,17 +1015,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,10 +1034,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1057,127 +1057,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1646,7 +1646,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2220,8 +2220,8 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2387,7 +2387,7 @@
   <sheetPr/>
   <dimension ref="A1:AME9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
@@ -5900,7 +5900,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
   <si>
     <t>Case ID</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Wait</t>
   </si>
   <si>
     <t>open_url</t>
@@ -531,10 +534,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -574,6 +577,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -589,7 +599,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,9 +637,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,7 +668,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,23 +698,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -675,35 +707,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,13 +740,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,91 +884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,73 +914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,6 +945,26 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,6 +1023,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1014,39 +1046,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1057,127 +1060,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1755,23 +1758,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1805,92 +1808,92 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="90" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +1912,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2000,13 +2003,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.7238095238095" style="16" customWidth="1"/>
     <col min="2" max="2" width="24.1428571428571" style="16" customWidth="1"/>
@@ -2017,7 +2020,7 @@
     <col min="7" max="1024" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:6">
+    <row r="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -2036,8 +2039,11 @@
       <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:6">
+    <row r="2" ht="15.75" customHeight="1" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -2046,14 +2052,15 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+    <row r="3" ht="15.75" customHeight="1" spans="1:7">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -2061,15 +2068,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:6">
+    <row r="4" ht="15.75" customHeight="1" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -2077,17 +2085,18 @@
         <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+    <row r="5" ht="15.75" customHeight="1" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -2095,15 +2104,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:6">
+    <row r="6" ht="15.75" customHeight="1" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2111,17 +2121,18 @@
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="G6" s="18"/>
     </row>
-    <row r="7" ht="15.75" spans="1:6">
+    <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -2130,12 +2141,13 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2155,7 +2167,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -2174,10 +2186,10 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -2185,13 +2197,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -2199,13 +2211,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2232,7 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:D10"/>
     </sheetView>
   </sheetViews>
@@ -2236,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
@@ -2253,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
@@ -2267,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
@@ -2281,10 +2293,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:4">
@@ -2295,10 +2307,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:4">
@@ -2309,10 +2321,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:4">
@@ -2323,10 +2335,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:4">
@@ -2337,10 +2349,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:4">
@@ -2351,10 +2363,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:4">
@@ -2365,10 +2377,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2425,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2422,22 +2434,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -2446,75 +2458,75 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:14">
       <c r="A2" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10">
         <v>200</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N2" s="11"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10">
         <v>200</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:14">
@@ -2528,22 +2540,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>7</v>
@@ -2555,10 +2567,10 @@
         <v>200</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:14">
@@ -2566,28 +2578,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>7</v>
@@ -2599,10 +2611,10 @@
         <v>200</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:14">
@@ -2616,22 +2628,22 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>7</v>
@@ -2643,10 +2655,10 @@
         <v>200</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:1019">
@@ -5739,142 +5751,142 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5912,26 +5924,26 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="105" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="60" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5958,35 +5970,35 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="127">
   <si>
     <t>Case ID</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Data Set</t>
+  </si>
+  <si>
+    <t>Data Type</t>
   </si>
   <si>
     <t>Value</t>
@@ -534,8 +537,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -558,6 +561,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -568,11 +578,6 @@
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -590,6 +595,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -598,10 +610,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -613,17 +631,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,8 +654,46 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,29 +708,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,28 +717,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,19 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +767,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,19 +791,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,37 +821,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,25 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,7 +881,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,25 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,26 +952,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -980,30 +963,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,9 +984,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,142 +1052,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1217,13 +1220,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1654,12 +1661,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" style="16" customWidth="1"/>
-    <col min="2" max="2" width="33" style="16" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="5.57142857142857" style="16" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="16"/>
+    <col min="1" max="1" width="8.28571428571429" style="18" customWidth="1"/>
+    <col min="2" max="2" width="33" style="18" customWidth="1"/>
+    <col min="3" max="3" width="33.7238095238095" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9" style="18"/>
+    <col min="5" max="5" width="5.57142857142857" style="18" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1680,53 +1687,53 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1758,23 +1765,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1808,92 +1815,92 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="90" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1917,12 +1924,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8" style="16" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="16" customWidth="1"/>
-    <col min="5" max="5" width="34" style="16" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="16"/>
+    <col min="1" max="1" width="8" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.7238095238095" style="18" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" style="18" customWidth="1"/>
+    <col min="5" max="5" width="34" style="18" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1943,53 +1950,53 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2005,35 +2012,35 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.7238095238095" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" style="16" customWidth="1"/>
-    <col min="3" max="3" width="15.2761904761905" style="16" customWidth="1"/>
-    <col min="4" max="4" width="32" style="16" customWidth="1"/>
-    <col min="5" max="5" width="17" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="17" customWidth="1"/>
-    <col min="7" max="1024" width="9" style="16"/>
+    <col min="1" max="1" width="11.7238095238095" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.2761904761905" style="18" customWidth="1"/>
+    <col min="4" max="4" width="32" style="18" customWidth="1"/>
+    <col min="5" max="5" width="17" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" style="19" customWidth="1"/>
+    <col min="7" max="1024" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2057,8 +2064,8 @@
       <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
       <c r="A3" s="10" t="s">
@@ -2074,8 +2081,8 @@
         <v>28</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:7">
       <c r="A4" s="10" t="s">
@@ -2093,8 +2100,8 @@
       <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
       <c r="A5" s="10" t="s">
@@ -2110,8 +2117,8 @@
         <v>28</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:7">
       <c r="A6" s="10" t="s">
@@ -2127,10 +2134,10 @@
         <v>32</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="10" t="s">
@@ -2146,8 +2153,8 @@
       <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2193,30 +2200,30 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2230,34 +2237,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.4285714285714" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.7333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="E1" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:4">
+    <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -2267,11 +2278,12 @@
       <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>43</v>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:4">
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -2281,11 +2293,12 @@
       <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>44</v>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:4">
+    <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2295,11 +2308,12 @@
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>45</v>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:4">
+    <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2309,11 +2323,12 @@
       <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>43</v>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:4">
+    <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -2323,11 +2338,12 @@
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>46</v>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:4">
+    <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -2337,11 +2353,12 @@
       <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>45</v>
+      <c r="D7" s="14"/>
+      <c r="E7" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:4">
+    <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2351,11 +2368,12 @@
       <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>43</v>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:4">
+    <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -2365,11 +2383,12 @@
       <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>47</v>
+      <c r="D9" s="14"/>
+      <c r="E9" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:4">
+    <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -2379,14 +2398,15 @@
       <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>45</v>
+      <c r="D10" s="14"/>
+      <c r="E10" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
-    <hyperlink ref="D5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2425,7 +2445,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2434,22 +2454,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -2458,75 +2478,75 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:14">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10">
         <v>200</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N2" s="11"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10">
         <v>200</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:14">
@@ -2540,22 +2560,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>7</v>
@@ -2567,10 +2587,10 @@
         <v>200</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:14">
@@ -2578,28 +2598,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>7</v>
@@ -2611,10 +2631,10 @@
         <v>200</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:14">
@@ -2628,22 +2648,22 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>7</v>
@@ -2655,10 +2675,10 @@
         <v>200</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:1019">
@@ -5751,142 +5771,142 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5924,26 +5944,26 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="105" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="60" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5970,35 +5990,35 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -537,10 +537,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -581,6 +581,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -589,22 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,49 +601,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,29 +618,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,8 +640,83 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,18 +743,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -767,55 +755,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,66 +791,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -905,7 +803,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,13 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,17 +952,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,11 +1004,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,39 +1031,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,142 +1052,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1223,9 +1223,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1661,12 +1658,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" style="18" customWidth="1"/>
-    <col min="2" max="2" width="33" style="18" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="18" customWidth="1"/>
-    <col min="4" max="4" width="9" style="18"/>
-    <col min="5" max="5" width="5.57142857142857" style="18" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="18"/>
+    <col min="1" max="1" width="8.28571428571429" style="17" customWidth="1"/>
+    <col min="2" max="2" width="33" style="17" customWidth="1"/>
+    <col min="3" max="3" width="33.7238095238095" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9" style="17"/>
+    <col min="5" max="5" width="5.57142857142857" style="17" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1687,53 +1684,53 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1924,12 +1921,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8" style="18" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="18" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="18" customWidth="1"/>
-    <col min="5" max="5" width="34" style="18" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="18"/>
+    <col min="1" max="1" width="8" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.7238095238095" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" style="17" customWidth="1"/>
+    <col min="5" max="5" width="34" style="17" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1950,53 +1947,53 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2012,19 +2009,19 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.7238095238095" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.2761904761905" style="18" customWidth="1"/>
-    <col min="4" max="4" width="32" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="19" customWidth="1"/>
-    <col min="7" max="1024" width="9" style="18"/>
+    <col min="1" max="1" width="11.7238095238095" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.2761904761905" style="17" customWidth="1"/>
+    <col min="4" max="4" width="32" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" style="18" customWidth="1"/>
+    <col min="7" max="1024" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
@@ -2064,8 +2061,8 @@
       <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
       <c r="A3" s="10" t="s">
@@ -2081,8 +2078,8 @@
         <v>28</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:7">
       <c r="A4" s="10" t="s">
@@ -2100,8 +2097,8 @@
       <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
       <c r="A5" s="10" t="s">
@@ -2117,8 +2114,8 @@
         <v>28</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:7">
       <c r="A6" s="10" t="s">
@@ -2134,10 +2131,10 @@
         <v>32</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="10" t="s">
@@ -2153,8 +2150,10 @@
       <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2200,30 +2199,30 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2239,7 +2238,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2278,8 +2277,8 @@
       <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2293,8 +2292,8 @@
       <c r="C3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2308,8 +2307,8 @@
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2323,8 +2322,8 @@
       <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2338,8 +2337,8 @@
       <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2353,8 +2352,8 @@
       <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2368,8 +2367,8 @@
       <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2383,8 +2382,8 @@
       <c r="C9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2398,8 +2397,8 @@
       <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="15" t="s">
         <v>46</v>
       </c>
     </row>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="128">
   <si>
     <t>Case ID</t>
   </si>
@@ -99,6 +99,9 @@
     <t>Actions</t>
   </si>
   <si>
+    <t>Highlight</t>
+  </si>
+  <si>
     <t>Screenshot</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
   </si>
   <si>
     <t>SearchBox</t>
-  </si>
-  <si>
-    <t>highlight_element</t>
   </si>
   <si>
     <t>send_keys</t>
@@ -525,11 +525,21 @@
   "no-sandbox": true,
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
-  "remote-debugging-port": 9222
+  "remote-debugging-port": 9222,
+  "headless": false
 }</t>
   </si>
   <si>
     <t>"headless": true</t>
+  </si>
+  <si>
+    <t>{
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222,
+  "headless": true
+}</t>
   </si>
 </sst>
 </file>
@@ -538,8 +548,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -583,10 +593,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -596,11 +611,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -608,9 +618,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,10 +650,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,21 +688,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -699,16 +709,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,7 +765,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,13 +849,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,85 +879,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,43 +927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,10 +964,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -980,8 +997,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -998,15 +1017,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,135 +1062,135 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1653,7 +1663,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1793,7 +1803,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1839,7 +1849,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="90" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="105" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -1871,7 +1881,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
@@ -1897,7 +1907,7 @@
         <v>124</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2007,24 +2017,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F1" sqref="F$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.7238095238095" style="17" customWidth="1"/>
     <col min="2" max="2" width="24.1428571428571" style="17" customWidth="1"/>
     <col min="3" max="3" width="15.2761904761905" style="17" customWidth="1"/>
     <col min="4" max="4" width="32" style="17" customWidth="1"/>
     <col min="5" max="5" width="17" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="18" customWidth="1"/>
-    <col min="7" max="1024" width="9" style="17"/>
+    <col min="6" max="6" width="9.28571428571429" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="18" customWidth="1"/>
+    <col min="8" max="1025" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:7">
+    <row r="1" ht="15.75" customHeight="1" spans="1:8">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -2040,14 +2051,17 @@
       <c r="E1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:7">
+    <row r="2" ht="15.75" customHeight="1" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -2056,15 +2070,16 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+    <row r="3" ht="15.75" customHeight="1" spans="1:8">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -2072,16 +2087,21 @@
         <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:7">
+    <row r="4" ht="15.75" customHeight="1" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -2089,75 +2109,43 @@
         <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="19"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:7">
+    <row r="5" ht="15.75" spans="1:8">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10"/>
       <c r="G5" s="19"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" ht="15.75" spans="1:7">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19">
-        <v>3</v>
+      <c r="H5" s="19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C2:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5">
       <formula1>[1]Locators!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2203,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>37</v>
@@ -2275,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="14" t="s">
@@ -2320,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14" t="s">
@@ -2365,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="14" t="s">

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="128">
   <si>
     <t>Case ID</t>
   </si>
@@ -99,9 +99,15 @@
     <t>Actions</t>
   </si>
   <si>
+    <t>Highlight</t>
+  </si>
+  <si>
     <t>Screenshot</t>
   </si>
   <si>
+    <t>Wait</t>
+  </si>
+  <si>
     <t>open_url</t>
   </si>
   <si>
@@ -111,9 +117,6 @@
     <t>SearchBox</t>
   </si>
   <si>
-    <t>highlight_element</t>
-  </si>
-  <si>
     <t>send_keys</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
   </si>
   <si>
     <t>Data Set</t>
+  </si>
+  <si>
+    <t>Data Type</t>
   </si>
   <si>
     <t>Value</t>
@@ -519,11 +525,21 @@
   "no-sandbox": true,
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
-  "remote-debugging-port": 9222
+  "remote-debugging-port": 9222,
+  "headless": false
 }</t>
   </si>
   <si>
     <t>"headless": true</t>
+  </si>
+  <si>
+    <t>{
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222,
+  "headless": true
+}</t>
   </si>
 </sst>
 </file>
@@ -531,10 +547,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -555,6 +571,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -568,9 +591,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -580,32 +618,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,30 +650,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,16 +672,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -681,7 +696,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,14 +711,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,6 +719,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,13 +753,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +807,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,79 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,31 +879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +897,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,17 +962,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,8 +997,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1001,6 +1022,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1014,174 +1059,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1214,13 +1230,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1646,17 +1663,17 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" style="16" customWidth="1"/>
-    <col min="2" max="2" width="33" style="16" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9" style="16"/>
-    <col min="5" max="5" width="5.57142857142857" style="16" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="16"/>
+    <col min="1" max="1" width="8.28571428571429" style="17" customWidth="1"/>
+    <col min="2" max="2" width="33" style="17" customWidth="1"/>
+    <col min="3" max="3" width="33.7238095238095" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9" style="17"/>
+    <col min="5" max="5" width="5.57142857142857" style="17" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1677,53 +1694,53 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1755,23 +1772,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1803,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1805,92 +1822,92 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="90" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="105" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="90" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1909,17 +1926,17 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8" style="16" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="16" customWidth="1"/>
-    <col min="5" max="5" width="34" style="16" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="16"/>
+    <col min="1" max="1" width="8" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.7238095238095" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" style="17" customWidth="1"/>
+    <col min="5" max="5" width="34" style="17" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1940,53 +1957,53 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2000,44 +2017,51 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.7238095238095" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" style="16" customWidth="1"/>
-    <col min="3" max="3" width="15.2761904761905" style="16" customWidth="1"/>
-    <col min="4" max="4" width="32" style="16" customWidth="1"/>
-    <col min="5" max="5" width="17" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="17" customWidth="1"/>
-    <col min="7" max="1024" width="9" style="16"/>
+    <col min="1" max="1" width="11.7238095238095" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.2761904761905" style="17" customWidth="1"/>
+    <col min="4" max="4" width="32" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="18" customWidth="1"/>
+    <col min="8" max="1025" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:6">
+    <row r="2" ht="15.75" customHeight="1" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -2046,14 +2070,16 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+    <row r="3" ht="15.75" customHeight="1" spans="1:8">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -2061,15 +2087,21 @@
         <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:6">
+    <row r="4" ht="15.75" customHeight="1" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -2077,69 +2109,43 @@
         <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="19"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+    <row r="5" ht="15.75" spans="1:8">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:6">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C2:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5">
       <formula1>[1]Locators!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2155,7 +2161,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -2174,38 +2180,38 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>37</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>39</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2218,34 +2224,38 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.4285714285714" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.7333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>41</v>
+      <c r="D1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:4">
+    <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -2253,13 +2263,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:4">
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -2267,13 +2278,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:4">
+    <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -2281,13 +2293,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:4">
+    <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2295,13 +2308,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:4">
+    <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -2309,13 +2323,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:4">
+    <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -2323,13 +2338,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:4">
+    <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2337,13 +2353,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:4">
+    <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -2351,13 +2368,14 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:4">
+    <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -2365,16 +2383,17 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
-    <hyperlink ref="D5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2413,7 +2432,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2422,22 +2441,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -2446,75 +2465,75 @@
         <v>4</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:14">
       <c r="A2" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
       <c r="J2" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10">
         <v>200</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N2" s="11"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="J3" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10">
         <v>200</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:14">
@@ -2528,22 +2547,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>7</v>
@@ -2555,10 +2574,10 @@
         <v>200</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:14">
@@ -2566,28 +2585,28 @@
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>7</v>
@@ -2599,10 +2618,10 @@
         <v>200</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:14">
@@ -2616,22 +2635,22 @@
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>7</v>
@@ -2643,10 +2662,10 @@
         <v>200</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:1019">
@@ -5739,142 +5758,142 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:4">
       <c r="A7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5912,26 +5931,26 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="105" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="60" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5958,35 +5977,35 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="653" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="653" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="128">
   <si>
     <t>Case ID</t>
   </si>
@@ -547,10 +547,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -591,39 +591,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -641,9 +611,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,75 +726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,13 +753,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,7 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +801,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,109 +915,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,31 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,20 +962,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,11 +994,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,17 +1031,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,155 +1049,151 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1663,16 +1663,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.28703703703704" style="17" customWidth="1"/>
     <col min="2" max="2" width="33" style="17" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="17" customWidth="1"/>
+    <col min="3" max="3" width="33.7222222222222" style="17" customWidth="1"/>
     <col min="4" max="4" width="9" style="17"/>
-    <col min="5" max="5" width="5.57142857142857" style="17" customWidth="1"/>
+    <col min="5" max="5" width="5.57407407407407" style="17" customWidth="1"/>
     <col min="6" max="1024" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -1693,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" ht="16.8" spans="1:5">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
@@ -1760,14 +1760,14 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.552380952381" style="6" customWidth="1"/>
-    <col min="2" max="2" width="118.780952380952" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.14285714285714" style="6"/>
+    <col min="1" max="1" width="17.5555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="118.777777777778" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.13888888888889" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="15.75" spans="1:2">
+    <row r="1" s="6" customFormat="1" ht="16.8" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1806,21 +1806,21 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1111111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.447619047619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.4444444444444" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.552380952381" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.552380952381" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5555555555556" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.552380952381" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.5555555555556" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.11111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="105" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="100.8" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="100.8" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
@@ -1923,23 +1923,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.86111111111111" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.7222222222222" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.4259259259259" style="17" customWidth="1"/>
     <col min="5" max="5" width="34" style="17" customWidth="1"/>
     <col min="6" max="1024" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1" ht="15.75" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1955,8 +1955,11 @@
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+    <row r="2" ht="15.75" customHeight="1" spans="1:6">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -1972,8 +1975,11 @@
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+    <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
@@ -1989,8 +1995,11 @@
       <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
+      <c r="F3" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5">
+    <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2005,6 +2014,9 @@
       </c>
       <c r="E4" s="16" t="s">
         <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2017,25 +2029,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:H$1048576"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="11.7238095238095" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.2761904761905" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.7222222222222" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.1388888888889" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.2777777777778" style="17" customWidth="1"/>
     <col min="4" max="4" width="32" style="17" customWidth="1"/>
     <col min="5" max="5" width="17" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9.28703703703704" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.287037037037" style="18" customWidth="1"/>
     <col min="8" max="1025" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:8">
+    <row r="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
@@ -2060,8 +2072,11 @@
       <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:8">
+    <row r="2" ht="15.75" customHeight="1" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -2078,8 +2093,11 @@
       <c r="F2" s="10"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
+      <c r="I2" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:8">
+    <row r="3" ht="15.75" customHeight="1" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
@@ -2100,8 +2118,11 @@
       </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
+      <c r="I3" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:8">
+    <row r="4" ht="15.75" customHeight="1" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
@@ -2122,8 +2143,11 @@
         <v>7</v>
       </c>
       <c r="H4" s="19"/>
+      <c r="I4" s="16" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" ht="15.75" spans="1:8">
+    <row r="5" ht="16.8" spans="1:9">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -2141,6 +2165,9 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19">
         <v>1</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2164,11 +2191,11 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7333333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="11.7314814814815" customWidth="1"/>
+    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2230,12 +2257,12 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
+    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.4285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23.7333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.4259259259259" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -2345,7 +2372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:5">
+    <row r="8" ht="16.8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2360,7 +2387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:5">
+    <row r="9" ht="16.8" spans="1:5">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -2375,7 +2402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:5">
+    <row r="10" ht="16.8" spans="1:5">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -2410,24 +2437,24 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="9" customWidth="1"/>
-    <col min="2" max="3" width="21.2857142857143" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24.7333333333333" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.1388888888889" style="9" customWidth="1"/>
+    <col min="2" max="3" width="21.287037037037" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.7314814814815" style="9" customWidth="1"/>
     <col min="5" max="5" width="20" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.2190476190476" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.2761904761905" style="9" customWidth="1"/>
-    <col min="9" max="9" width="38.2666666666667" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.71296296296296" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.2222222222222" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.2777777777778" style="9" customWidth="1"/>
+    <col min="9" max="9" width="38.2685185185185" style="9" customWidth="1"/>
     <col min="10" max="10" width="5" style="9" customWidth="1"/>
-    <col min="11" max="11" width="5.57142857142857" style="9" customWidth="1"/>
-    <col min="12" max="12" width="10.5809523809524" style="9" customWidth="1"/>
+    <col min="11" max="11" width="5.57407407407407" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10.5833333333333" style="9" customWidth="1"/>
     <col min="13" max="13" width="28" style="9" customWidth="1"/>
-    <col min="14" max="14" width="26.8761904761905" style="9" customWidth="1"/>
-    <col min="15" max="1019" width="9.42857142857143" style="9"/>
-    <col min="1020" max="1020" width="9.42857142857143" style="6"/>
-    <col min="1021" max="16384" width="9.41904761904762" style="6"/>
+    <col min="14" max="14" width="26.8796296296296" style="9" customWidth="1"/>
+    <col min="15" max="1019" width="9.42592592592593" style="9"/>
+    <col min="1020" max="1020" width="9.42592592592593" style="6"/>
+    <col min="1021" max="16384" width="9.41666666666667" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
@@ -2580,7 +2607,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:14">
+    <row r="5" ht="16.8" spans="1:14">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2624,7 +2651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" ht="47.25" spans="1:14">
+    <row r="6" ht="50.4" spans="1:14">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -4710,7 +4737,7 @@
       <c r="AMD8" s="9"/>
       <c r="AME8" s="9"/>
     </row>
-    <row r="9" s="6" customFormat="1" customHeight="1" spans="1:1019">
+    <row r="9" s="6" customFormat="1" ht="15" customHeight="1" spans="1:1019">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5747,16 +5774,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.552380952381" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.7809523809524" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.552380952381" style="6" customWidth="1"/>
-    <col min="4" max="4" width="57.1142857142857" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="6"/>
+    <col min="1" max="1" width="17.5555555555556" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.5555555555556" style="6" customWidth="1"/>
+    <col min="4" max="4" width="57.1111111111111" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.13888888888889" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="15.75" spans="1:4">
+    <row r="1" s="6" customFormat="1" ht="16.8" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -5922,14 +5949,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.7809523809524" style="6" customWidth="1"/>
-    <col min="2" max="2" width="118.780952380952" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.14285714285714" style="6"/>
+    <col min="1" max="1" width="12.7777777777778" style="6" customWidth="1"/>
+    <col min="2" max="2" width="118.777777777778" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.13888888888889" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="15.75" spans="1:2">
+    <row r="1" s="6" customFormat="1" ht="16.8" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>99</v>
       </c>
@@ -5937,7 +5964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="105" spans="1:2">
+    <row r="2" s="6" customFormat="1" ht="100.8" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -5945,7 +5972,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="60" spans="1:2">
+    <row r="3" s="6" customFormat="1" ht="57.6" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
@@ -5968,14 +5995,14 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.7809523809524" style="6" customWidth="1"/>
-    <col min="3" max="3" width="118.780952380952" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="6"/>
+    <col min="1" max="2" width="14.7777777777778" style="6" customWidth="1"/>
+    <col min="3" max="3" width="118.777777777778" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.13888888888889" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="15.75" spans="1:3">
+    <row r="1" s="6" customFormat="1" ht="16.8" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>103</v>
       </c>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="653" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="653" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="128">
   <si>
     <t>Case ID</t>
   </si>
@@ -547,10 +547,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -591,9 +591,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -605,36 +627,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,7 +650,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,13 +669,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,14 +688,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -709,7 +710,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -753,13 +753,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,19 +825,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,19 +879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,25 +903,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,91 +933,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,17 +962,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,11 +986,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,30 +1036,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,138 +1062,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,11 +1224,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,12 +1247,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1668,12 +1668,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28703703703704" style="17" customWidth="1"/>
-    <col min="2" max="2" width="33" style="17" customWidth="1"/>
-    <col min="3" max="3" width="33.7222222222222" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9" style="17"/>
-    <col min="5" max="5" width="5.57407407407407" style="17" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="17"/>
+    <col min="1" max="1" width="8.28703703703704" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33" style="10" customWidth="1"/>
+    <col min="3" max="3" width="33.7222222222222" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9" style="10"/>
+    <col min="5" max="5" width="5.57407407407407" style="10" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -1694,53 +1694,53 @@
       </c>
     </row>
     <row r="2" ht="16.8" spans="1:5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1931,12 +1931,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.86111111111111" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.7222222222222" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.4259259259259" style="17" customWidth="1"/>
-    <col min="5" max="5" width="34" style="17" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="17"/>
+    <col min="1" max="1" width="8" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.86111111111111" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11.7222222222222" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.4259259259259" style="10" customWidth="1"/>
+    <col min="5" max="5" width="34" style="10" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
@@ -1960,62 +1960,62 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2029,41 +2029,41 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="11.7222222222222" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.1388888888889" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.2777777777778" style="17" customWidth="1"/>
-    <col min="4" max="4" width="32" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.28703703703704" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11.287037037037" style="18" customWidth="1"/>
-    <col min="8" max="1025" width="9" style="17"/>
+    <col min="1" max="1" width="11.7222222222222" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.1388888888889" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.2777777777778" style="10" customWidth="1"/>
+    <col min="4" max="4" width="32" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.28703703703704" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.287037037037" style="19" customWidth="1"/>
+    <col min="8" max="1025" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2075,100 +2075,107 @@
       <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A2" s="10" t="s">
+    <row r="2" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="13"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A3" s="10" t="s">
+    <row r="3" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="16" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="13"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A4" s="10" t="s">
+    <row r="4" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="16" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="J4" s="13"/>
     </row>
-    <row r="5" ht="16.8" spans="1:9">
-      <c r="A5" s="10" t="s">
+    <row r="5" ht="16.8" spans="1:10">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19">
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
         <v>1</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="18" t="s">
         <v>7</v>
       </c>
+      <c r="J5" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2214,30 +2221,30 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2261,159 +2268,159 @@
   <cols>
     <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.4259259259259" style="14" customWidth="1"/>
     <col min="5" max="5" width="23.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" ht="16.8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="16.8" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" ht="16.8" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2433,8 +2440,8 @@
   <sheetPr/>
   <dimension ref="A1:AME9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
@@ -2452,12 +2459,13 @@
     <col min="12" max="12" width="10.5833333333333" style="9" customWidth="1"/>
     <col min="13" max="13" width="28" style="9" customWidth="1"/>
     <col min="14" max="14" width="26.8796296296296" style="9" customWidth="1"/>
-    <col min="15" max="1019" width="9.42592592592593" style="9"/>
+    <col min="15" max="15" width="9" style="10"/>
+    <col min="16" max="1019" width="9.42592592592593" style="9"/>
     <col min="1020" max="1020" width="9.42592592592593" style="6"/>
     <col min="1021" max="16384" width="9.41666666666667" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:14">
+    <row r="1" ht="15.75" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -2500,200 +2508,210 @@
       <c r="N1" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:14">
-      <c r="A2" s="10" t="s">
+    <row r="2" ht="16.5" customHeight="1" spans="1:15">
+      <c r="A2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11">
         <v>200</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A3" s="10" t="s">
+    <row r="3" ht="15.75" customHeight="1" spans="1:15">
+      <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11">
         <v>200</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="O3" s="13"/>
     </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:14">
-      <c r="A4" s="10" t="s">
+    <row r="4" ht="31.5" customHeight="1" spans="1:15">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="11">
         <v>200</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>71</v>
       </c>
+      <c r="O4" s="13"/>
     </row>
-    <row r="5" ht="16.8" spans="1:14">
-      <c r="A5" s="10" t="s">
+    <row r="5" ht="16.8" spans="1:15">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="11">
         <v>200</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="O5" s="13">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="6" ht="50.4" spans="1:14">
-      <c r="A6" s="10" t="s">
+    <row r="6" ht="50.4" spans="1:15">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="11">
         <v>200</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="12" t="s">
         <v>81</v>
       </c>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:1019">
       <c r="A7" s="9"/>
@@ -2710,7 +2728,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="O7" s="10"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -3731,7 +3749,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="10"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -4752,7 +4770,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="653" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="790" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="129">
   <si>
     <t>Case ID</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>$.amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Environment</t>
@@ -1772,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="201" customHeight="1" spans="1:2">
@@ -1780,7 +1783,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="201" customHeight="1" spans="1:2">
@@ -1788,7 +1791,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1822,92 +1825,92 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.8" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="100.8" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="100.8" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2438,10 +2441,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AME9"/>
+  <dimension ref="A1:AME19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
@@ -5776,6 +5779,11 @@
       <c r="AMD9" s="9"/>
       <c r="AME9" s="9"/>
     </row>
+    <row r="19" spans="13:13">
+      <c r="M19" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5803,142 +5811,142 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="16.8" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5976,10 +5984,10 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="16.8" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="100.8" spans="1:2">
@@ -5987,7 +5995,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="57.6" spans="1:2">
@@ -5995,7 +6003,7 @@
         <v>75</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -6022,13 +6030,13 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="16.8" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" ht="201" customHeight="1" spans="1:3">
@@ -6036,10 +6044,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" ht="201" customHeight="1" spans="1:3">
@@ -6047,10 +6055,10 @@
         <v>76</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -618,6 +618,7 @@
       </rPr>
       <t xml:space="preserve">
     web_actions.wait(10)
+    print("Hello world.")
     return True</t>
     </r>
   </si>
@@ -2055,7 +2056,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="60" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="790" activeTab="11"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">def execute(web_actions, *args, **kwargs):
     # </t>
     </r>
@@ -617,7 +623,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-    web_actions.wait(10)
+    web_actions.wait(0.1)
     print("Hello world.")
     return True</t>
     </r>
@@ -628,10 +634,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -672,13 +678,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,10 +725,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,99 +813,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,7 +846,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,31 +1002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,139 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,21 +1056,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1082,16 +1073,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1108,6 +1101,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,162 +1131,166 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1334,15 +1340,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1759,7 +1758,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2021,8 +2020,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -2079,7 +2078,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -2184,8 +2183,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -2194,9 +2193,9 @@
     <col min="2" max="2" width="24.1428571428571" style="11" customWidth="1"/>
     <col min="3" max="3" width="15.2761904761905" style="11" customWidth="1"/>
     <col min="4" max="4" width="32" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="19" customWidth="1"/>
     <col min="8" max="1024" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -2323,31 +2322,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="19" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A6" s="21" t="s">
+    <row r="6" s="2" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="21" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5">
-      <formula1>[1]Locators!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6">
       <formula1>[1]Locators!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5957,7 +5953,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5965,7 +5961,7 @@
     <col min="1" max="1" width="17.552380952381" style="7" customWidth="1"/>
     <col min="2" max="2" width="20.7809523809524" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.552380952381" style="7" customWidth="1"/>
-    <col min="4" max="4" width="57.1142857142857" style="7" customWidth="1"/>
+    <col min="4" max="4" width="66.7142857142857" style="7" customWidth="1"/>
     <col min="5" max="16384" width="9.14285714285714" style="7"/>
   </cols>
   <sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="138">
   <si>
     <t>Case ID</t>
   </si>
@@ -55,13 +55,16 @@
     <t>Y</t>
   </si>
   <si>
+    <t>tag1,sanity check</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>Search for software testing</t>
+  </si>
+  <si>
     <t>tag1</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>Search for software testing</t>
   </si>
   <si>
     <t>TC002</t>
@@ -635,9 +638,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -678,6 +681,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -685,29 +695,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,16 +708,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,9 +771,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,7 +793,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,14 +808,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,13 +849,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +945,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,109 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,37 +1023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,32 +1058,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,21 +1108,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1142,151 +1126,170 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1770,7 +1773,7 @@
     <col min="2" max="2" width="33" style="12" customWidth="1"/>
     <col min="3" max="3" width="33.7238095238095" style="12" customWidth="1"/>
     <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="5.57142857142857" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.2857142857143" style="12" customWidth="1"/>
     <col min="6" max="1024" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -1822,24 +1825,24 @@
         <v>7</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1870,23 +1873,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +1904,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1920,92 +1923,92 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="105" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2038,35 +2041,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2099,16 +2102,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -2122,13 +2125,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>7</v>
@@ -2136,19 +2139,19 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="19">
         <v>1</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>7</v>
@@ -2162,13 +2165,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>7</v>
@@ -2204,28 +2207,28 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A1" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -2233,17 +2236,17 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
@@ -2254,19 +2257,19 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>7</v>
@@ -2279,16 +2282,16 @@
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="15" t="s">
@@ -2304,17 +2307,17 @@
     </row>
     <row r="5" ht="15.75" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
@@ -2327,14 +2330,14 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="15.75" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -2375,44 +2378,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2444,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
@@ -2464,11 +2467,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -2479,11 +2482,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
@@ -2494,11 +2497,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
@@ -2509,11 +2512,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
@@ -2524,11 +2527,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
@@ -2539,56 +2542,56 @@
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2608,7 +2611,7 @@
   <dimension ref="A1:AME9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -2634,7 +2637,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:15">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2643,22 +2646,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>3</v>
@@ -2667,79 +2670,79 @@
         <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
       <c r="J2" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13">
         <v>200</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="15"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
       <c r="A3" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
       <c r="J3" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13">
         <v>200</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O3" s="15"/>
     </row>
@@ -2754,67 +2757,67 @@
         <v>6</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L4" s="13">
         <v>200</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O4" s="15"/>
     </row>
     <row r="5" ht="15.75" spans="1:15">
       <c r="A5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>7</v>
@@ -2826,10 +2829,10 @@
         <v>200</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O5" s="15">
         <v>0.1</v>
@@ -2846,37 +2849,37 @@
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L6" s="13">
         <v>200</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="15"/>
     </row>
@@ -5970,142 +5973,142 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15.75" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="1" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" s="7" customFormat="1" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" s="7" customFormat="1" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6143,26 +6146,26 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" ht="105" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" ht="60" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6189,35 +6192,35 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="790"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="790" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="137">
   <si>
     <t>Case ID</t>
   </si>
@@ -538,15 +538,6 @@
   </si>
   <si>
     <t>"headless": true</t>
-  </si>
-  <si>
-    <t>{
-  "no-sandbox": true,
-  "disable-dev-shm-usage": true,
-  "disable-gpu": true,
-  "remote-debugging-port": 9222,
-  "headless": true
-}</t>
   </si>
   <si>
     <t>Action Name</t>
@@ -1763,7 +1754,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1903,8 +1894,8 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1990,7 +1981,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>122</v>
@@ -2008,7 +1999,7 @@
         <v>126</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2041,24 +2032,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
@@ -2066,10 +2057,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="790" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="790" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
     <t>Body Default</t>
   </si>
   <si>
-    <t>Body User-defined Fields</t>
+    <t>Body Override</t>
   </si>
   <si>
     <t>Exp Status</t>
@@ -628,10 +628,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -672,19 +672,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -693,7 +706,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,9 +720,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,26 +758,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,35 +783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,6 +800,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,67 +840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,67 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,7 +882,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,25 +996,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,28 +1049,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,8 +1082,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,30 +1117,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,141 +1135,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1894,8 +1894,8 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2601,8 +2601,8 @@
   <sheetPr/>
   <dimension ref="A1:AME9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="790" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="139">
   <si>
     <t>Case ID</t>
   </si>
@@ -121,7 +121,7 @@
     <t>SearchBox</t>
   </si>
   <si>
-    <t>send_keys</t>
+    <t>fill_by_js</t>
   </si>
   <si>
     <t>search_term</t>
@@ -130,7 +130,7 @@
     <t>SearchButton</t>
   </si>
   <si>
-    <t>click</t>
+    <t>click_by_js</t>
   </si>
   <si>
     <t>title_should_contains</t>
@@ -516,10 +516,10 @@
     <t>http://www.sg2.findhere.org:8044/wd/hub</t>
   </si>
   <si>
-    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
-  </si>
-  <si>
-    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
+    <t>D:\Downloads\my files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>D:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe</t>
@@ -538,6 +538,12 @@
   </si>
   <si>
     <t>"headless": true</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
   </si>
   <si>
     <t>Action Name</t>
@@ -628,9 +634,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -678,21 +684,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,7 +698,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,31 +712,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,11 +728,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,8 +767,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,7 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -808,6 +807,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,7 +846,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,37 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,31 +984,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,91 +1014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,15 +1088,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1138,6 +1135,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1149,7 +1155,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1160,127 +1166,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1758,13 +1764,13 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.28703703703704" style="12" customWidth="1"/>
     <col min="2" max="2" width="33" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.7222222222222" style="12" customWidth="1"/>
     <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="16.2857142857143" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.287037037037" style="12" customWidth="1"/>
     <col min="6" max="1024" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -1785,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" ht="16.8" spans="1:5">
       <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
@@ -1852,14 +1858,14 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.552380952381" style="7" customWidth="1"/>
-    <col min="2" max="2" width="118.780952380952" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.14285714285714" style="7"/>
+    <col min="1" max="1" width="17.5555555555556" style="7" customWidth="1"/>
+    <col min="2" max="2" width="118.777777777778" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.13888888888889" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="15.75" spans="1:2">
+    <row r="1" s="7" customFormat="1" ht="16.8" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1895,24 +1901,24 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1111111111111" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.447619047619" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.4444444444444" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.552380952381" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.552380952381" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5555555555556" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.552380952381" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.5555555555556" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.11111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="105" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="100.8" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="100.8" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -1987,10 +1993,10 @@
         <v>122</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>125</v>
@@ -2021,46 +2027,46 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.552380952381" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.552380952381" style="1" customWidth="1"/>
-    <col min="4" max="16378" width="9.11428571428571" style="1" customWidth="1"/>
-    <col min="16379" max="16384" width="9.11428571428571" style="2"/>
+    <col min="3" max="3" width="70.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="16378" width="9.11111111111111" style="1" customWidth="1"/>
+    <col min="16379" max="16384" width="9.11111111111111" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="57.6" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="72" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2078,12 +2084,12 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.86111111111111" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.7222222222222" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.4259259259259" style="12" customWidth="1"/>
     <col min="5" max="5" width="34" style="12" customWidth="1"/>
     <col min="6" max="1024" width="9" style="12"/>
   </cols>
@@ -2180,19 +2186,19 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="11.7238095238095" style="12" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.2761904761905" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.7222222222222" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.1388888888889" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.2777777777778" style="12" customWidth="1"/>
     <col min="4" max="4" width="32" style="12" customWidth="1"/>
     <col min="5" max="5" width="17" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.28703703703704" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11.287037037037" style="20" customWidth="1"/>
     <col min="8" max="1024" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -2291,12 +2297,14 @@
       <c r="G4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="15">
+        <v>0.2</v>
+      </c>
       <c r="I4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:9">
+    <row r="5" ht="16.8" spans="1:9">
       <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
@@ -2312,14 +2320,12 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
+      <c r="H5" s="15"/>
       <c r="I5" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15.75" spans="1:9">
+    <row r="6" s="2" customFormat="1" ht="16.8" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -2359,11 +2365,11 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7333333333333" customWidth="1"/>
-    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="11.7314814814815" customWidth="1"/>
+    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2425,12 +2431,12 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
+    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.4285714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.7333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.4259259259259" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.7314814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -2540,7 +2546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:5">
+    <row r="8" ht="16.8" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:5">
+    <row r="9" ht="16.8" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:5">
+    <row r="10" ht="16.8" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
@@ -2601,29 +2607,29 @@
   <sheetPr/>
   <dimension ref="A1:AME9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="11" customWidth="1"/>
-    <col min="2" max="3" width="21.2857142857143" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.7333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.1388888888889" style="11" customWidth="1"/>
+    <col min="2" max="3" width="21.287037037037" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.7314814814815" style="11" customWidth="1"/>
     <col min="5" max="5" width="20" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.2190476190476" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.2761904761905" style="11" customWidth="1"/>
-    <col min="9" max="9" width="38.2666666666667" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.71296296296296" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.2222222222222" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.2777777777778" style="11" customWidth="1"/>
+    <col min="9" max="9" width="38.2685185185185" style="11" customWidth="1"/>
     <col min="10" max="10" width="5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="5.57142857142857" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.5809523809524" style="11" customWidth="1"/>
+    <col min="11" max="11" width="5.57407407407407" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.5833333333333" style="11" customWidth="1"/>
     <col min="13" max="13" width="28" style="11" customWidth="1"/>
-    <col min="14" max="14" width="26.8761904761905" style="11" customWidth="1"/>
+    <col min="14" max="14" width="26.8796296296296" style="11" customWidth="1"/>
     <col min="15" max="15" width="9" style="12"/>
-    <col min="16" max="1019" width="9.42857142857143" style="11"/>
-    <col min="1020" max="1020" width="9.42857142857143" style="7"/>
-    <col min="1021" max="16384" width="9.41904761904762" style="7"/>
+    <col min="16" max="1019" width="9.42592592592593" style="11"/>
+    <col min="1020" max="1020" width="9.42592592592593" style="7"/>
+    <col min="1021" max="16384" width="9.41666666666667" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:15">
@@ -2782,7 +2788,7 @@
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" ht="15.75" spans="1:15">
+    <row r="5" ht="16.8" spans="1:15">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" ht="47.25" spans="1:15">
+    <row r="6" ht="50.4" spans="1:15">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -4916,7 +4922,7 @@
       <c r="AMD8" s="11"/>
       <c r="AME8" s="11"/>
     </row>
-    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:1019">
+    <row r="9" s="7" customFormat="1" ht="15" customHeight="1" spans="1:1019">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -5953,16 +5959,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.552380952381" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.7809523809524" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.552380952381" style="7" customWidth="1"/>
-    <col min="4" max="4" width="66.7142857142857" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="7"/>
+    <col min="1" max="1" width="17.5555555555556" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.5555555555556" style="7" customWidth="1"/>
+    <col min="4" max="4" width="66.712962962963" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.13888888888889" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="15.75" spans="1:4">
+    <row r="1" s="7" customFormat="1" ht="16.8" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -6128,14 +6134,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.7809523809524" style="7" customWidth="1"/>
-    <col min="2" max="2" width="118.780952380952" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.14285714285714" style="7"/>
+    <col min="1" max="1" width="12.7777777777778" style="7" customWidth="1"/>
+    <col min="2" max="2" width="118.777777777778" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.13888888888889" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="15.75" spans="1:2">
+    <row r="1" s="7" customFormat="1" ht="16.8" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
@@ -6143,7 +6149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="105" spans="1:2">
+    <row r="2" s="7" customFormat="1" ht="100.8" spans="1:2">
       <c r="A2" s="8" t="s">
         <v>63</v>
       </c>
@@ -6151,7 +6157,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="60" spans="1:2">
+    <row r="3" s="7" customFormat="1" ht="57.6" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>77</v>
       </c>
@@ -6174,14 +6180,14 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.7809523809524" style="7" customWidth="1"/>
-    <col min="3" max="3" width="118.780952380952" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="7"/>
+    <col min="1" max="2" width="14.7777777777778" style="7" customWidth="1"/>
+    <col min="3" max="3" width="118.777777777778" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.13888888888889" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="15.75" spans="1:3">
+    <row r="1" s="7" customFormat="1" ht="16.8" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>105</v>
       </c>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" tabRatio="850" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -634,10 +634,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -684,7 +684,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,6 +726,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -728,6 +749,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -740,14 +769,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -767,23 +788,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,6 +803,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -807,13 +814,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,7 +852,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +960,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,25 +1014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,127 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,6 +1051,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,15 +1144,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1155,7 +1155,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1166,127 +1166,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1764,13 +1764,13 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.28703703703704" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.28571428571429" style="12" customWidth="1"/>
     <col min="2" max="2" width="33" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.7222222222222" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.7238095238095" style="12" customWidth="1"/>
     <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="16.287037037037" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.2857142857143" style="12" customWidth="1"/>
     <col min="6" max="1024" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -1791,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.8" spans="1:5">
+    <row r="2" ht="15.75" spans="1:5">
       <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
@@ -1858,14 +1858,14 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" style="7" customWidth="1"/>
-    <col min="2" max="2" width="118.777777777778" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.13888888888889" style="7"/>
+    <col min="1" max="1" width="17.552380952381" style="7" customWidth="1"/>
+    <col min="2" max="2" width="118.780952380952" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.14285714285714" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="16.8" spans="1:2">
+    <row r="1" s="7" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1904,21 +1904,21 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.447619047619" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5555555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.552380952381" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.552380952381" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.11111111111111" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.552380952381" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="100.8" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="105" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="100.8" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
@@ -2027,16 +2027,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.5555555555556" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.552380952381" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="16378" width="9.11111111111111" style="1" customWidth="1"/>
-    <col min="16379" max="16384" width="9.11111111111111" style="2"/>
+    <col min="3" max="3" width="70.552380952381" style="1" customWidth="1"/>
+    <col min="4" max="16378" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="16379" max="16384" width="9.11428571428571" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="57.6" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="72" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -2084,12 +2084,12 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.86111111111111" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.7222222222222" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.4259259259259" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.85714285714286" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.7238095238095" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19.4285714285714" style="12" customWidth="1"/>
     <col min="5" max="5" width="34" style="12" customWidth="1"/>
     <col min="6" max="1024" width="9" style="12"/>
   </cols>
@@ -2187,18 +2187,18 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="11.7222222222222" style="12" customWidth="1"/>
-    <col min="2" max="2" width="24.1388888888889" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.2777777777778" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.7238095238095" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.2761904761905" style="12" customWidth="1"/>
     <col min="4" max="4" width="32" style="12" customWidth="1"/>
     <col min="5" max="5" width="17" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9.28703703703704" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.287037037037" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="20" customWidth="1"/>
     <col min="8" max="1024" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -2298,13 +2298,13 @@
         <v>7</v>
       </c>
       <c r="H4" s="15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:9">
+    <row r="5" ht="15.75" spans="1:9">
       <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="16.8" spans="1:9">
+    <row r="6" s="2" customFormat="1" ht="15.75" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -2365,11 +2365,11 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.7314814814815" customWidth="1"/>
-    <col min="2" max="2" width="14.8611111111111" customWidth="1"/>
-    <col min="3" max="3" width="13.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="11.7333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2431,12 +2431,12 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.98148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.28703703703704" customWidth="1"/>
+    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.7314814814815" customWidth="1"/>
+    <col min="4" max="4" width="10.4285714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.7333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -2546,7 +2546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="16.8" spans="1:5">
+    <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" ht="16.8" spans="1:5">
+    <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="1:5">
+    <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
@@ -2611,25 +2611,25 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.41666666666667" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1388888888889" style="11" customWidth="1"/>
-    <col min="2" max="3" width="21.287037037037" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.7314814814815" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.1428571428571" style="11" customWidth="1"/>
+    <col min="2" max="3" width="21.2857142857143" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.7333333333333" style="11" customWidth="1"/>
     <col min="5" max="5" width="20" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.71296296296296" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.2222222222222" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.2777777777778" style="11" customWidth="1"/>
-    <col min="9" max="9" width="38.2685185185185" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.2190476190476" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.2761904761905" style="11" customWidth="1"/>
+    <col min="9" max="9" width="38.2666666666667" style="11" customWidth="1"/>
     <col min="10" max="10" width="5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="5.57407407407407" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.5833333333333" style="11" customWidth="1"/>
+    <col min="11" max="11" width="5.57142857142857" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10.5809523809524" style="11" customWidth="1"/>
     <col min="13" max="13" width="28" style="11" customWidth="1"/>
-    <col min="14" max="14" width="26.8796296296296" style="11" customWidth="1"/>
+    <col min="14" max="14" width="26.8761904761905" style="11" customWidth="1"/>
     <col min="15" max="15" width="9" style="12"/>
-    <col min="16" max="1019" width="9.42592592592593" style="11"/>
-    <col min="1020" max="1020" width="9.42592592592593" style="7"/>
-    <col min="1021" max="16384" width="9.41666666666667" style="7"/>
+    <col min="16" max="1019" width="9.42857142857143" style="11"/>
+    <col min="1020" max="1020" width="9.42857142857143" style="7"/>
+    <col min="1021" max="16384" width="9.41904761904762" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:15">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" ht="16.8" spans="1:15">
+    <row r="5" ht="15.75" spans="1:15">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" ht="50.4" spans="1:15">
+    <row r="6" ht="47.25" spans="1:15">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="AMD8" s="11"/>
       <c r="AME8" s="11"/>
     </row>
-    <row r="9" s="7" customFormat="1" ht="15" customHeight="1" spans="1:1019">
+    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:1019">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -5959,16 +5959,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.7777777777778" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.5555555555556" style="7" customWidth="1"/>
-    <col min="4" max="4" width="66.712962962963" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.13888888888889" style="7"/>
+    <col min="1" max="1" width="17.552380952381" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.7809523809524" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.552380952381" style="7" customWidth="1"/>
+    <col min="4" max="4" width="66.7142857142857" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="16.8" spans="1:4">
+    <row r="1" s="7" customFormat="1" ht="15.75" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>84</v>
       </c>
@@ -6134,14 +6134,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.7777777777778" style="7" customWidth="1"/>
-    <col min="2" max="2" width="118.777777777778" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.13888888888889" style="7"/>
+    <col min="1" max="1" width="12.7809523809524" style="7" customWidth="1"/>
+    <col min="2" max="2" width="118.780952380952" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.14285714285714" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="16.8" spans="1:2">
+    <row r="1" s="7" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="100.8" spans="1:2">
+    <row r="2" s="7" customFormat="1" ht="105" spans="1:2">
       <c r="A2" s="8" t="s">
         <v>63</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="57.6" spans="1:2">
+    <row r="3" s="7" customFormat="1" ht="60" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>77</v>
       </c>
@@ -6180,14 +6180,14 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.7777777777778" style="7" customWidth="1"/>
-    <col min="3" max="3" width="118.777777777778" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.13888888888889" style="7"/>
+    <col min="1" max="2" width="14.7809523809524" style="7" customWidth="1"/>
+    <col min="3" max="3" width="118.780952380952" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="16.8" spans="1:3">
+    <row r="1" s="7" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>105</v>
       </c>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="139">
   <si>
     <t>Case ID</t>
   </si>
@@ -46,30 +46,30 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>pacs008 in cny 100</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>tag1,sanity check</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Search for software testing</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>TC003</t>
   </si>
   <si>
-    <t>pacs008 in cny 100</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>tag1,sanity check</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>Search for software testing</t>
-  </si>
-  <si>
-    <t>tag1</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
     <t>Search for frontend development</t>
   </si>
   <si>
@@ -82,27 +82,27 @@
     <t>Module Name</t>
   </si>
   <si>
+    <t>APIs</t>
+  </si>
+  <si>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Element Name</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
     <t>Parameter Name</t>
   </si>
   <si>
-    <t>Baidu</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>url,search_term,expected_title</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Element Name</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
     <t>Highlight</t>
   </si>
   <si>
@@ -172,16 +172,16 @@
     <t>http://www.baidu.com</t>
   </si>
   <si>
-    <t>TC001功能测试</t>
+    <t>TC002功能测试</t>
   </si>
   <si>
     <t>百度搜索</t>
   </si>
   <si>
-    <t>TC001性能测试</t>
-  </si>
-  <si>
-    <t>TC002自动化测试</t>
+    <t>TC002性能测试</t>
+  </si>
+  <si>
+    <t>TC003自动化测试</t>
   </si>
   <si>
     <t>TCID</t>
@@ -634,10 +634,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -678,11 +678,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -691,7 +722,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,14 +736,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,14 +773,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -772,6 +788,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -780,16 +804,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,22 +814,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,13 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,25 +858,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,19 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,13 +906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,24 +930,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -978,7 +942,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,31 +996,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,7 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,9 +1057,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,6 +1077,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,152 +1152,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2081,7 +2081,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -2090,7 +2090,7 @@
     <col min="2" max="2" width="7.85714285714286" style="12" customWidth="1"/>
     <col min="3" max="3" width="11.7238095238095" style="12" customWidth="1"/>
     <col min="4" max="4" width="19.4285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="34" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.5714285714286" style="12" customWidth="1"/>
     <col min="6" max="1024" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
       <c r="A2" s="19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -2128,7 +2128,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>7</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="19">
         <v>1</v>
@@ -2145,18 +2145,16 @@
         <v>18</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="19" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="19"/>
       <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" s="19">
         <v>1</v>
@@ -2165,11 +2163,9 @@
         <v>18</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E4" s="19"/>
       <c r="F4" s="19" t="s">
         <v>7</v>
       </c>
@@ -2186,8 +2182,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -2199,7 +2195,8 @@
     <col min="5" max="5" width="17" style="20" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" style="20" customWidth="1"/>
     <col min="7" max="7" width="11.2857142857143" style="20" customWidth="1"/>
-    <col min="8" max="1024" width="9" style="12"/>
+    <col min="8" max="1023" width="9" style="12"/>
+    <col min="1024" max="1024" width="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
@@ -2210,13 +2207,13 @@
         <v>16</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>24</v>
@@ -2236,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
@@ -2257,7 +2254,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>29</v>
@@ -2282,7 +2279,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>32</v>
@@ -2309,7 +2306,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
@@ -2330,7 +2327,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
@@ -2378,7 +2375,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>37</v>
@@ -2427,8 +2424,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2447,7 +2444,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>44</v>
@@ -2745,7 +2742,7 @@
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:15">
       <c r="A4" s="13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>6</v>
@@ -2790,7 +2787,7 @@
     </row>
     <row r="5" ht="15.75" spans="1:15">
       <c r="A5" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>74</v>
@@ -2837,7 +2834,7 @@
     </row>
     <row r="6" ht="47.25" spans="1:15">
       <c r="A6" s="13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>6</v>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -350,6 +350,7 @@
 timestamp: "{{timestamp}}"
 timestamp2: "{{formated_timestamp}}"
 bic: "{{bic}}"
+MyToken: "{{MyToken}}"
 user_agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.93 Safari/537.36</t>
   </si>
   <si>
@@ -634,10 +635,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -685,17 +686,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -706,18 +707,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,17 +721,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -750,8 +737,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,11 +768,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,10 +784,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,7 +800,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,7 +853,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,25 +889,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,19 +925,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,43 +943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,19 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,13 +979,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,19 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,11 +1058,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,209 +1137,157 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1901,7 +1902,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1987,7 +1988,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>122</v>
@@ -2424,7 +2425,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -6127,8 +6128,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -6146,7 +6147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" ht="105" spans="1:2">
+    <row r="2" s="7" customFormat="1" ht="120" spans="1:2">
       <c r="A2" s="8" t="s">
         <v>63</v>
       </c>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -29,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
   <si>
     <t>Case ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Descriptions</t>
   </si>
   <si>
@@ -46,7 +43,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>TC001</t>
+    <t>OB_pacs008_1</t>
   </si>
   <si>
     <t>pacs008 in cny 100</t>
@@ -58,7 +55,7 @@
     <t>tag1,sanity check</t>
   </si>
   <si>
-    <t>TC002</t>
+    <t>Baidu_Search1</t>
   </si>
   <si>
     <t>Search for software testing</t>
@@ -67,7 +64,7 @@
     <t>tag1</t>
   </si>
   <si>
-    <t>TC003</t>
+    <t>Baidu_Search2</t>
   </si>
   <si>
     <t>Search for frontend development</t>
@@ -133,7 +130,7 @@
     <t>click_by_js</t>
   </si>
   <si>
-    <t>title_should_contains</t>
+    <t>verify_title_contains</t>
   </si>
   <si>
     <t>expected_title</t>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>$[2].balance</t>
+  </si>
+  <si>
+    <t>IB_pacs008_1</t>
   </si>
   <si>
     <t>[TestSetup]PRE</t>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>$.result.amount</t>
+  </si>
+  <si>
+    <t>IB_pacs008_2</t>
   </si>
   <si>
     <t>[Checkwith]Position
@@ -436,6 +439,9 @@
 &lt;/Document&gt;</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>{
   "transaction_id": "IN123457",
   "amount": 1500.00,
@@ -635,10 +641,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -679,8 +685,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,20 +720,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -721,11 +743,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -739,7 +760,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,7 +775,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -769,15 +805,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,28 +821,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,7 +853,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +955,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,157 +1027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,23 +1065,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,6 +1116,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1106,15 +1141,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,161 +1159,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,13 +1341,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1759,23 +1765,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.28571428571429" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.7238095238095" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="16.2857142857143" style="12" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="12"/>
+    <col min="1" max="1" width="15" style="12" customWidth="1"/>
+    <col min="2" max="2" width="33.7238095238095" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9" style="12"/>
+    <col min="4" max="4" width="16.2857142857143" style="12" customWidth="1"/>
+    <col min="5" max="1023" width="9" style="12"/>
+    <col min="1024" max="1024" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:5">
+    <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1788,59 +1794,47 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="3" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1868,10 +1862,10 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" ht="201" customHeight="1" spans="1:2">
@@ -1879,7 +1873,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" ht="201" customHeight="1" spans="1:2">
@@ -1887,7 +1881,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1921,92 +1915,92 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="105" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2039,35 +2033,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2082,16 +2076,16 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15" style="12" customWidth="1"/>
     <col min="2" max="2" width="7.85714285714286" style="12" customWidth="1"/>
     <col min="3" max="3" width="11.7238095238095" style="12" customWidth="1"/>
     <col min="4" max="4" width="19.4285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.5714285714286" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15" style="12" customWidth="1"/>
     <col min="6" max="1024" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -2100,75 +2094,75 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="19">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
+      <c r="E2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
-        <v>7</v>
+      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
-        <v>7</v>
+      <c r="C4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2178,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -2202,144 +2196,144 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="19" t="s">
-        <v>7</v>
+      <c r="I2" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="19" t="s">
-        <v>7</v>
+      <c r="I3" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="15">
         <v>1</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>7</v>
+      <c r="I4" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="19" t="s">
-        <v>7</v>
+      <c r="I5" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="15.75" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2373,44 +2367,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2426,12 +2420,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.28571428571429" customWidth="1"/>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="10.4285714285714" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.7333333333333" customWidth="1"/>
@@ -2442,151 +2437,151 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="13" t="s">
-        <v>9</v>
+      <c r="A2" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="17" t="s">
-        <v>46</v>
+      <c r="E2" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="13" t="s">
-        <v>9</v>
+      <c r="A3" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="18" t="s">
-        <v>47</v>
+      <c r="E3" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
+      <c r="A4" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="18" t="s">
-        <v>48</v>
+      <c r="E4" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A5" s="13" t="s">
-        <v>9</v>
+      <c r="A5" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="17" t="s">
-        <v>46</v>
+      <c r="E5" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
+      <c r="A6" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="18" t="s">
-        <v>49</v>
+      <c r="E6" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A7" s="13" t="s">
-        <v>9</v>
+      <c r="A7" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="18" t="s">
-        <v>48</v>
+      <c r="E7" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
+      <c r="A8" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="17" t="s">
-        <v>46</v>
+      <c r="E8" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>12</v>
+      <c r="A9" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="18" t="s">
-        <v>50</v>
+      <c r="E9" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>12</v>
+      <c r="A10" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="18" t="s">
-        <v>48</v>
+      <c r="E10" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2603,42 +2598,42 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AME9"/>
+  <dimension ref="A1:AMD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="11" customWidth="1"/>
-    <col min="2" max="3" width="21.2857142857143" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.7333333333333" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.2190476190476" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.2761904761905" style="11" customWidth="1"/>
-    <col min="9" max="9" width="38.2666666666667" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="5.57142857142857" style="11" customWidth="1"/>
-    <col min="12" max="12" width="10.5809523809524" style="11" customWidth="1"/>
-    <col min="13" max="13" width="28" style="11" customWidth="1"/>
-    <col min="14" max="14" width="26.8761904761905" style="11" customWidth="1"/>
-    <col min="15" max="15" width="9" style="12"/>
-    <col min="16" max="1019" width="9.42857142857143" style="11"/>
-    <col min="1020" max="1020" width="9.42857142857143" style="7"/>
-    <col min="1021" max="16384" width="9.41904761904762" style="7"/>
+    <col min="1" max="1" width="15" style="11" customWidth="1"/>
+    <col min="2" max="2" width="21.2857142857143" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.7333333333333" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.71428571428571" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.2190476190476" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.2761904761905" style="11" customWidth="1"/>
+    <col min="8" max="8" width="38.2666666666667" style="11" customWidth="1"/>
+    <col min="9" max="9" width="5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.57142857142857" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.5809523809524" style="11" customWidth="1"/>
+    <col min="12" max="12" width="28" style="11" customWidth="1"/>
+    <col min="13" max="13" width="26.8761904761905" style="11" customWidth="1"/>
+    <col min="14" max="14" width="9" style="12"/>
+    <col min="15" max="1018" width="9.42857142857143" style="11"/>
+    <col min="1019" max="1019" width="9.42857142857143" style="7"/>
+    <col min="1020" max="16384" width="9.41904761904762" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:15">
+    <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>52</v>
@@ -2656,13 +2651,13 @@
         <v>56</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>58</v>
@@ -2671,214 +2666,196 @@
         <v>59</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:14">
+      <c r="A2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:15">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13">
+        <v>200</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13">
-        <v>200</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:14">
+      <c r="A3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:15">
-      <c r="A3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="E3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13">
+        <v>200</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13">
-        <v>200</v>
-      </c>
       <c r="M3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" ht="31.5" customHeight="1" spans="1:14">
+      <c r="A4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:15">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>71</v>
       </c>
+      <c r="I4" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="J4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="13">
+        <v>10</v>
+      </c>
+      <c r="K4" s="13">
         <v>200</v>
       </c>
+      <c r="L4" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="M4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
-    <row r="5" ht="15.75" spans="1:15">
+    <row r="5" ht="15.75" spans="1:14">
       <c r="A5" s="13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>71</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="13">
+      <c r="K5" s="13">
         <v>200</v>
       </c>
+      <c r="L5" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="M5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="15">
+      <c r="N5" s="15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" ht="47.25" spans="1:15">
+    <row r="6" ht="47.25" spans="1:14">
       <c r="A6" s="13" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>71</v>
       </c>
+      <c r="I6" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="J6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="13">
+        <v>10</v>
+      </c>
+      <c r="K6" s="13">
         <v>200</v>
       </c>
+      <c r="L6" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="M6" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="N6" s="15"/>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:1019">
+    <row r="7" s="7" customFormat="1" spans="1:1018">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2892,8 +2869,8 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -3897,9 +3874,8 @@
       <c r="AMB7" s="11"/>
       <c r="AMC7" s="11"/>
       <c r="AMD7" s="11"/>
-      <c r="AME7" s="11"/>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:1019">
+    <row r="8" s="7" customFormat="1" spans="1:1018">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -3913,8 +3889,8 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -4918,9 +4894,8 @@
       <c r="AMB8" s="11"/>
       <c r="AMC8" s="11"/>
       <c r="AMD8" s="11"/>
-      <c r="AME8" s="11"/>
     </row>
-    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:1019">
+    <row r="9" s="7" customFormat="1" customHeight="1" spans="1:1018">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -4934,8 +4909,8 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -5939,7 +5914,6 @@
       <c r="AMB9" s="11"/>
       <c r="AMC9" s="11"/>
       <c r="AMD9" s="11"/>
-      <c r="AME9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5968,142 +5942,142 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15.75" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="1" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" s="7" customFormat="1" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" s="7" customFormat="1" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" s="7" customFormat="1" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6128,7 +6102,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -6141,18 +6115,18 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" ht="120" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" ht="60" spans="1:2">
@@ -6160,7 +6134,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6187,13 +6161,13 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" ht="201" customHeight="1" spans="1:3">
@@ -6201,10 +6175,10 @@
         <v>70</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" ht="201" customHeight="1" spans="1:3">
@@ -6212,10 +6186,10 @@
         <v>78</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="142">
+  <si>
+    <t>Run</t>
+  </si>
   <si>
     <t>Case ID</t>
   </si>
@@ -37,21 +40,18 @@
     <t>Descriptions</t>
   </si>
   <si>
-    <t>Run</t>
-  </si>
-  <si>
     <t>Tags</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>OB_pacs008_1</t>
   </si>
   <si>
     <t>pacs008 in cny 100</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>tag1,sanity check</t>
   </si>
   <si>
@@ -211,6 +211,9 @@
     <t>Save Fields</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
@@ -218,9 +221,6 @@
   </si>
   <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>$[2].balance=50000.0</t>
@@ -551,6 +551,16 @@
   </si>
   <si>
     <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
+  </si>
+  <si>
+    <t>{
+  "start-maximized": true,
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222,
+  "headless": false
+}</t>
   </si>
   <si>
     <t>Action Name</t>
@@ -685,19 +695,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -705,39 +702,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,22 +716,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,7 +731,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,8 +744,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -804,8 +774,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,13 +831,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,13 +863,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,7 +923,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,31 +941,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,19 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,19 +989,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,37 +1013,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,25 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,29 +1072,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,17 +1098,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,170 +1161,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1767,15 +1777,15 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33.7238095238095" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="15" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.7238095238095" style="12" customWidth="1"/>
     <col min="4" max="4" width="16.2857142857143" style="12" customWidth="1"/>
     <col min="5" max="1023" width="9" style="12"/>
     <col min="1024" max="1024" width="9"/>
@@ -1796,10 +1806,10 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -1811,13 +1821,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>10</v>
@@ -1825,13 +1835,13 @@
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
       <c r="A4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>10</v>
@@ -1895,8 +1905,8 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1974,7 +1984,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="105" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="120" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
@@ -2000,7 +2010,7 @@
         <v>128</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2033,24 +2043,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
@@ -2058,10 +2068,10 @@
         <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2076,17 +2086,18 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.7238095238095" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.4285714285714" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15" style="12" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="15" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.85714285714286" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.7238095238095" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15" style="12" customWidth="1"/>
+    <col min="7" max="1024" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
@@ -2094,76 +2105,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
       <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17">
+      <c r="C3" s="17">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
       <c r="A4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17">
+      <c r="C4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="F4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2178,167 +2189,168 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="11.7238095238095" style="12" customWidth="1"/>
-    <col min="2" max="2" width="24.1428571428571" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.2761904761905" style="12" customWidth="1"/>
-    <col min="4" max="4" width="32" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="20" customWidth="1"/>
-    <col min="8" max="1023" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="11.7238095238095" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.2761904761905" style="12" customWidth="1"/>
+    <col min="5" max="5" width="32" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.28571428571429" style="20" customWidth="1"/>
+    <col min="8" max="8" width="11.2857142857143" style="20" customWidth="1"/>
+    <col min="9" max="1023" width="9" style="12"/>
     <col min="1024" max="1024" width="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="15"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" s="15"/>
-      <c r="I3" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="15">
+        <v>4</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="15">
         <v>1</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:9">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="15.75" spans="1:9">
       <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="I6" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6">
       <formula1>[1]Locators!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2434,7 +2446,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>42</v>
@@ -2601,20 +2613,20 @@
   <dimension ref="A1:AMD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.2857142857143" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.7333333333333" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.71428571428571" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.2190476190476" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.2761904761905" style="11" customWidth="1"/>
-    <col min="8" max="8" width="38.2666666666667" style="11" customWidth="1"/>
-    <col min="9" max="9" width="5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.2857142857143" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.7333333333333" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.2190476190476" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.2761904761905" style="11" customWidth="1"/>
+    <col min="9" max="9" width="38.2666666666667" style="11" customWidth="1"/>
     <col min="10" max="10" width="5.57142857142857" style="11" customWidth="1"/>
     <col min="11" max="11" width="10.5809523809524" style="11" customWidth="1"/>
     <col min="12" max="12" width="28" style="11" customWidth="1"/>
@@ -2627,31 +2639,31 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>3</v>
@@ -2673,20 +2685,20 @@
       <c r="A2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13">
         <v>200</v>
@@ -2699,22 +2711,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
       <c r="A3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13" t="s">
-        <v>63</v>
-      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13">
         <v>200</v>
@@ -2729,31 +2741,31 @@
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:14">
       <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>10</v>
@@ -2774,28 +2786,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>7</v>
@@ -2815,31 +2827,31 @@
     </row>
     <row r="6" ht="47.25" spans="1:14">
       <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="F6" s="13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>10</v>
@@ -5987,7 +5999,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>92</v>
@@ -6029,7 +6041,7 @@
         <v>94</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>92</v>
@@ -6071,7 +6083,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>92</v>
@@ -6123,7 +6135,7 @@
     </row>
     <row r="2" s="7" customFormat="1" ht="120" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>104</v>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Endpoint">'C:\Users\vhuang1\PycharmProjects\api_test_framework\test_cases\api_test_cases.xlsx'!Table5[Run]</definedName>
-    <definedName name="Header">'C:\Users\vhuang1\PycharmProjects\api_test_framework\test_cases\api_test_cases.xlsx'!Table4[[]]</definedName>
-    <definedName name="BodyTemplate">'C:\Users\vhuang1\PycharmProjects\api_test_framework\test_cases\api_test_cases.xlsx'!Endpoints[Environment]</definedName>
-    <definedName name="BodyDefault">'C:\Users\vhuang1\PycharmProjects\api_test_framework\test_cases\api_test_cases.xlsx'!Table1[[]]</definedName>
+    <definedName name="Endpoint">api_test_cases.xlsx!Table5[Run]</definedName>
+    <definedName name="Header">api_test_cases.xlsx!Table4[]</definedName>
+    <definedName name="BodyTemplate">api_test_cases.xlsx!Endpoints[Environment]</definedName>
+    <definedName name="BodyDefault">api_test_cases.xlsx!Table1[]</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2827,7 +2827,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3354,8 +3354,8 @@
   <sheetPr/>
   <dimension ref="A1:AMD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -699,9 +699,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -743,6 +743,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -750,28 +755,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,7 +771,31 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -808,6 +817,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -826,14 +849,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,31 +870,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,91 +922,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +958,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,13 +1030,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,55 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,6 +1127,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,11 +1190,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,166 +1220,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2917,8 +2917,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -3341,7 +3341,7 @@
   <sheetPr/>
   <dimension ref="A1:AMD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -700,8 +700,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -743,6 +743,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -755,24 +769,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,45 +832,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,22 +864,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,7 +878,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,12 +890,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -922,13 +922,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,31 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,19 +1006,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,49 +1030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,49 +1054,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,41 +1127,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1191,21 +1156,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1228,141 +1178,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
   <si>
     <t>Run</t>
   </si>
@@ -118,6 +118,12 @@
     <t>Search for frontend development</t>
   </si>
   <si>
+    <t>Baidu_Search3</t>
+  </si>
+  <si>
+    <t>insert data</t>
+  </si>
+  <si>
     <t>Step ID</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t>Search</t>
   </si>
   <si>
+    <t>PrepareData</t>
+  </si>
+  <si>
     <t>Element Name</t>
   </si>
   <si>
@@ -190,6 +199,12 @@
     <t>non_element_action</t>
   </si>
   <si>
+    <t>db_insert</t>
+  </si>
+  <si>
+    <t>db_name,table,data_template</t>
+  </si>
+  <si>
     <t>Locator Type</t>
   </si>
   <si>
@@ -230,6 +245,32 @@
   </si>
   <si>
     <t>TC003自动化测试</t>
+  </si>
+  <si>
+    <t>db_name</t>
+  </si>
+  <si>
+    <t>db_name1</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>public.users</t>
+  </si>
+  <si>
+    <t>data_template</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "name": "Vick Huang",
+  "email": "vhuang1@example.com",
+  "age": 18
+}
+</t>
   </si>
   <si>
     <t>TCID</t>
@@ -437,9 +478,6 @@
   </si>
   <si>
     <t>Format</t>
-  </si>
-  <si>
-    <t>json</t>
   </si>
   <si>
     <t>{
@@ -581,10 +619,10 @@
     <t>http://www.sg2.findhere.org:8044/wd/hub</t>
   </si>
   <si>
-    <t>D:\Downloads\my files\chrome-win64\chrome.exe</t>
-  </si>
-  <si>
-    <t>D:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
+    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
+  </si>
+  <si>
+    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
   </si>
   <si>
     <t>C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe</t>
@@ -604,12 +642,6 @@
   </si>
   <si>
     <t>"headless": true</t>
-  </si>
-  <si>
-    <t>E:\Downloads\my files\chrome-win64\chrome.exe</t>
-  </si>
-  <si>
-    <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
   </si>
   <si>
     <t>Variable Name</t>
@@ -709,10 +741,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -758,14 +790,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -774,15 +798,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,7 +813,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,14 +842,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -842,15 +857,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,8 +904,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,14 +921,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,13 +970,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +1030,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +1066,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,13 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,115 +1138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,6 +1169,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,17 +1236,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,15 +1262,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1241,7 +1273,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1252,131 +1284,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1425,6 +1457,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2498,20 +2533,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="12.7142857142857" style="19" customWidth="1"/>
-    <col min="3" max="3" width="15" style="19" customWidth="1"/>
-    <col min="4" max="4" width="33.7238095238095" style="19" customWidth="1"/>
-    <col min="5" max="5" width="16.2857142857143" style="19" customWidth="1"/>
-    <col min="6" max="1024" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="12.7142857142857" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15" style="20" customWidth="1"/>
+    <col min="4" max="4" width="33.7238095238095" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.2857142857143" style="20" customWidth="1"/>
+    <col min="6" max="1024" width="9" style="20"/>
     <col min="1025" max="1025" width="9"/>
   </cols>
   <sheetData>
@@ -2580,6 +2615,23 @@
         <v>15</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:5">
+      <c r="A5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2608,26 +2660,26 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2644,8 +2696,8 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2664,98 +2716,98 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="120" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="120" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
     <hyperlink ref="D2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2781,35 +2833,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2842,35 +2894,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2882,21 +2934,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="15" style="19" customWidth="1"/>
-    <col min="3" max="3" width="7.85714285714286" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.7238095238095" style="19" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.8571428571429" style="19" customWidth="1"/>
-    <col min="7" max="1024" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="15" style="20" customWidth="1"/>
+    <col min="3" max="3" width="7.85714285714286" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.7238095238095" style="20" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="20" customWidth="1"/>
+    <col min="6" max="6" width="28.8571428571429" style="20" customWidth="1"/>
+    <col min="7" max="1024" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:6">
@@ -2907,16 +2959,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
@@ -2930,13 +2982,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
@@ -2950,10 +3002,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="17"/>
     </row>
@@ -2968,12 +3020,30 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="17"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2985,23 +3055,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="11.7238095238095" style="19" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="19" customWidth="1"/>
-    <col min="4" max="4" width="15.2761904761905" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.28571428571429" style="20" customWidth="1"/>
-    <col min="8" max="8" width="11.2857142857143" style="20" customWidth="1"/>
-    <col min="9" max="1023" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="11.7238095238095" style="20" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.2761904761905" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32" style="20" customWidth="1"/>
+    <col min="6" max="6" width="17" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.28571428571429" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.2857142857143" style="21" customWidth="1"/>
+    <col min="9" max="1023" width="9" style="20"/>
     <col min="1024" max="1024" width="9"/>
   </cols>
   <sheetData>
@@ -3010,28 +3080,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
@@ -3039,17 +3109,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="15"/>
@@ -3060,19 +3130,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>5</v>
@@ -3085,16 +3155,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="15" t="s">
@@ -3112,17 +3182,17 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="15"/>
@@ -3133,23 +3203,44 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
+    <row r="7" s="2" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7">
       <formula1>[1]Locators!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3165,7 +3256,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -3178,44 +3269,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3228,10 +3319,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3248,16 +3339,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
@@ -3268,11 +3359,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -3283,11 +3374,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
@@ -3298,11 +3389,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
@@ -3313,11 +3404,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
@@ -3328,11 +3419,11 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
@@ -3343,11 +3434,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
@@ -3358,11 +3449,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
@@ -3373,11 +3464,11 @@
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
@@ -3388,11 +3479,58 @@
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:5">
+      <c r="A11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:5">
+      <c r="A12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" ht="89.25" spans="1:5">
+      <c r="A13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3441,52 +3579,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -3495,14 +3633,14 @@
         <v>200</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="13" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -3511,11 +3649,11 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
       <c r="A3" s="13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3524,16 +3662,16 @@
         <v>200</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -3545,40 +3683,40 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G4" s="13">
         <v>200</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>13</v>
@@ -3590,40 +3728,40 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G5" s="13">
         <v>200</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>13</v>
@@ -3637,40 +3775,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G6" s="13">
         <v>200</v>
       </c>
       <c r="H6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="M6" s="13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="N6" s="13" t="s">
         <v>13</v>
@@ -6768,7 +6906,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="A5" sqref="A5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6782,142 +6920,142 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" ht="15.75" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="1" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6958,26 +7096,26 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" ht="120" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" ht="60" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -7007,35 +7145,35 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="10"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
   <si>
     <t>Run</t>
   </si>
@@ -100,6 +100,9 @@
     <t>tag1,sanity check</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Baidu_Search</t>
   </si>
   <si>
@@ -199,7 +202,7 @@
     <t>non_element_action</t>
   </si>
   <si>
-    <t>db_insert</t>
+    <t>insert_data</t>
   </si>
   <si>
     <t>db_name,table,data_template</t>
@@ -256,7 +259,7 @@
     <t>table</t>
   </si>
   <si>
-    <t>public.users</t>
+    <t>users</t>
   </si>
   <si>
     <t>data_template</t>
@@ -266,9 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">{
-  "name": "Vick Huang",
+  "name": "${user_name}",
   "email": "vhuang1@example.com",
-  "age": 18
+  "age": "{{timestamp}}"
 }
 </t>
   </si>
@@ -303,9 +306,6 @@
     <t>Body Default</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -339,7 +339,8 @@
     <t>amount: 100</t>
   </si>
   <si>
-    <t>$.amount=100.0</t>
+    <t>$.amount=100.0
+db_name1.users.email [name=Alice Brown;age=27]=alice@example.com</t>
   </si>
   <si>
     <t>$.amount
@@ -394,7 +395,6 @@
 Position.$[3].balance=+100
 Position.postcheck.$[2].currency=HKD
 Position.precheck.$[3].currency=to_uppercase(${lowercase_currency})
-db_name1.users.email [name=Alice Brown;age=27]=alice@example.com
 db_name2.users.email [name=Alice Brown;age=27][OrderBy=id DESC]=alice@example.com</t>
   </si>
   <si>
@@ -651,6 +651,12 @@
   </si>
   <si>
     <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Vick Huang</t>
   </si>
   <si>
     <t>Action Name</t>
@@ -2536,7 +2542,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2586,36 +2592,36 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2623,16 +2629,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2702,7 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
@@ -2819,8 +2825,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -2847,7 +2853,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>152</v>
@@ -2855,19 +2861,19 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
-    <hyperlink ref="C3" r:id="rId1" display="http://www.baidu.com" tooltip="http://www.baidu.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="Vick Huang" tooltip="http://www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2894,35 +2900,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2937,7 +2943,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2959,16 +2965,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
@@ -2982,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
@@ -2996,16 +3002,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="17"/>
     </row>
@@ -3014,16 +3020,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="17"/>
     </row>
@@ -3032,16 +3038,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="17"/>
     </row>
@@ -3058,7 +3064,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -3080,28 +3086,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
@@ -3109,17 +3115,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="15"/>
@@ -3130,19 +3136,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>5</v>
@@ -3155,16 +3161,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="15" t="s">
@@ -3182,17 +3188,17 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="15"/>
@@ -3203,14 +3209,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -3222,17 +3228,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="15"/>
@@ -3269,44 +3275,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3331,7 +3337,7 @@
     <col min="2" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="10.4285714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.7333333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -3339,198 +3345,198 @@
         <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="13" ht="89.25" spans="1:5">
+    <row r="13" ht="76.5" spans="1:5">
       <c r="A13" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3545,8 +3551,8 @@
   <sheetPr/>
   <dimension ref="A1:AMD9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -3579,48 +3585,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
@@ -3649,7 +3655,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
       <c r="A3" s="13" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -3719,7 +3725,7 @@
         <v>91</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O4" s="15"/>
     </row>
@@ -3764,13 +3770,13 @@
         <v>99</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O5" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="94.5" spans="1:15">
+    <row r="6" ht="78.75" spans="1:15">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>91</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O6" s="15"/>
     </row>
@@ -6923,7 +6929,7 @@
         <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>106</v>
@@ -7159,7 +7165,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>128</v>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="11"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
     <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Endpoint">api_test_cases.xlsx!Table5[Run]</definedName>
-    <definedName name="Header">api_test_cases.xlsx!Table4[#Data]</definedName>
-    <definedName name="BodyTemplate">api_test_cases.xlsx!Endpoints[Environment]</definedName>
-    <definedName name="BodyDefault">api_test_cases.xlsx!Table1[#Data]</definedName>
+    <definedName name="Endpoint">'C:\Users\vhuang1\PycharmProjects\api_test_framework\test_cases\api_test_cases.xlsx'!Table5[Run]</definedName>
+    <definedName name="Header">'C:\Users\vhuang1\PycharmProjects\api_test_framework\test_cases\api_test_cases.xlsx'!Table4[#Data]</definedName>
+    <definedName name="BodyTemplate">'C:\Users\vhuang1\PycharmProjects\api_test_framework\test_cases\api_test_cases.xlsx'!Endpoints[Environment]</definedName>
+    <definedName name="BodyDefault">'C:\Users\vhuang1\PycharmProjects\api_test_framework\test_cases\api_test_cases.xlsx'!Table1[#Data]</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="164">
   <si>
     <t>Run</t>
   </si>
@@ -91,6 +91,15 @@
     <t>API_pacs008</t>
   </si>
   <si>
+    <t>Baidu_Search3</t>
+  </si>
+  <si>
+    <t>insert data</t>
+  </si>
+  <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>OB_pacs008_1</t>
   </si>
   <si>
@@ -100,9 +109,6 @@
     <t>tag1,sanity check</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Baidu_Search</t>
   </si>
   <si>
@@ -112,19 +118,10 @@
     <t>Search for software testing</t>
   </si>
   <si>
-    <t>tag1</t>
-  </si>
-  <si>
     <t>Baidu_Search2</t>
   </si>
   <si>
     <t>Search for frontend development</t>
-  </si>
-  <si>
-    <t>Baidu_Search3</t>
-  </si>
-  <si>
-    <t>insert data</t>
   </si>
   <si>
     <t>Step ID</t>
@@ -306,6 +303,9 @@
     <t>Body Default</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>j_pacs.008_in</t>
+  </si>
+  <si>
+    <t>pacs0082</t>
   </si>
   <si>
     <t xml:space="preserve">Executes an outbound credit transfer (pacs008 out cny 100) of 100 CNY. </t>
@@ -637,7 +640,7 @@
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
   "remote-debugging-port": 9222,
-  "headless": false
+  "headless": true
 }</t>
   </si>
   <si>
@@ -747,8 +750,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -791,9 +794,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -803,8 +808,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,14 +829,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,6 +848,20 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,8 +904,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,7 +914,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,23 +928,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,19 +973,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,19 +1021,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,19 +1051,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,61 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,31 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,6 +1136,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,21 +1178,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,6 +1207,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1238,15 +1241,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1276,141 +1270,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2542,7 +2545,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2580,7 +2583,7 @@
       <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2590,55 +2593,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:5">
+    <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2666,10 +2669,10 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" ht="201" customHeight="1" spans="1:2">
@@ -2677,15 +2680,15 @@
         <v>91</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" ht="201" customHeight="1" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2706,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2722,92 +2725,92 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="120" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="120" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2825,8 +2828,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -2839,35 +2842,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2900,35 +2903,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2965,16 +2968,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
@@ -2982,19 +2985,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
@@ -3002,16 +3005,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="17"/>
     </row>
@@ -3020,16 +3023,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="17"/>
     </row>
@@ -3038,16 +3041,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="17"/>
     </row>
@@ -3086,28 +3089,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
@@ -3115,17 +3118,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="15"/>
@@ -3136,19 +3139,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>5</v>
@@ -3161,16 +3164,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="15" t="s">
@@ -3188,17 +3191,17 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="15"/>
@@ -3209,14 +3212,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -3228,17 +3231,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="15"/>
@@ -3275,44 +3278,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3345,198 +3348,198 @@
         <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="76.5" spans="1:5">
       <c r="A13" s="17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3551,8 +3554,8 @@
   <sheetPr/>
   <dimension ref="A1:AMD9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -3585,48 +3588,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
@@ -3655,7 +3658,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
       <c r="A3" s="13" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -3725,7 +3728,7 @@
         <v>91</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O4" s="15"/>
     </row>
@@ -3734,43 +3737,43 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G5" s="13">
         <v>200</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O5" s="15">
         <v>1</v>
@@ -3781,16 +3784,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>87</v>
@@ -3799,10 +3802,10 @@
         <v>200</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>90</v>
@@ -3817,7 +3820,7 @@
         <v>91</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O6" s="15"/>
     </row>
@@ -6926,142 +6929,142 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" ht="15.75" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" s="8" customFormat="1" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7102,10 +7105,10 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" ht="15.75" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" ht="120" spans="1:2">
@@ -7113,15 +7116,15 @@
         <v>80</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" ht="60" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -7151,13 +7154,13 @@
   <sheetData>
     <row r="1" s="8" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" ht="201" customHeight="1" spans="1:3">
@@ -7165,21 +7168,21 @@
         <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" ht="201" customHeight="1" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="11"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>tag1,sanity check</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Baidu_Search</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Body Default</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Position</t>
@@ -747,10 +747,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -791,20 +791,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,15 +825,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,8 +849,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,14 +876,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,16 +895,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,16 +918,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,7 +970,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,61 +1078,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,55 +1120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,43 +1138,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,17 +1179,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,11 +1229,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,8 +1247,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,32 +1270,30 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1302,115 +1302,115 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2542,7 +2542,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2592,36 +2592,36 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2629,16 +2629,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2825,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2853,7 +2853,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>152</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>161</v>
@@ -2965,16 +2965,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
@@ -2988,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
@@ -3002,16 +3002,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="17"/>
     </row>
@@ -3020,16 +3020,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="17"/>
     </row>
@@ -3038,16 +3038,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="17"/>
     </row>
@@ -3063,8 +3063,8 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -3086,28 +3086,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
@@ -3115,17 +3115,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="15"/>
@@ -3136,19 +3136,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>5</v>
@@ -3161,16 +3161,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="15" t="s">
@@ -3180,7 +3180,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:9">
@@ -3188,17 +3188,17 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="15"/>
@@ -3209,14 +3209,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -3228,17 +3228,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="15"/>
@@ -3275,44 +3275,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3345,198 +3345,198 @@
         <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="76.5" spans="1:5">
       <c r="A13" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3585,48 +3585,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
@@ -3655,7 +3655,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
       <c r="A3" s="13" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -3725,7 +3725,7 @@
         <v>91</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O4" s="15"/>
     </row>
@@ -3770,7 +3770,7 @@
         <v>99</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O5" s="15">
         <v>1</v>
@@ -3817,7 +3817,7 @@
         <v>91</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O6" s="15"/>
     </row>
@@ -6929,7 +6929,7 @@
         <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>106</v>
@@ -7165,7 +7165,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>128</v>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="164">
   <si>
     <t>Run</t>
   </si>
@@ -637,11 +637,21 @@
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
   "remote-debugging-port": 9222,
+  "headless": true
+}</t>
+  </si>
+  <si>
+    <t>"headless": true</t>
+  </si>
+  <si>
+    <t>{
+  "start-maximized": true,
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222,
   "headless": false
 }</t>
-  </si>
-  <si>
-    <t>"headless": true</t>
   </si>
   <si>
     <t>Variable Name</t>
@@ -792,7 +802,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,14 +835,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,9 +849,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,33 +872,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -895,16 +904,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,14 +936,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,7 +980,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,31 +1082,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,73 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,19 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,13 +1142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,13 +1154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,13 +1189,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,17 +1243,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,8 +1255,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,150 +1286,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2541,7 +2551,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2703,7 +2713,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2807,7 +2817,7 @@
         <v>147</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2842,10 +2852,10 @@
         <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -2856,7 +2866,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
@@ -2864,10 +2874,10 @@
         <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2900,24 +2910,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
@@ -2925,10 +2935,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3063,7 +3073,7 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="11"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>tag1,sanity check</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Baidu_Search</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Body Default</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>Position</t>
@@ -748,9 +748,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -791,23 +791,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -819,14 +813,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,17 +879,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,14 +894,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -902,9 +917,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,20 +927,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,7 +976,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,37 +1036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,109 +1060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,6 +1073,84 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,17 +1179,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,20 +1236,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,138 +1279,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2541,8 +2541,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2592,36 +2592,36 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:5">
@@ -2629,16 +2629,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2825,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2853,7 +2853,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>152</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>161</v>
@@ -2965,16 +2965,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:6">
@@ -2988,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
@@ -3002,16 +3002,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="17"/>
     </row>
@@ -3020,16 +3020,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="17"/>
     </row>
@@ -3038,16 +3038,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="17"/>
     </row>
@@ -3086,28 +3086,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
@@ -3115,17 +3115,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="15"/>
@@ -3136,19 +3136,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>5</v>
@@ -3161,16 +3161,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="15" t="s">
@@ -3188,17 +3188,17 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="15"/>
@@ -3209,14 +3209,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -3228,17 +3228,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="15"/>
@@ -3275,44 +3275,44 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3345,198 +3345,198 @@
         <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:5">
       <c r="A4" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:5">
       <c r="A5" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:5">
       <c r="A6" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:5">
       <c r="A7" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:5">
       <c r="A8" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:5">
       <c r="A9" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:5">
       <c r="A11" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:5">
       <c r="A12" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="76.5" spans="1:5">
       <c r="A13" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3585,48 +3585,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:15">
       <c r="A2" s="13" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
@@ -3655,7 +3655,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:15">
       <c r="A3" s="13" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -3725,7 +3725,7 @@
         <v>91</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O4" s="15"/>
     </row>
@@ -3770,7 +3770,7 @@
         <v>99</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O5" s="15">
         <v>1</v>
@@ -3817,7 +3817,7 @@
         <v>91</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O6" s="15"/>
     </row>
@@ -6929,7 +6929,7 @@
         <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>106</v>
@@ -7165,7 +7165,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>128</v>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="164">
   <si>
     <t>Run</t>
   </si>
@@ -637,11 +637,21 @@
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
   "remote-debugging-port": 9222,
+  "headless": true
+}</t>
+  </si>
+  <si>
+    <t>"headless": true</t>
+  </si>
+  <si>
+    <t>{
+  "start-maximized": true,
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222,
   "headless": false
 }</t>
-  </si>
-  <si>
-    <t>"headless": true</t>
   </si>
   <si>
     <t>Variable Name</t>
@@ -747,10 +757,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -791,11 +801,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,30 +813,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,15 +830,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,14 +882,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,7 +920,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,21 +929,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,7 +980,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,13 +1034,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,31 +1088,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,37 +1106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,25 +1136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,37 +1154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,6 +1189,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1188,11 +1222,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,36 +1276,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1279,7 +1289,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1290,127 +1300,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2542,7 +2552,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2703,7 +2713,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2807,7 +2817,7 @@
         <v>147</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2842,10 +2852,10 @@
         <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -2856,7 +2866,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
@@ -2864,10 +2874,10 @@
         <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2900,24 +2910,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
@@ -2925,10 +2935,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
   <si>
     <t>Run</t>
   </si>
@@ -637,21 +637,11 @@
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
   "remote-debugging-port": 9222,
-  "headless": true
-}</t>
-  </si>
-  <si>
-    <t>"headless": true</t>
-  </si>
-  <si>
-    <t>{
-  "start-maximized": true,
-  "no-sandbox": true,
-  "disable-dev-shm-usage": true,
-  "disable-gpu": true,
-  "remote-debugging-port": 9222,
   "headless": false
 }</t>
+  </si>
+  <si>
+    <t>"headless": true</t>
   </si>
   <si>
     <t>Variable Name</t>
@@ -758,8 +748,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -801,8 +791,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,15 +812,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -830,30 +820,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -865,24 +842,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,7 +881,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -920,7 +889,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,9 +925,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,6 +970,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -992,37 +1090,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,19 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,13 +1126,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,91 +1144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,17 +1179,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,190 +1262,155 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2551,7 +2541,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2712,8 +2702,8 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2817,7 +2807,7 @@
         <v>147</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2852,10 +2842,10 @@
         <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -2866,7 +2856,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
@@ -2874,10 +2864,10 @@
         <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2910,24 +2900,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
@@ -2935,10 +2925,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="164">
   <si>
     <t>Run</t>
   </si>
@@ -637,11 +637,21 @@
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
   "remote-debugging-port": 9222,
+  "headless": true
+}</t>
+  </si>
+  <si>
+    <t>"headless": true</t>
+  </si>
+  <si>
+    <t>{
+  "start-maximized": true,
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222,
   "headless": false
 }</t>
-  </si>
-  <si>
-    <t>"headless": true</t>
   </si>
   <si>
     <t>Variable Name</t>
@@ -749,8 +759,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -791,9 +801,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,17 +815,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -826,11 +835,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,8 +872,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,17 +912,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -902,31 +934,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,6 +980,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -982,13 +998,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,31 +1046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,6 +1070,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1060,7 +1100,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,85 +1148,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,11 +1191,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,8 +1216,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,177 +1278,149 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2542,7 +2552,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2807,7 +2817,7 @@
         <v>147</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2842,10 +2852,10 @@
         <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -2856,7 +2866,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
@@ -2864,10 +2874,10 @@
         <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2900,24 +2910,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
@@ -2925,10 +2935,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   </si>
   <si>
     <t>amount: ${IB_pacs008_1.$.amount}
-currency: to_uppercase(${lowercase_currency})</t>
+currency: to_uppercase(${IB_pacs008_1.lowercase_currency})</t>
   </si>
   <si>
     <t>$.result.amount=${IB_pacs008_1.$.amount}
@@ -801,8 +801,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -845,12 +845,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -862,37 +859,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,9 +887,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,37 +926,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -978,9 +964,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,7 +1024,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +1084,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,19 +1150,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1180,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,121 +1204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,26 +1233,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,15 +1253,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,7 +1276,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,6 +1313,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1333,138 +1333,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3155,7 +3155,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -19856,8 +19856,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.98095238095238" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -19866,7 +19866,7 @@
     <col min="2" max="2" width="8.28571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="10.4285714285714" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="73.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
@@ -20130,8 +20130,8 @@
   <sheetPr/>
   <dimension ref="A1:AMD9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.41904761904762" defaultRowHeight="15"/>
@@ -20141,7 +20141,7 @@
     <col min="3" max="3" width="15" style="11" customWidth="1"/>
     <col min="4" max="4" width="21.2857142857143" style="11" customWidth="1"/>
     <col min="5" max="5" width="19.8571428571429" style="11" customWidth="1"/>
-    <col min="6" max="6" width="42.7142857142857" style="11" customWidth="1"/>
+    <col min="6" max="6" width="47.1428571428571" style="11" customWidth="1"/>
     <col min="7" max="7" width="10.5809523809524" style="11" customWidth="1"/>
     <col min="8" max="8" width="81" style="11" customWidth="1"/>
     <col min="9" max="9" width="26.8761904761905" style="11" customWidth="1"/>

--- a/test_cases/e2e_test_cases.xlsx
+++ b/test_cases/e2e_test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
   <si>
     <t>Run</t>
   </si>
@@ -801,8 +801,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -845,29 +845,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,15 +859,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,7 +898,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,17 +913,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -931,6 +931,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -943,7 +951,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme va